--- a/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
+++ b/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contestant Points" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="edX League" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$M$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$Q$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="111">
   <si>
     <t>Team</t>
   </si>
@@ -231,6 +231,138 @@
   </si>
   <si>
     <t>edX % Chosen</t>
+  </si>
+  <si>
+    <t>Week Eliminated</t>
+  </si>
+  <si>
+    <t>% Owned</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Real Estate Agent</t>
+  </si>
+  <si>
+    <t>6'2"</t>
+  </si>
+  <si>
+    <t>Information Systems Supervisor</t>
+  </si>
+  <si>
+    <t>Education Software Manager</t>
+  </si>
+  <si>
+    <t>6'3"</t>
+  </si>
+  <si>
+    <t>6'5"</t>
+  </si>
+  <si>
+    <t>6'4"</t>
+  </si>
+  <si>
+    <t>Aspiring Drummer</t>
+  </si>
+  <si>
+    <t>6'</t>
+  </si>
+  <si>
+    <t>Marine Veteran</t>
+  </si>
+  <si>
+    <t>Male Model</t>
+  </si>
+  <si>
+    <t>Chiropractor</t>
+  </si>
+  <si>
+    <t>Firefighter</t>
+  </si>
+  <si>
+    <t>Startup Recruiter</t>
+  </si>
+  <si>
+    <t>Executive Recruiter</t>
+  </si>
+  <si>
+    <t>Senior Inventory Analyst</t>
+  </si>
+  <si>
+    <t>5'11"</t>
+  </si>
+  <si>
+    <t>Personal Trainer</t>
+  </si>
+  <si>
+    <t>Executive Assistant</t>
+  </si>
+  <si>
+    <t>Emergency Medicine Physician</t>
+  </si>
+  <si>
+    <t>Consulting Firm CEO</t>
+  </si>
+  <si>
+    <t>Attorney</t>
+  </si>
+  <si>
+    <t>Sales Account Executive</t>
+  </si>
+  <si>
+    <t>5'9"</t>
+  </si>
+  <si>
+    <t>ER Physician</t>
+  </si>
+  <si>
+    <t>5'10"</t>
+  </si>
+  <si>
+    <t>Tickle Monster</t>
+  </si>
+  <si>
+    <t>Prosecuting Attorney</t>
+  </si>
+  <si>
+    <t>Professional Wrestler</t>
+  </si>
+  <si>
+    <t>Marketing Consultant</t>
+  </si>
+  <si>
+    <t>Singer/Songwriter</t>
+  </si>
+  <si>
+    <t>Whaboom</t>
+  </si>
+  <si>
+    <t>Construction Sales Rep</t>
+  </si>
+  <si>
+    <t>Former Professional Basketball Player</t>
+  </si>
+  <si>
+    <t>Hotel Recreation Supervisor</t>
+  </si>
+  <si>
+    <t>Product Manager</t>
+  </si>
+  <si>
+    <t>Business Owner</t>
+  </si>
+  <si>
+    <t>Law Student</t>
+  </si>
+  <si>
+    <t>Sales Manager</t>
   </si>
 </sst>
 </file>
@@ -282,10 +414,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,20 +700,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="9.5546875" customWidth="1"/>
-    <col min="9" max="11" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -588,971 +731,1572 @@
         <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <f>C2/SUM($C$2:$C$32)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <f>CONCATENATE(ROUND(D2*100,0),"% of people have chosen this contestant")</f>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <f>G2/SUM($G$2:$G$32)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>CONCATENATE(ROUND(H2*100,0),"% of people have chosen this contestant")</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="H2" s="2" t="str">
-        <f>CONCATENATE(ROUND(G2*100,0),"% of people have chosen this contestant")</f>
+      <c r="L2" s="2" t="str">
+        <f>CONCATENATE(ROUND(K2*100,0),"% of people have chosen this contestant")</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I2">
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
-        <f>I2/SUM($I$2:$I$32)</f>
+      <c r="N2" s="2">
+        <f>M2/SUM($M$2:$M$32)</f>
         <v>0.02</v>
       </c>
-      <c r="K2" s="2" t="str">
-        <f>CONCATENATE(ROUND(J2*100,0),"% of people have chosen this contestant")</f>
+      <c r="O2" s="2" t="str">
+        <f>CONCATENATE(ROUND(N2*100,0),"% of people have chosen this contestant")</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>25</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(P2)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D32" si="0">C3/SUM($C$2:$C$32)</f>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H32" si="0">G3/SUM($G$2:$G$32)</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E32" si="1">CONCATENATE(ROUND(D3*100,0),"% of people have chosen this contestant")</f>
+      <c r="I3" s="2" t="str">
+        <f t="shared" ref="I3:I32" si="1">CONCATENATE(ROUND(H3*100,0),"% of people have chosen this contestant")</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J32" si="2">I3/SUM($I$2:$I$32)</f>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N32" si="2">M3/SUM($M$2:$M$32)</f>
         <v>0.02</v>
       </c>
-      <c r="K3" s="2" t="str">
-        <f t="shared" ref="K3:K32" si="3">CONCATENATE(ROUND(J3*100,0),"% of people have chosen this contestant")</f>
+      <c r="O3" s="2" t="str">
+        <f t="shared" ref="O3:O32" si="3">CONCATENATE(ROUND(N3*100,0),"% of people have chosen this contestant")</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>35</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q32" si="4">SUM(P3)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="J4" s="2">
+      <c r="N4" s="2">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="K4" s="2" t="str">
+      <c r="O4" s="2" t="str">
         <f t="shared" si="3"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>25</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="str">
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="O5" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>45</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="I6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I6">
+      <c r="M6">
         <v>6</v>
       </c>
-      <c r="J6" s="2">
+      <c r="N6" s="2">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="O6" s="2" t="str">
         <f t="shared" si="3"/>
         <v>12% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="str">
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="O7" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="I8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I8">
+      <c r="M8">
         <v>4</v>
       </c>
-      <c r="J8" s="2">
+      <c r="N8" s="2">
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
-      <c r="K8" s="2" t="str">
+      <c r="O8" s="2" t="str">
         <f t="shared" si="3"/>
         <v>8% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>50</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="str">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I9">
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="J9" s="2">
+      <c r="N9" s="2">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="K9" s="2" t="str">
+      <c r="O9" s="2" t="str">
         <f t="shared" si="3"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="E10" s="2" t="str">
+      <c r="I10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I10">
+      <c r="M10">
         <v>2</v>
       </c>
-      <c r="J10" s="2">
+      <c r="N10" s="2">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="K10" s="2" t="str">
+      <c r="O10" s="2" t="str">
         <f t="shared" si="3"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>30</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="E11" s="2" t="str">
+      <c r="I11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I11">
+      <c r="M11">
         <v>7</v>
       </c>
-      <c r="J11" s="2">
+      <c r="N11" s="2">
         <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="K11" s="2" t="str">
+      <c r="O11" s="2" t="str">
         <f t="shared" si="3"/>
         <v>14% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>35</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="D12" s="2">
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="E12" s="2" t="str">
+      <c r="I12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="I12">
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="J12" s="2">
+      <c r="N12" s="2">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="K12" s="2" t="str">
+      <c r="O12" s="2" t="str">
         <f t="shared" si="3"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>30</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="I13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I13">
+      <c r="M13">
         <v>2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="N13" s="2">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="K13" s="2" t="str">
+      <c r="O13" s="2" t="str">
         <f t="shared" si="3"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>30</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="str">
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I14">
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="J14" s="2">
+      <c r="N14" s="2">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="K14" s="2" t="str">
+      <c r="O14" s="2" t="str">
         <f t="shared" si="3"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>25</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="str">
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="2" t="str">
+      <c r="O15" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="str">
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="2" t="str">
+      <c r="O16" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>30</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17">
         <v>1</v>
       </c>
-      <c r="D17" s="2">
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="E17" s="2" t="str">
+      <c r="I17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I17">
+      <c r="M17">
         <v>3</v>
       </c>
-      <c r="J17" s="2">
+      <c r="N17" s="2">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="K17" s="2" t="str">
+      <c r="O17" s="2" t="str">
         <f t="shared" si="3"/>
         <v>6% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>35</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18">
         <v>1</v>
       </c>
-      <c r="D18" s="2">
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="E18" s="2" t="str">
+      <c r="I18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="str">
+      <c r="O18" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>30</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19">
         <v>1</v>
       </c>
-      <c r="D19" s="2">
+      <c r="H19" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="E19" s="2" t="str">
+      <c r="I19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I19">
+      <c r="M19">
         <v>3</v>
       </c>
-      <c r="J19" s="2">
+      <c r="N19" s="2">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="K19" s="2" t="str">
+      <c r="O19" s="2" t="str">
         <f t="shared" si="3"/>
         <v>6% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="str">
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="2" t="str">
+      <c r="O20" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>30</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21">
         <v>1</v>
       </c>
-      <c r="D21" s="2">
+      <c r="H21" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="E21" s="2" t="str">
+      <c r="I21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I21">
+      <c r="M21">
         <v>2</v>
       </c>
-      <c r="J21" s="2">
+      <c r="N21" s="2">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="K21" s="2" t="str">
+      <c r="O21" s="2" t="str">
         <f t="shared" si="3"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>35</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22">
         <v>3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="H22" s="2">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E22" s="2" t="str">
+      <c r="I22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I22">
+      <c r="M22">
         <v>1</v>
       </c>
-      <c r="J22" s="2">
+      <c r="N22" s="2">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="K22" s="2" t="str">
+      <c r="O22" s="2" t="str">
         <f t="shared" si="3"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>35</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23">
         <v>1</v>
       </c>
-      <c r="D23" s="2">
+      <c r="H23" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="E23" s="2" t="str">
+      <c r="I23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="2" t="str">
+      <c r="O23" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24">
         <v>1</v>
       </c>
-      <c r="D24" s="2">
+      <c r="H24" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="E24" s="2" t="str">
+      <c r="I24" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="2" t="str">
+      <c r="O24" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>40</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="str">
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K25" s="2" t="str">
+      <c r="O25" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>55</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26">
         <v>1</v>
       </c>
-      <c r="D26" s="2">
+      <c r="H26" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="E26" s="2" t="str">
+      <c r="I26" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I26">
+      <c r="M26">
         <v>2</v>
       </c>
-      <c r="J26" s="2">
+      <c r="N26" s="2">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="K26" s="2" t="str">
+      <c r="O26" s="2" t="str">
         <f t="shared" si="3"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>25</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27">
         <v>2</v>
       </c>
-      <c r="D27" s="2">
+      <c r="H27" s="2">
         <f t="shared" si="0"/>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="E27" s="2" t="str">
+      <c r="I27" s="2" t="str">
         <f t="shared" si="1"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I27">
+      <c r="M27">
         <v>3</v>
       </c>
-      <c r="J27" s="2">
+      <c r="N27" s="2">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="K27" s="2" t="str">
+      <c r="O27" s="2" t="str">
         <f t="shared" si="3"/>
         <v>6% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="str">
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="2" t="str">
+      <c r="O28" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>25</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29">
         <v>1</v>
       </c>
-      <c r="D29" s="2">
+      <c r="H29" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="E29" s="2" t="str">
+      <c r="I29" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K29" s="2" t="str">
+      <c r="O29" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <v>20</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30">
         <v>4</v>
       </c>
-      <c r="D30" s="2">
+      <c r="H30" s="2">
         <f t="shared" si="0"/>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="E30" s="2" t="str">
+      <c r="I30" s="2" t="str">
         <f t="shared" si="1"/>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="I30">
+      <c r="M30">
         <v>1</v>
       </c>
-      <c r="J30" s="2">
+      <c r="N30" s="2">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="K30" s="2" t="str">
+      <c r="O30" s="2" t="str">
         <f t="shared" si="3"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>30</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="2" t="str">
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I31">
+      <c r="M31">
         <v>3</v>
       </c>
-      <c r="J31" s="2">
+      <c r="N31" s="2">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="K31" s="2" t="str">
+      <c r="O31" s="2" t="str">
         <f t="shared" si="3"/>
         <v>6% of people have chosen this contestant</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>5</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32">
         <v>2</v>
       </c>
-      <c r="D32" s="2">
+      <c r="H32" s="2">
         <f t="shared" si="0"/>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="E32" s="2" t="str">
+      <c r="I32" s="2" t="str">
         <f t="shared" si="1"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I32">
+      <c r="M32">
         <v>3</v>
       </c>
-      <c r="J32" s="2">
+      <c r="N32" s="2">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="K32" s="2" t="str">
+      <c r="O32" s="2" t="str">
         <f t="shared" si="3"/>
         <v>6% of people have chosen this contestant</v>
+      </c>
+      <c r="P32">
+        <v>25</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1562,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1575,7 +2319,7 @@
     <col min="3" max="3" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1591,8 +2335,20 @@
       <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1603,9 +2359,32 @@
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E2" s="3">
+        <f>SUM(D2)</f>
+        <v>30</v>
+      </c>
+      <c r="F2" t="str">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>13% of people have chosen this contestant</v>
+      </c>
+      <c r="G2">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H2" t="str">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Senior Inventory Analyst</v>
+      </c>
+      <c r="I2" t="str">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1616,8 +2395,32 @@
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E46" si="0">SUM(D3)</f>
+        <v>35</v>
+      </c>
+      <c r="F3" t="str">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G3">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="H3" t="str">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Attorney</v>
+      </c>
+      <c r="I3" t="str">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1628,8 +2431,32 @@
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G4">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="H4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>ER Physician</v>
+      </c>
+      <c r="I4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'10"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1640,8 +2467,32 @@
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H5" t="str">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Product Manager</v>
+      </c>
+      <c r="I5" t="str">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1652,8 +2503,32 @@
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F6" t="str">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="H6" t="str">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="I6" t="str">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1664,8 +2539,32 @@
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="G7">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Education Software Manager</v>
+      </c>
+      <c r="I7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1676,8 +2575,32 @@
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="H8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Sales Manager</v>
+      </c>
+      <c r="I8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1688,8 +2611,32 @@
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F9" t="str">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="G9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="H9" t="str">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Personal Trainer</v>
+      </c>
+      <c r="I9" t="str">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1700,8 +2647,32 @@
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Recruiter</v>
+      </c>
+      <c r="I10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'4"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1712,8 +2683,32 @@
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>13% of people have chosen this contestant</v>
+      </c>
+      <c r="G11">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Senior Inventory Analyst</v>
+      </c>
+      <c r="I11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1724,8 +2719,32 @@
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="H12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Information Systems Supervisor</v>
+      </c>
+      <c r="I12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1736,8 +2755,32 @@
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>13% of people have chosen this contestant</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Senior Inventory Analyst</v>
+      </c>
+      <c r="I13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1748,8 +2791,32 @@
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>9% of people have chosen this contestant</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Business Owner</v>
+      </c>
+      <c r="I14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1760,8 +2827,32 @@
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="H15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="I15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1772,8 +2863,32 @@
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="G16">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="H16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Professional Wrestler</v>
+      </c>
+      <c r="I16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1784,8 +2899,32 @@
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="H17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Marine Veteran</v>
+      </c>
+      <c r="I17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1796,8 +2935,32 @@
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="G18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="H18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Professional Wrestler</v>
+      </c>
+      <c r="I18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1808,8 +2971,32 @@
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>13% of people have chosen this contestant</v>
+      </c>
+      <c r="G19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Senior Inventory Analyst</v>
+      </c>
+      <c r="I19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1820,8 +3007,32 @@
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F20" t="str">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="G20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H20" t="str">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Education Software Manager</v>
+      </c>
+      <c r="I20" t="str">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1832,8 +3043,32 @@
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="H21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Construction Sales Rep</v>
+      </c>
+      <c r="I21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1844,8 +3079,32 @@
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" t="str">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G22">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="H22" t="str">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Marine Veteran</v>
+      </c>
+      <c r="I22" t="str">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +3115,32 @@
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F23" t="str">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="H23" t="str">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="I23" t="str">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1868,8 +3151,32 @@
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F24" t="str">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G24">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H24" t="str">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Recruiter</v>
+      </c>
+      <c r="I24" t="str">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'4"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1880,8 +3187,32 @@
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F25" t="str">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G25">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="H25" t="str">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Sales Manager</v>
+      </c>
+      <c r="I25" t="str">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1892,8 +3223,32 @@
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F26" t="str">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H26" t="str">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Former Professional Basketball Player</v>
+      </c>
+      <c r="I26" t="str">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1904,8 +3259,32 @@
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F27" t="str">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G27">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="H27" t="str">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="I27" t="str">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1916,8 +3295,32 @@
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F28" t="str">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>9% of people have chosen this contestant</v>
+      </c>
+      <c r="G28">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H28" t="str">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Business Owner</v>
+      </c>
+      <c r="I28" t="str">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1928,8 +3331,32 @@
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F29" t="str">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="G29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="H29" t="str">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Personal Trainer</v>
+      </c>
+      <c r="I29" t="str">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1940,8 +3367,32 @@
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F30" t="str">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G30">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H30" t="str">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Startup Recruiter</v>
+      </c>
+      <c r="I30" t="str">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1952,8 +3403,32 @@
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F31" t="str">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G31">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H31" t="str">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Recruiter</v>
+      </c>
+      <c r="I31" t="str">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'4"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +3439,32 @@
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F32" t="str">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>13% of people have chosen this contestant</v>
+      </c>
+      <c r="G32">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H32" t="str">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Senior Inventory Analyst</v>
+      </c>
+      <c r="I32" t="str">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1976,8 +3475,32 @@
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F33" t="str">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G33">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H33" t="str">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Recruiter</v>
+      </c>
+      <c r="I33" t="str">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'4"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1988,8 +3511,32 @@
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F34" t="str">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>9% of people have chosen this contestant</v>
+      </c>
+      <c r="G34">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H34" t="str">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Business Owner</v>
+      </c>
+      <c r="I34" t="str">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +3547,32 @@
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F35" t="str">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="H35" t="str">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Sales Account Executive</v>
+      </c>
+      <c r="I35" t="str">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'9"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -2012,8 +3583,32 @@
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F36" t="str">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G36">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H36" t="str">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Singer/Songwriter</v>
+      </c>
+      <c r="I36" t="str">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -2024,8 +3619,32 @@
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F37" t="str">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="G37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H37" t="str">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Education Software Manager</v>
+      </c>
+      <c r="I37" t="str">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -2036,8 +3655,32 @@
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F38" t="str">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G38">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H38" t="str">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Recruiter</v>
+      </c>
+      <c r="I38" t="str">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'4"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -2048,8 +3691,32 @@
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F39" t="str">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>13% of people have chosen this contestant</v>
+      </c>
+      <c r="G39">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H39" t="str">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Senior Inventory Analyst</v>
+      </c>
+      <c r="I39" t="str">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -2060,8 +3727,32 @@
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F40" t="str">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G40">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H40" t="str">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Marketing Consultant</v>
+      </c>
+      <c r="I40" t="str">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -2072,8 +3763,32 @@
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F41" t="str">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H41" t="str">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Former Professional Basketball Player</v>
+      </c>
+      <c r="I41" t="str">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -2084,8 +3799,32 @@
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F42" t="str">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G42">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="H42" t="str">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="I42" t="str">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -2096,8 +3835,32 @@
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F43" t="str">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="G43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="H43" t="str">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Personal Trainer</v>
+      </c>
+      <c r="I43" t="str">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -2108,8 +3871,32 @@
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F44" t="str">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G44">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="H44" t="str">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Prosecuting Attorney</v>
+      </c>
+      <c r="I44" t="str">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -2120,8 +3907,32 @@
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F45" t="str">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="G45">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="H45" t="str">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Professional Wrestler</v>
+      </c>
+      <c r="I45" t="str">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -2131,6 +3942,30 @@
       <c r="C46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
+      </c>
+      <c r="D46">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F46" t="str">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>9% of people have chosen this contestant</v>
+      </c>
+      <c r="G46">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H46" t="str">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Business Owner</v>
+      </c>
+      <c r="I46" t="str">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +3979,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2182,6 +4017,14 @@
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
+      <c r="D2">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>SUM(D2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2194,6 +4037,14 @@
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
+      <c r="D3">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E16" si="0">SUM(D3)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2206,6 +4057,14 @@
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
+      <c r="D4">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2218,6 +4077,14 @@
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
+      <c r="D5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2230,6 +4097,14 @@
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
+      <c r="D6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2242,6 +4117,14 @@
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
+      <c r="D7">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2254,6 +4137,14 @@
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
+      <c r="D8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2266,6 +4157,14 @@
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
+      <c r="D9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2278,6 +4177,14 @@
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
+      <c r="D10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2290,6 +4197,14 @@
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
+      <c r="D11">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2302,6 +4217,14 @@
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
+      <c r="D12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2314,6 +4237,14 @@
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
+      <c r="D13">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2326,6 +4257,14 @@
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
+      <c r="D14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2338,6 +4277,14 @@
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
+      <c r="D15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2349,6 +4296,14 @@
       <c r="C16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
+      </c>
+      <c r="D16">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2358,10 +4313,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2371,7 +4326,7 @@
     <col min="3" max="3" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2387,8 +4342,20 @@
       <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2399,8 +4366,32 @@
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>SUM(D2)</f>
+        <v>5</v>
+      </c>
+      <c r="F2" t="str">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G2">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H2" t="str">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Former Professional Basketball Player</v>
+      </c>
+      <c r="I2" t="str">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2411,8 +4402,32 @@
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E51" si="0">SUM(D3)</f>
+        <v>35</v>
+      </c>
+      <c r="F3" t="str">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G3">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="H3" t="str">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Attorney</v>
+      </c>
+      <c r="I3" t="str">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2423,8 +4438,32 @@
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="G4">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="H4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Personal Trainer</v>
+      </c>
+      <c r="I4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2435,8 +4474,32 @@
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>13% of people have chosen this contestant</v>
+      </c>
+      <c r="G5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H5" t="str">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Senior Inventory Analyst</v>
+      </c>
+      <c r="I5" t="str">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2447,8 +4510,32 @@
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F6" t="str">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H6" t="str">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Recruiter</v>
+      </c>
+      <c r="I6" t="str">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'4"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2459,8 +4546,32 @@
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G7">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="H7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Marine Veteran</v>
+      </c>
+      <c r="I7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2471,8 +4582,32 @@
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="G8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="H8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Personal Trainer</v>
+      </c>
+      <c r="I8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2483,8 +4618,32 @@
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F9" t="str">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H9" t="str">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Former Professional Basketball Player</v>
+      </c>
+      <c r="I9" t="str">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2495,8 +4654,32 @@
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="H10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Sales Manager</v>
+      </c>
+      <c r="I10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2507,8 +4690,32 @@
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="G11">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="H11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Professional Wrestler</v>
+      </c>
+      <c r="I11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2519,8 +4726,32 @@
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="G12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Education Software Manager</v>
+      </c>
+      <c r="I12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2531,8 +4762,32 @@
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Startup Recruiter</v>
+      </c>
+      <c r="I13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -2543,8 +4798,32 @@
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="H14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Marine Veteran</v>
+      </c>
+      <c r="I14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2555,8 +4834,32 @@
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Recruiter</v>
+      </c>
+      <c r="I15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'4"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2567,8 +4870,32 @@
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="G16">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="H16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Real Estate Agent</v>
+      </c>
+      <c r="I16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2579,8 +4906,32 @@
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="H17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="I17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2591,8 +4942,32 @@
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="H18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>ER Physician</v>
+      </c>
+      <c r="I18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'10"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2603,8 +4978,32 @@
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="H19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Construction Sales Rep</v>
+      </c>
+      <c r="I19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2615,8 +5014,32 @@
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F20" t="str">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="G20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H20" t="str">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Law Student</v>
+      </c>
+      <c r="I20" t="str">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2627,8 +5050,32 @@
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="H21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Marine Veteran</v>
+      </c>
+      <c r="I21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2639,8 +5086,32 @@
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F22" t="str">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="G22">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H22" t="str">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Education Software Manager</v>
+      </c>
+      <c r="I22" t="str">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2651,8 +5122,32 @@
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F23" t="str">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H23" t="str">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Recruiter</v>
+      </c>
+      <c r="I23" t="str">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'4"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -2663,8 +5158,32 @@
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F24" t="str">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="G24">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="H24" t="str">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Assistant</v>
+      </c>
+      <c r="I24" t="str">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -2675,8 +5194,32 @@
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G25">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="H25" t="str">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>ER Physician</v>
+      </c>
+      <c r="I25" t="str">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'10"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -2687,8 +5230,32 @@
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F26" t="str">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="G26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H26" t="str">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Law Student</v>
+      </c>
+      <c r="I26" t="str">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -2699,8 +5266,32 @@
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" t="str">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G27">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="H27" t="str">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Marine Veteran</v>
+      </c>
+      <c r="I27" t="str">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2711,8 +5302,32 @@
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F28" t="str">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G28">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="H28" t="str">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="I28" t="str">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2723,8 +5338,32 @@
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F29" t="str">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="G29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H29" t="str">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Firefighter</v>
+      </c>
+      <c r="I29" t="str">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -2735,8 +5374,32 @@
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F30" t="str">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G30">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="H30" t="str">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Attorney</v>
+      </c>
+      <c r="I30" t="str">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2747,8 +5410,32 @@
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F31" t="str">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G31">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="H31" t="str">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Sales Manager</v>
+      </c>
+      <c r="I31" t="str">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2759,8 +5446,32 @@
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F32" t="str">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G32">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="H32" t="str">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Prosecuting Attorney</v>
+      </c>
+      <c r="I32" t="str">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2771,8 +5482,32 @@
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F33" t="str">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G33">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="H33" t="str">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Construction Sales Rep</v>
+      </c>
+      <c r="I33" t="str">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2783,8 +5518,32 @@
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" t="str">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G34">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="H34" t="str">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Marine Veteran</v>
+      </c>
+      <c r="I34" t="str">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2795,8 +5554,32 @@
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F35" t="str">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H35" t="str">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Recruiter</v>
+      </c>
+      <c r="I35" t="str">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'4"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2807,8 +5590,32 @@
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" t="str">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G36">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="H36" t="str">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>ER Physician</v>
+      </c>
+      <c r="I36" t="str">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'10"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2819,8 +5626,32 @@
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F37" t="str">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H37" t="str">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Former Professional Basketball Player</v>
+      </c>
+      <c r="I37" t="str">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2831,8 +5662,32 @@
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F38" t="str">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>13% of people have chosen this contestant</v>
+      </c>
+      <c r="G38">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H38" t="str">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Senior Inventory Analyst</v>
+      </c>
+      <c r="I38" t="str">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2843,8 +5698,32 @@
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F39" t="str">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>9% of people have chosen this contestant</v>
+      </c>
+      <c r="G39">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H39" t="str">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Business Owner</v>
+      </c>
+      <c r="I39" t="str">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2855,8 +5734,32 @@
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F40" t="str">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G40">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="H40" t="str">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="I40" t="str">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2867,8 +5770,32 @@
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F41" t="str">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H41" t="str">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Recruiter</v>
+      </c>
+      <c r="I41" t="str">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'4"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2879,8 +5806,32 @@
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F42" t="str">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G42">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="H42" t="str">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Attorney</v>
+      </c>
+      <c r="I42" t="str">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -2891,8 +5842,32 @@
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F43" t="str">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H43" t="str">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Recruiter</v>
+      </c>
+      <c r="I43" t="str">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'4"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -2903,8 +5878,32 @@
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" t="str">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G44">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="H44" t="str">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Marine Veteran</v>
+      </c>
+      <c r="I44" t="str">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -2915,8 +5914,32 @@
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F45" t="str">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G45">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="H45" t="str">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="I45" t="str">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -2927,8 +5950,32 @@
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F46" t="str">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G46">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="H46" t="str">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Prosecuting Attorney</v>
+      </c>
+      <c r="I46" t="str">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2939,8 +5986,32 @@
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F47" t="str">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G47">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H47" t="str">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Startup Recruiter</v>
+      </c>
+      <c r="I47" t="str">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2951,8 +6022,32 @@
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F48" t="str">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G48">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H48" t="str">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Recruiter</v>
+      </c>
+      <c r="I48" t="str">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'4"</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2963,8 +6058,32 @@
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F49" t="str">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="G49">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H49" t="str">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Law Student</v>
+      </c>
+      <c r="I49" t="str">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -2975,8 +6094,32 @@
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F50" t="str">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G50">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="H50" t="str">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Information Systems Supervisor</v>
+      </c>
+      <c r="I50" t="str">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -2986,6 +6129,30 @@
       <c r="C51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
+      </c>
+      <c r="D51">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F51" t="str">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="G51">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="H51" t="str">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Sales Manager</v>
+      </c>
+      <c r="I51" t="str">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
       </c>
     </row>
   </sheetData>

--- a/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
+++ b/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contestant Points" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="edX League" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$Q$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$R$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="115">
   <si>
     <t>Team</t>
   </si>
@@ -363,6 +363,18 @@
   </si>
   <si>
     <t>Sales Manager</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Caucasian</t>
+  </si>
+  <si>
+    <t>African American</t>
+  </si>
+  <si>
+    <t>Asian</t>
   </si>
 </sst>
 </file>
@@ -700,30 +712,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -743,40 +755,43 @@
         <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -795,41 +810,44 @@
       <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <f>G2/SUM($G$2:$G$32)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f>CONCATENATE(ROUND(H2*100,0),"% of people have chosen this contestant")</f>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <f>H2/SUM($H$2:$H$32)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>CONCATENATE(ROUND(I2*100,0),"% of people have chosen this contestant")</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="L2" s="2" t="str">
-        <f>CONCATENATE(ROUND(K2*100,0),"% of people have chosen this contestant")</f>
+      <c r="M2" s="2" t="str">
+        <f>CONCATENATE(ROUND(L2*100,0),"% of people have chosen this contestant")</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="N2" s="2">
-        <f>M2/SUM($M$2:$M$32)</f>
+      <c r="O2" s="2">
+        <f>N2/SUM($N$2:$N$32)</f>
         <v>0.02</v>
       </c>
-      <c r="O2" s="2" t="str">
-        <f>CONCATENATE(ROUND(N2*100,0),"% of people have chosen this contestant")</f>
+      <c r="P2" s="2" t="str">
+        <f>CONCATENATE(ROUND(O2*100,0),"% of people have chosen this contestant")</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>25</v>
       </c>
-      <c r="Q2">
-        <f>SUM(P2)</f>
+      <c r="R2">
+        <f>SUM(Q2)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -848,37 +866,40 @@
       <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H32" si="0">G3/SUM($G$2:$G$32)</f>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I32" si="0">H3/SUM($H$2:$H$32)</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I32" si="1">CONCATENATE(ROUND(H3*100,0),"% of people have chosen this contestant")</f>
+      <c r="J3" s="2" t="str">
+        <f t="shared" ref="J3:J32" si="1">CONCATENATE(ROUND(I3*100,0),"% of people have chosen this contestant")</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="N3" s="2">
-        <f t="shared" ref="N3:N32" si="2">M3/SUM($M$2:$M$32)</f>
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O32" si="2">N3/SUM($N$2:$N$32)</f>
         <v>0.02</v>
       </c>
-      <c r="O3" s="2" t="str">
-        <f t="shared" ref="O3:O32" si="3">CONCATENATE(ROUND(N3*100,0),"% of people have chosen this contestant")</f>
+      <c r="P3" s="2" t="str">
+        <f t="shared" ref="P3:P32" si="3">CONCATENATE(ROUND(O3*100,0),"% of people have chosen this contestant")</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="P3">
-        <v>35</v>
-      </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q32" si="4">SUM(P3)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R32" si="4">SUM(Q3)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -897,37 +918,40 @@
       <c r="F4" t="s">
         <v>76</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="J4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="O4" s="2" t="str">
+      <c r="P4" s="2" t="str">
         <f t="shared" si="3"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>25</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -946,37 +970,40 @@
       <c r="F5" t="s">
         <v>80</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="str">
+      <c r="G5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O5" s="2" t="str">
+      <c r="P5" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>45</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -995,37 +1022,40 @@
       <c r="F6" t="s">
         <v>80</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="J6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>6</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="O6" s="2" t="str">
+      <c r="P6" s="2" t="str">
         <f t="shared" si="3"/>
         <v>12% of people have chosen this contestant</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1044,37 +1074,40 @@
       <c r="F7" t="s">
         <v>73</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="str">
+      <c r="G7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O7" s="2" t="str">
+      <c r="P7" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>25</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1093,37 +1126,40 @@
       <c r="F8" t="s">
         <v>73</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="J8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>4</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
-      <c r="O8" s="2" t="str">
+      <c r="P8" s="2" t="str">
         <f t="shared" si="3"/>
         <v>8% of people have chosen this contestant</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>50</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1142,37 +1178,40 @@
       <c r="F9" t="s">
         <v>73</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="str">
+      <c r="G9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="O9" s="2" t="str">
+      <c r="P9" s="2" t="str">
         <f t="shared" si="3"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="P9">
-        <v>30</v>
-      </c>
       <c r="Q9">
+        <v>30</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1191,37 +1230,40 @@
       <c r="F10" t="s">
         <v>73</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="J10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="O10" s="2" t="str">
+      <c r="P10" s="2" t="str">
         <f t="shared" si="3"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="P10">
-        <v>30</v>
-      </c>
       <c r="Q10">
+        <v>30</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1240,37 +1282,40 @@
       <c r="F11" t="s">
         <v>78</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11">
         <v>5</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="I11" s="2" t="str">
+      <c r="J11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>7</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="O11" s="2" t="str">
+      <c r="P11" s="2" t="str">
         <f t="shared" si="3"/>
         <v>14% of people have chosen this contestant</v>
       </c>
-      <c r="P11">
-        <v>35</v>
-      </c>
       <c r="Q11">
+        <v>35</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1289,37 +1334,40 @@
       <c r="F12" t="s">
         <v>88</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12">
         <v>6</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="I12" s="2" t="str">
+      <c r="J12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="O12" s="2" t="str">
+      <c r="P12" s="2" t="str">
         <f t="shared" si="3"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="P12">
-        <v>30</v>
-      </c>
       <c r="Q12">
+        <v>30</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1338,37 +1386,40 @@
       <c r="F13" t="s">
         <v>73</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I13" s="2" t="str">
+      <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="O13" s="2" t="str">
+      <c r="P13" s="2" t="str">
         <f t="shared" si="3"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="P13">
-        <v>30</v>
-      </c>
       <c r="Q13">
+        <v>30</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1387,37 +1438,40 @@
       <c r="F14" t="s">
         <v>80</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="str">
+      <c r="G14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="O14" s="2" t="str">
+      <c r="P14" s="2" t="str">
         <f t="shared" si="3"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>25</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1436,37 +1490,40 @@
       <c r="F15" t="s">
         <v>88</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="str">
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O15" s="2" t="str">
+      <c r="P15" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1485,37 +1542,40 @@
       <c r="F16" t="s">
         <v>88</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="str">
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O16" s="2" t="str">
+      <c r="P16" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="P16">
-        <v>30</v>
-      </c>
       <c r="Q16">
+        <v>30</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1534,37 +1594,40 @@
       <c r="F17" t="s">
         <v>88</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17">
         <v>1</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="I17" s="2" t="str">
+      <c r="J17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>3</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="O17" s="2" t="str">
+      <c r="P17" s="2" t="str">
         <f t="shared" si="3"/>
         <v>6% of people have chosen this contestant</v>
       </c>
-      <c r="P17">
-        <v>35</v>
-      </c>
       <c r="Q17">
+        <v>35</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1583,37 +1646,40 @@
       <c r="F18" t="s">
         <v>95</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="I18" s="2" t="str">
+      <c r="J18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O18" s="2" t="str">
+      <c r="P18" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="P18">
-        <v>30</v>
-      </c>
       <c r="Q18">
+        <v>30</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1632,37 +1698,40 @@
       <c r="F19" t="s">
         <v>97</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19">
         <v>1</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="I19" s="2" t="str">
+      <c r="J19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>3</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19" s="2">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="O19" s="2" t="str">
+      <c r="P19" s="2" t="str">
         <f t="shared" si="3"/>
         <v>6% of people have chosen this contestant</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
       <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1681,37 +1750,40 @@
       <c r="F20" t="s">
         <v>73</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="str">
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="2" t="str">
+      <c r="P20" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="P20">
-        <v>30</v>
-      </c>
       <c r="Q20">
+        <v>30</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1730,37 +1802,40 @@
       <c r="F21" t="s">
         <v>76</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="I21" s="2" t="str">
+      <c r="J21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>2</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="O21" s="2" t="str">
+      <c r="P21" s="2" t="str">
         <f t="shared" si="3"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="P21">
-        <v>35</v>
-      </c>
       <c r="Q21">
+        <v>35</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1779,37 +1854,40 @@
       <c r="F22" t="s">
         <v>80</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22">
         <v>3</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I22" s="2" t="str">
+      <c r="J22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="O22" s="2" t="str">
+      <c r="P22" s="2" t="str">
         <f t="shared" si="3"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="P22">
-        <v>35</v>
-      </c>
       <c r="Q22">
+        <v>35</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1828,37 +1906,40 @@
       <c r="F23" t="s">
         <v>88</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="I23" s="2" t="str">
+      <c r="J23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="2" t="str">
+      <c r="P23" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>5</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1877,37 +1958,40 @@
       <c r="F24" t="s">
         <v>88</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24">
         <v>1</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="I24" s="2" t="str">
+      <c r="J24" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="2" t="str">
+      <c r="P24" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>40</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1926,37 +2010,40 @@
       <c r="F25" t="s">
         <v>80</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="str">
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O25" s="2" t="str">
+      <c r="P25" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>55</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1975,37 +2062,40 @@
       <c r="F26" t="s">
         <v>76</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26">
         <v>1</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="I26" s="2" t="str">
+      <c r="J26" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="O26" s="2" t="str">
+      <c r="P26" s="2" t="str">
         <f t="shared" si="3"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>25</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2024,37 +2114,40 @@
       <c r="F27" t="s">
         <v>80</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27">
         <v>2</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="I27" s="2" t="str">
+      <c r="J27" s="2" t="str">
         <f t="shared" si="1"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>3</v>
       </c>
-      <c r="N27" s="2">
+      <c r="O27" s="2">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="O27" s="2" t="str">
+      <c r="P27" s="2" t="str">
         <f t="shared" si="3"/>
         <v>6% of people have chosen this contestant</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>5</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -2073,37 +2166,40 @@
       <c r="F28" t="s">
         <v>77</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="str">
+      <c r="G28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O28" s="2" t="str">
+      <c r="P28" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>25</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2122,37 +2218,40 @@
       <c r="F29" t="s">
         <v>80</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29">
         <v>1</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="I29" s="2" t="str">
+      <c r="J29" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O29" s="2" t="str">
+      <c r="P29" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>20</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2171,37 +2270,40 @@
       <c r="F30" t="s">
         <v>76</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30">
         <v>4</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="I30" s="2" t="str">
+      <c r="J30" s="2" t="str">
         <f t="shared" si="1"/>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1</v>
       </c>
-      <c r="N30" s="2">
+      <c r="O30" s="2">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="O30" s="2" t="str">
+      <c r="P30" s="2" t="str">
         <f t="shared" si="3"/>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="P30">
-        <v>30</v>
-      </c>
       <c r="Q30">
+        <v>30</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2220,37 +2322,40 @@
       <c r="F31" t="s">
         <v>73</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="2" t="str">
+      <c r="G31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>3</v>
       </c>
-      <c r="N31" s="2">
+      <c r="O31" s="2">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="O31" s="2" t="str">
+      <c r="P31" s="2" t="str">
         <f t="shared" si="3"/>
         <v>6% of people have chosen this contestant</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>5</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2269,32 +2374,35 @@
       <c r="F32" t="s">
         <v>76</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32">
         <v>2</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="I32" s="2" t="str">
+      <c r="J32" s="2" t="str">
         <f t="shared" si="1"/>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>3</v>
       </c>
-      <c r="N32" s="2">
+      <c r="O32" s="2">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="O32" s="2" t="str">
+      <c r="P32" s="2" t="str">
         <f t="shared" si="3"/>
         <v>6% of people have chosen this contestant</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>25</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
@@ -2306,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2317,9 +2425,10 @@
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2347,8 +2456,11 @@
       <c r="I1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2360,7 +2472,7 @@
         <v>Still In</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E2" s="3">
@@ -2368,7 +2480,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="str">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
       <c r="G2">
@@ -2383,8 +2495,12 @@
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="str">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2396,7 +2512,7 @@
         <v>Still In</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E3" s="3">
@@ -2404,7 +2520,7 @@
         <v>35</v>
       </c>
       <c r="F3" t="str">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G3">
@@ -2419,8 +2535,12 @@
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2432,7 +2552,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E4" s="3">
@@ -2440,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="str">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G4">
@@ -2455,8 +2575,12 @@
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2468,7 +2592,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E5" s="3">
@@ -2476,7 +2600,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="str">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G5">
@@ -2491,8 +2615,12 @@
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Asian</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2504,7 +2632,7 @@
         <v>Still In</v>
       </c>
       <c r="D6">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E6" s="3">
@@ -2512,7 +2640,7 @@
         <v>50</v>
       </c>
       <c r="F6" t="str">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G6">
@@ -2527,8 +2655,12 @@
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2540,7 +2672,7 @@
         <v>Still In</v>
       </c>
       <c r="D7">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E7" s="3">
@@ -2548,7 +2680,7 @@
         <v>25</v>
       </c>
       <c r="F7" t="str">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="G7">
@@ -2563,8 +2695,12 @@
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2576,7 +2712,7 @@
         <v>Still In</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E8" s="3">
@@ -2584,7 +2720,7 @@
         <v>25</v>
       </c>
       <c r="F8" t="str">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G8">
@@ -2599,8 +2735,12 @@
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2612,7 +2752,7 @@
         <v>Still In</v>
       </c>
       <c r="D9">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E9" s="3">
@@ -2620,7 +2760,7 @@
         <v>30</v>
       </c>
       <c r="F9" t="str">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="G9">
@@ -2635,8 +2775,12 @@
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2648,7 +2792,7 @@
         <v>Still In</v>
       </c>
       <c r="D10">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E10" s="3">
@@ -2656,7 +2800,7 @@
         <v>35</v>
       </c>
       <c r="F10" t="str">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G10">
@@ -2671,8 +2815,12 @@
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2684,7 +2832,7 @@
         <v>Still In</v>
       </c>
       <c r="D11">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E11" s="3">
@@ -2692,7 +2840,7 @@
         <v>30</v>
       </c>
       <c r="F11" t="str">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
       <c r="G11">
@@ -2707,8 +2855,12 @@
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2720,7 +2872,7 @@
         <v>Still In</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E12" s="3">
@@ -2728,7 +2880,7 @@
         <v>35</v>
       </c>
       <c r="F12" t="str">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G12">
@@ -2743,8 +2895,12 @@
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2756,7 +2912,7 @@
         <v>Still In</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E13" s="3">
@@ -2764,7 +2920,7 @@
         <v>30</v>
       </c>
       <c r="F13" t="str">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
       <c r="G13">
@@ -2779,8 +2935,12 @@
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2792,7 +2952,7 @@
         <v>Still In</v>
       </c>
       <c r="D14">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E14" s="3">
@@ -2800,7 +2960,7 @@
         <v>30</v>
       </c>
       <c r="F14" t="str">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
       <c r="G14">
@@ -2815,8 +2975,12 @@
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2828,7 +2992,7 @@
         <v>Still In</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E15" s="3">
@@ -2836,7 +3000,7 @@
         <v>50</v>
       </c>
       <c r="F15" t="str">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G15">
@@ -2851,8 +3015,12 @@
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2864,7 +3032,7 @@
         <v>Still In</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E16" s="3">
@@ -2872,7 +3040,7 @@
         <v>35</v>
       </c>
       <c r="F16" t="str">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="G16">
@@ -2887,8 +3055,12 @@
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2900,7 +3072,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E17" s="3">
@@ -2908,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="str">
-        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G17">
@@ -2923,8 +3095,12 @@
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Asian</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2936,7 +3112,7 @@
         <v>Still In</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E18" s="3">
@@ -2944,7 +3120,7 @@
         <v>35</v>
       </c>
       <c r="F18" t="str">
-        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="G18">
@@ -2959,8 +3135,12 @@
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2972,7 +3152,7 @@
         <v>Still In</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E19" s="3">
@@ -2980,7 +3160,7 @@
         <v>30</v>
       </c>
       <c r="F19" t="str">
-        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
       <c r="G19">
@@ -2995,8 +3175,12 @@
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3008,7 +3192,7 @@
         <v>Still In</v>
       </c>
       <c r="D20">
-        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E20" s="3">
@@ -3016,7 +3200,7 @@
         <v>25</v>
       </c>
       <c r="F20" t="str">
-        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="G20">
@@ -3031,8 +3215,12 @@
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="str">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -3044,7 +3232,7 @@
         <v>Still In</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E21" s="3">
@@ -3052,7 +3240,7 @@
         <v>25</v>
       </c>
       <c r="F21" t="str">
-        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G21">
@@ -3067,8 +3255,12 @@
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3080,7 +3272,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D22">
-        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E22" s="3">
@@ -3088,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="str">
-        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G22">
@@ -3103,8 +3295,12 @@
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="str">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Asian</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3116,7 +3312,7 @@
         <v>Still In</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E23" s="3">
@@ -3124,7 +3320,7 @@
         <v>50</v>
       </c>
       <c r="F23" t="str">
-        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G23">
@@ -3139,8 +3335,12 @@
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="str">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -3152,7 +3352,7 @@
         <v>Still In</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E24" s="3">
@@ -3160,7 +3360,7 @@
         <v>35</v>
       </c>
       <c r="F24" t="str">
-        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G24">
@@ -3175,8 +3375,12 @@
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" t="str">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -3188,7 +3392,7 @@
         <v>Still In</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E25" s="3">
@@ -3196,7 +3400,7 @@
         <v>25</v>
       </c>
       <c r="F25" t="str">
-        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G25">
@@ -3211,8 +3415,12 @@
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="str">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3224,7 +3432,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E26" s="3">
@@ -3232,7 +3440,7 @@
         <v>5</v>
       </c>
       <c r="F26" t="str">
-        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G26">
@@ -3247,8 +3455,12 @@
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" t="str">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -3260,7 +3472,7 @@
         <v>Still In</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E27" s="3">
@@ -3268,7 +3480,7 @@
         <v>50</v>
       </c>
       <c r="F27" t="str">
-        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G27">
@@ -3283,8 +3495,12 @@
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="str">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -3296,7 +3512,7 @@
         <v>Still In</v>
       </c>
       <c r="D28">
-        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E28" s="3">
@@ -3304,7 +3520,7 @@
         <v>30</v>
       </c>
       <c r="F28" t="str">
-        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
       <c r="G28">
@@ -3319,8 +3535,12 @@
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" t="str">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -3332,7 +3552,7 @@
         <v>Still In</v>
       </c>
       <c r="D29">
-        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E29" s="3">
@@ -3340,7 +3560,7 @@
         <v>30</v>
       </c>
       <c r="F29" t="str">
-        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="G29">
@@ -3355,8 +3575,12 @@
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" t="str">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -3368,7 +3592,7 @@
         <v>Still In</v>
       </c>
       <c r="D30">
-        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E30" s="3">
@@ -3376,7 +3600,7 @@
         <v>30</v>
       </c>
       <c r="F30" t="str">
-        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G30">
@@ -3391,8 +3615,12 @@
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" t="str">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -3404,7 +3632,7 @@
         <v>Still In</v>
       </c>
       <c r="D31">
-        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E31" s="3">
@@ -3412,7 +3640,7 @@
         <v>35</v>
       </c>
       <c r="F31" t="str">
-        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G31">
@@ -3427,8 +3655,12 @@
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" t="str">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -3440,7 +3672,7 @@
         <v>Still In</v>
       </c>
       <c r="D32">
-        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E32" s="3">
@@ -3448,7 +3680,7 @@
         <v>30</v>
       </c>
       <c r="F32" t="str">
-        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
       <c r="G32">
@@ -3463,8 +3695,12 @@
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="str">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -3476,7 +3712,7 @@
         <v>Still In</v>
       </c>
       <c r="D33">
-        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E33" s="3">
@@ -3484,7 +3720,7 @@
         <v>35</v>
       </c>
       <c r="F33" t="str">
-        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G33">
@@ -3499,8 +3735,12 @@
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" t="str">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -3512,7 +3752,7 @@
         <v>Still In</v>
       </c>
       <c r="D34">
-        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E34" s="3">
@@ -3520,7 +3760,7 @@
         <v>30</v>
       </c>
       <c r="F34" t="str">
-        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
       <c r="G34">
@@ -3535,8 +3775,12 @@
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" t="str">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -3548,7 +3792,7 @@
         <v>Still In</v>
       </c>
       <c r="D35">
-        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E35" s="3">
@@ -3556,7 +3800,7 @@
         <v>30</v>
       </c>
       <c r="F35" t="str">
-        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G35">
@@ -3571,8 +3815,12 @@
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'9"</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" t="str">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -3584,7 +3832,7 @@
         <v>Still In</v>
       </c>
       <c r="D36">
-        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>40</v>
       </c>
       <c r="E36" s="3">
@@ -3592,7 +3840,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="str">
-        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G36">
@@ -3607,8 +3855,12 @@
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" t="str">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -3620,7 +3872,7 @@
         <v>Still In</v>
       </c>
       <c r="D37">
-        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E37" s="3">
@@ -3628,7 +3880,7 @@
         <v>25</v>
       </c>
       <c r="F37" t="str">
-        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="G37">
@@ -3643,8 +3895,12 @@
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" t="str">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -3656,7 +3912,7 @@
         <v>Still In</v>
       </c>
       <c r="D38">
-        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E38" s="3">
@@ -3664,7 +3920,7 @@
         <v>35</v>
       </c>
       <c r="F38" t="str">
-        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G38">
@@ -3679,8 +3935,12 @@
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" t="str">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -3692,7 +3952,7 @@
         <v>Still In</v>
       </c>
       <c r="D39">
-        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E39" s="3">
@@ -3700,7 +3960,7 @@
         <v>30</v>
       </c>
       <c r="F39" t="str">
-        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
       <c r="G39">
@@ -3715,8 +3975,12 @@
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" t="str">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -3728,7 +3992,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D40">
-        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E40" s="3">
@@ -3736,7 +4000,7 @@
         <v>5</v>
       </c>
       <c r="F40" t="str">
-        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G40">
@@ -3751,8 +4015,12 @@
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" t="str">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -3764,7 +4032,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D41">
-        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E41" s="3">
@@ -3772,7 +4040,7 @@
         <v>5</v>
       </c>
       <c r="F41" t="str">
-        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G41">
@@ -3787,8 +4055,12 @@
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" t="str">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -3800,7 +4072,7 @@
         <v>Still In</v>
       </c>
       <c r="D42">
-        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E42" s="3">
@@ -3808,7 +4080,7 @@
         <v>50</v>
       </c>
       <c r="F42" t="str">
-        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G42">
@@ -3823,8 +4095,12 @@
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" t="str">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -3836,7 +4112,7 @@
         <v>Still In</v>
       </c>
       <c r="D43">
-        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E43" s="3">
@@ -3844,7 +4120,7 @@
         <v>30</v>
       </c>
       <c r="F43" t="str">
-        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="G43">
@@ -3859,8 +4135,12 @@
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" t="str">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -3872,7 +4152,7 @@
         <v>Still In</v>
       </c>
       <c r="D44">
-        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E44" s="3">
@@ -3880,7 +4160,7 @@
         <v>35</v>
       </c>
       <c r="F44" t="str">
-        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G44">
@@ -3895,8 +4175,12 @@
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" t="str">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -3908,7 +4192,7 @@
         <v>Still In</v>
       </c>
       <c r="D45">
-        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E45" s="3">
@@ -3916,7 +4200,7 @@
         <v>35</v>
       </c>
       <c r="F45" t="str">
-        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="G45">
@@ -3931,8 +4215,12 @@
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" t="str">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -3944,7 +4232,7 @@
         <v>Still In</v>
       </c>
       <c r="D46">
-        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$Q$32,16,FALSE)</f>
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E46" s="3">
@@ -3952,7 +4240,7 @@
         <v>30</v>
       </c>
       <c r="F46" t="str">
-        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
       <c r="G46">
@@ -3966,6 +4254,10 @@
       <c r="I46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
+      </c>
+      <c r="J46" t="str">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
       </c>
     </row>
   </sheetData>
@@ -3979,7 +4271,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4018,7 +4310,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E2">
@@ -4038,7 +4330,7 @@
         <v>Still In</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E3">
@@ -4058,7 +4350,7 @@
         <v>Still In</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E4">
@@ -4078,7 +4370,7 @@
         <v>Still In</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E5">
@@ -4098,7 +4390,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D6">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E6">
@@ -4118,7 +4410,7 @@
         <v>Still In</v>
       </c>
       <c r="D7">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E7">
@@ -4138,7 +4430,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E8">
@@ -4158,7 +4450,7 @@
         <v>Still In</v>
       </c>
       <c r="D9">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E9">
@@ -4178,7 +4470,7 @@
         <v>Still In</v>
       </c>
       <c r="D10">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E10">
@@ -4198,7 +4490,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D11">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E11">
@@ -4218,7 +4510,7 @@
         <v>Still In</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E12">
@@ -4238,7 +4530,7 @@
         <v>Still In</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E13">
@@ -4258,7 +4550,7 @@
         <v>Still In</v>
       </c>
       <c r="D14">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E14">
@@ -4278,7 +4570,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E15">
@@ -4298,7 +4590,7 @@
         <v>Still In</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E16">
@@ -4313,10 +4605,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4324,9 +4616,10 @@
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4354,8 +4647,11 @@
       <c r="I1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -4367,7 +4663,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E2">
@@ -4375,7 +4671,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="str">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G2">
@@ -4390,8 +4686,12 @@
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="str">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -4403,7 +4703,7 @@
         <v>Still In</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E3">
@@ -4411,7 +4711,7 @@
         <v>35</v>
       </c>
       <c r="F3" t="str">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G3">
@@ -4426,8 +4726,12 @@
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -4439,7 +4743,7 @@
         <v>Still In</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E4">
@@ -4447,7 +4751,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="str">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="G4">
@@ -4462,8 +4766,12 @@
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -4475,7 +4783,7 @@
         <v>Still In</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E5">
@@ -4483,7 +4791,7 @@
         <v>30</v>
       </c>
       <c r="F5" t="str">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
       <c r="G5">
@@ -4498,8 +4806,12 @@
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4511,7 +4823,7 @@
         <v>Still In</v>
       </c>
       <c r="D6">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E6">
@@ -4519,7 +4831,7 @@
         <v>35</v>
       </c>
       <c r="F6" t="str">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G6">
@@ -4534,8 +4846,12 @@
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -4547,7 +4863,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D7">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E7">
@@ -4555,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="str">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G7">
@@ -4570,8 +4886,12 @@
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Asian</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -4583,7 +4903,7 @@
         <v>Still In</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E8">
@@ -4591,7 +4911,7 @@
         <v>30</v>
       </c>
       <c r="F8" t="str">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="G8">
@@ -4606,8 +4926,12 @@
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -4619,7 +4943,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D9">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E9">
@@ -4627,7 +4951,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="str">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G9">
@@ -4642,8 +4966,12 @@
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -4655,7 +4983,7 @@
         <v>Still In</v>
       </c>
       <c r="D10">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E10">
@@ -4663,7 +4991,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="str">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G10">
@@ -4678,8 +5006,12 @@
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -4691,7 +5023,7 @@
         <v>Still In</v>
       </c>
       <c r="D11">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E11">
@@ -4699,7 +5031,7 @@
         <v>35</v>
       </c>
       <c r="F11" t="str">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="G11">
@@ -4714,8 +5046,12 @@
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -4727,7 +5063,7 @@
         <v>Still In</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E12">
@@ -4735,7 +5071,7 @@
         <v>25</v>
       </c>
       <c r="F12" t="str">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="G12">
@@ -4750,8 +5086,12 @@
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -4763,7 +5103,7 @@
         <v>Still In</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E13">
@@ -4771,7 +5111,7 @@
         <v>30</v>
       </c>
       <c r="F13" t="str">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G13">
@@ -4786,8 +5126,12 @@
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -4799,7 +5143,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D14">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E14">
@@ -4807,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="str">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G14">
@@ -4822,8 +5166,12 @@
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Asian</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -4835,7 +5183,7 @@
         <v>Still In</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E15">
@@ -4843,7 +5191,7 @@
         <v>35</v>
       </c>
       <c r="F15" t="str">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G15">
@@ -4858,8 +5206,12 @@
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -4871,7 +5223,7 @@
         <v>Still In</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E16">
@@ -4879,7 +5231,7 @@
         <v>25</v>
       </c>
       <c r="F16" t="str">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="G16">
@@ -4894,8 +5246,12 @@
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -4907,7 +5263,7 @@
         <v>Still In</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E17">
@@ -4915,7 +5271,7 @@
         <v>50</v>
       </c>
       <c r="F17" t="str">
-        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G17">
@@ -4930,8 +5286,12 @@
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -4943,7 +5303,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E18">
@@ -4951,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="str">
-        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G18">
@@ -4966,8 +5326,12 @@
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -4979,7 +5343,7 @@
         <v>Still In</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E19">
@@ -4987,7 +5351,7 @@
         <v>25</v>
       </c>
       <c r="F19" t="str">
-        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G19">
@@ -5002,8 +5366,12 @@
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -5015,7 +5383,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D20">
-        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E20">
@@ -5023,7 +5391,7 @@
         <v>5</v>
       </c>
       <c r="F20" t="str">
-        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="G20">
@@ -5038,8 +5406,12 @@
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="str">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -5051,7 +5423,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E21">
@@ -5059,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="str">
-        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G21">
@@ -5074,8 +5446,12 @@
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Asian</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -5087,7 +5463,7 @@
         <v>Still In</v>
       </c>
       <c r="D22">
-        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E22">
@@ -5095,7 +5471,7 @@
         <v>25</v>
       </c>
       <c r="F22" t="str">
-        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="G22">
@@ -5110,8 +5486,12 @@
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="str">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -5123,7 +5503,7 @@
         <v>Still In</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E23">
@@ -5131,7 +5511,7 @@
         <v>35</v>
       </c>
       <c r="F23" t="str">
-        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G23">
@@ -5146,8 +5526,12 @@
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="str">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -5159,7 +5543,7 @@
         <v>Still In</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E24">
@@ -5167,7 +5551,7 @@
         <v>25</v>
       </c>
       <c r="F24" t="str">
-        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="G24">
@@ -5182,8 +5566,12 @@
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" t="str">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -5195,7 +5583,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E25">
@@ -5203,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="str">
-        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G25">
@@ -5218,8 +5606,12 @@
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="str">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -5231,7 +5623,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E26">
@@ -5239,7 +5631,7 @@
         <v>5</v>
       </c>
       <c r="F26" t="str">
-        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="G26">
@@ -5254,8 +5646,12 @@
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" t="str">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -5267,7 +5663,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E27">
@@ -5275,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="str">
-        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G27">
@@ -5290,8 +5686,12 @@
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="str">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Asian</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -5303,7 +5703,7 @@
         <v>Still In</v>
       </c>
       <c r="D28">
-        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E28">
@@ -5311,7 +5711,7 @@
         <v>50</v>
       </c>
       <c r="F28" t="str">
-        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G28">
@@ -5326,8 +5726,12 @@
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" t="str">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -5339,7 +5743,7 @@
         <v>Still In</v>
       </c>
       <c r="D29">
-        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E29">
@@ -5347,7 +5751,7 @@
         <v>30</v>
       </c>
       <c r="F29" t="str">
-        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="G29">
@@ -5362,8 +5766,12 @@
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" t="str">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -5375,7 +5783,7 @@
         <v>Still In</v>
       </c>
       <c r="D30">
-        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E30">
@@ -5383,7 +5791,7 @@
         <v>35</v>
       </c>
       <c r="F30" t="str">
-        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G30">
@@ -5398,8 +5806,12 @@
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" t="str">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -5411,7 +5823,7 @@
         <v>Still In</v>
       </c>
       <c r="D31">
-        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E31">
@@ -5419,7 +5831,7 @@
         <v>25</v>
       </c>
       <c r="F31" t="str">
-        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G31">
@@ -5434,8 +5846,12 @@
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" t="str">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -5447,7 +5863,7 @@
         <v>Still In</v>
       </c>
       <c r="D32">
-        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E32">
@@ -5455,7 +5871,7 @@
         <v>35</v>
       </c>
       <c r="F32" t="str">
-        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G32">
@@ -5470,8 +5886,12 @@
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="str">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -5483,7 +5903,7 @@
         <v>Still In</v>
       </c>
       <c r="D33">
-        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E33">
@@ -5491,7 +5911,7 @@
         <v>25</v>
       </c>
       <c r="F33" t="str">
-        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G33">
@@ -5506,8 +5926,12 @@
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" t="str">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -5519,7 +5943,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D34">
-        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E34">
@@ -5527,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="str">
-        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G34">
@@ -5542,8 +5966,12 @@
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" t="str">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Asian</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -5555,7 +5983,7 @@
         <v>Still In</v>
       </c>
       <c r="D35">
-        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E35">
@@ -5563,7 +5991,7 @@
         <v>35</v>
       </c>
       <c r="F35" t="str">
-        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G35">
@@ -5578,8 +6006,12 @@
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" t="str">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -5591,7 +6023,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D36">
-        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E36">
@@ -5599,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="str">
-        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G36">
@@ -5614,8 +6046,12 @@
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" t="str">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -5627,7 +6063,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D37">
-        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E37">
@@ -5635,7 +6071,7 @@
         <v>5</v>
       </c>
       <c r="F37" t="str">
-        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G37">
@@ -5650,8 +6086,12 @@
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" t="str">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -5663,7 +6103,7 @@
         <v>Still In</v>
       </c>
       <c r="D38">
-        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E38">
@@ -5671,7 +6111,7 @@
         <v>30</v>
       </c>
       <c r="F38" t="str">
-        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
       <c r="G38">
@@ -5686,8 +6126,12 @@
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" t="str">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -5699,7 +6143,7 @@
         <v>Still In</v>
       </c>
       <c r="D39">
-        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E39">
@@ -5707,7 +6151,7 @@
         <v>30</v>
       </c>
       <c r="F39" t="str">
-        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
       <c r="G39">
@@ -5722,8 +6166,12 @@
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" t="str">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -5735,7 +6183,7 @@
         <v>Still In</v>
       </c>
       <c r="D40">
-        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E40">
@@ -5743,7 +6191,7 @@
         <v>50</v>
       </c>
       <c r="F40" t="str">
-        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G40">
@@ -5758,8 +6206,12 @@
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" t="str">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -5771,7 +6223,7 @@
         <v>Still In</v>
       </c>
       <c r="D41">
-        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E41">
@@ -5779,7 +6231,7 @@
         <v>35</v>
       </c>
       <c r="F41" t="str">
-        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G41">
@@ -5794,8 +6246,12 @@
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" t="str">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -5807,7 +6263,7 @@
         <v>Still In</v>
       </c>
       <c r="D42">
-        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E42">
@@ -5815,7 +6271,7 @@
         <v>35</v>
       </c>
       <c r="F42" t="str">
-        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G42">
@@ -5830,8 +6286,12 @@
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" t="str">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -5843,7 +6303,7 @@
         <v>Still In</v>
       </c>
       <c r="D43">
-        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E43">
@@ -5851,7 +6311,7 @@
         <v>35</v>
       </c>
       <c r="F43" t="str">
-        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G43">
@@ -5866,8 +6326,12 @@
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" t="str">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -5879,7 +6343,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D44">
-        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E44">
@@ -5887,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="str">
-        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G44">
@@ -5902,8 +6366,12 @@
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" t="str">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Asian</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -5915,7 +6383,7 @@
         <v>Still In</v>
       </c>
       <c r="D45">
-        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E45">
@@ -5923,7 +6391,7 @@
         <v>50</v>
       </c>
       <c r="F45" t="str">
-        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G45">
@@ -5938,8 +6406,12 @@
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" t="str">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -5951,7 +6423,7 @@
         <v>Still In</v>
       </c>
       <c r="D46">
-        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E46">
@@ -5959,7 +6431,7 @@
         <v>35</v>
       </c>
       <c r="F46" t="str">
-        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G46">
@@ -5974,8 +6446,12 @@
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" t="str">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5987,7 +6463,7 @@
         <v>Still In</v>
       </c>
       <c r="D47">
-        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E47">
@@ -5995,7 +6471,7 @@
         <v>30</v>
       </c>
       <c r="F47" t="str">
-        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G47">
@@ -6010,8 +6486,12 @@
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" t="str">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -6023,7 +6503,7 @@
         <v>Still In</v>
       </c>
       <c r="D48">
-        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E48">
@@ -6031,7 +6511,7 @@
         <v>35</v>
       </c>
       <c r="F48" t="str">
-        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="G48">
@@ -6046,8 +6526,12 @@
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" t="str">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -6059,7 +6543,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D49">
-        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E49">
@@ -6067,7 +6551,7 @@
         <v>5</v>
       </c>
       <c r="F49" t="str">
-        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="G49">
@@ -6082,8 +6566,12 @@
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" t="str">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -6095,7 +6583,7 @@
         <v>Still In</v>
       </c>
       <c r="D50">
-        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E50">
@@ -6103,7 +6591,7 @@
         <v>35</v>
       </c>
       <c r="F50" t="str">
-        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="G50">
@@ -6118,8 +6606,12 @@
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" t="str">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -6131,7 +6623,7 @@
         <v>Still In</v>
       </c>
       <c r="D51">
-        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$P$32,16,FALSE)</f>
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E51">
@@ -6139,7 +6631,7 @@
         <v>25</v>
       </c>
       <c r="F51" t="str">
-        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$I$32,9,FALSE)</f>
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="G51">
@@ -6153,6 +6645,10 @@
       <c r="I51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
+      </c>
+      <c r="J51" t="str">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
       </c>
     </row>
   </sheetData>

--- a/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
+++ b/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contestant Points" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="116">
   <si>
     <t>Team</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>Asian</t>
+  </si>
+  <si>
+    <t>Adley Hemphill</t>
   </si>
 </sst>
 </file>
@@ -2416,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4605,10 +4608,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4707,7 +4710,7 @@
         <v>35</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E51" si="0">SUM(D3)</f>
+        <f t="shared" ref="E3:E56" si="0">SUM(D3)</f>
         <v>35</v>
       </c>
       <c r="F3" t="str">
@@ -6648,6 +6651,206 @@
       </c>
       <c r="J51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="str">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D52">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F52" t="str">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="G52">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H52" t="str">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Aspiring Drummer</v>
+      </c>
+      <c r="I52" t="str">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+      <c r="J52" t="str">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D53">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G53">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="H53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="I53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+      <c r="J53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="str">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D54">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F54" t="str">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="G54">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="H54" t="str">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Recruiter</v>
+      </c>
+      <c r="I54" t="str">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'4"</v>
+      </c>
+      <c r="J54" t="str">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="str">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Eliminated</v>
+      </c>
+      <c r="D55">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F55" t="str">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G55">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="H55" t="str">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Marketing Consultant</v>
+      </c>
+      <c r="I55" t="str">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+      <c r="J55" t="str">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" t="str">
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D56">
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F56" t="str">
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="G56">
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="H56" t="str">
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Prosecuting Attorney</v>
+      </c>
+      <c r="I56" t="str">
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+      <c r="J56" t="str">
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>

--- a/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
+++ b/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contestant Points" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="edX League" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$R$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$S$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="119">
   <si>
     <t>Team</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Contestant</t>
   </si>
   <si>
-    <t>Rudder</t>
-  </si>
-  <si>
     <t>Diggy</t>
   </si>
   <si>
@@ -378,6 +375,18 @@
   </si>
   <si>
     <t>Adley Hemphill</t>
+  </si>
+  <si>
+    <t>Bailey</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Rachel</t>
   </si>
 </sst>
 </file>
@@ -715,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="K10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,95 +735,98 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="9.5546875" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" customWidth="1"/>
+    <col min="10" max="10" width="36.44140625" customWidth="1"/>
+    <col min="11" max="11" width="29.88671875" customWidth="1"/>
+    <col min="12" max="12" width="4.88671875" customWidth="1"/>
+    <col min="13" max="13" width="35.44140625" customWidth="1"/>
+    <col min="14" max="14" width="31.109375" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" customWidth="1"/>
+    <col min="16" max="16" width="36.44140625" customWidth="1"/>
+    <col min="19" max="19" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>27</v>
       </c>
       <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -846,31 +858,34 @@
         <v>25</v>
       </c>
       <c r="R2">
-        <f>SUM(Q2)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <f>SUM(Q2:R2)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -898,31 +913,34 @@
         <v>35</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R32" si="4">SUM(Q3)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S32" si="4">SUM(Q3:R3)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>26</v>
       </c>
       <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
         <v>75</v>
       </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -950,31 +968,34 @@
         <v>25</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>31</v>
       </c>
       <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
         <v>79</v>
       </c>
-      <c r="F5" t="s">
-        <v>80</v>
-      </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1002,31 +1023,34 @@
         <v>45</v>
       </c>
       <c r="R5">
+        <v>45</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1054,31 +1078,34 @@
         <v>0</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1106,31 +1133,34 @@
         <v>25</v>
       </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -1158,31 +1188,34 @@
         <v>50</v>
       </c>
       <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1210,31 +1243,34 @@
         <v>30</v>
       </c>
       <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1262,31 +1298,34 @@
         <v>30</v>
       </c>
       <c r="R10">
+        <v>55</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1314,31 +1353,34 @@
         <v>35</v>
       </c>
       <c r="R11">
+        <v>85</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>31</v>
       </c>
       <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
         <v>87</v>
       </c>
-      <c r="F12" t="s">
-        <v>88</v>
-      </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -1366,31 +1408,34 @@
         <v>30</v>
       </c>
       <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1418,31 +1463,34 @@
         <v>30</v>
       </c>
       <c r="R13">
+        <v>25</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1470,31 +1518,34 @@
         <v>25</v>
       </c>
       <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1522,31 +1573,34 @@
         <v>0</v>
       </c>
       <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1574,31 +1628,34 @@
         <v>30</v>
       </c>
       <c r="R16">
+        <v>15</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1626,31 +1683,34 @@
         <v>35</v>
       </c>
       <c r="R17">
+        <v>15</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>32</v>
       </c>
       <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
         <v>94</v>
       </c>
-      <c r="F18" t="s">
-        <v>95</v>
-      </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1678,31 +1738,34 @@
         <v>30</v>
       </c>
       <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>35</v>
       </c>
       <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
         <v>96</v>
       </c>
-      <c r="F19" t="s">
-        <v>97</v>
-      </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1730,31 +1793,34 @@
         <v>0</v>
       </c>
       <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1782,31 +1848,34 @@
         <v>30</v>
       </c>
       <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1834,31 +1903,34 @@
         <v>35</v>
       </c>
       <c r="R21">
+        <v>55</v>
+      </c>
+      <c r="S21">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -1886,31 +1958,34 @@
         <v>35</v>
       </c>
       <c r="R22">
+        <v>15</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23">
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1938,31 +2013,34 @@
         <v>5</v>
       </c>
       <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1990,31 +2068,34 @@
         <v>40</v>
       </c>
       <c r="R24">
+        <v>10</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2042,31 +2123,34 @@
         <v>55</v>
       </c>
       <c r="R25">
+        <v>45</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26">
         <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2094,31 +2178,34 @@
         <v>25</v>
       </c>
       <c r="R26">
+        <v>10</v>
+      </c>
+      <c r="S26">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2146,31 +2233,34 @@
         <v>5</v>
       </c>
       <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28">
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2198,31 +2288,34 @@
         <v>25</v>
       </c>
       <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29">
         <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -2250,31 +2343,34 @@
         <v>20</v>
       </c>
       <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30">
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -2302,31 +2398,34 @@
         <v>30</v>
       </c>
       <c r="R30">
+        <v>75</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2354,31 +2453,34 @@
         <v>5</v>
       </c>
       <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32">
         <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -2406,8 +2508,11 @@
         <v>25</v>
       </c>
       <c r="R32">
+        <v>10</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2417,10 +2522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2428,10 +2533,11 @@
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2439,1826 +2545,2009 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="E2" s="3">
-        <f>SUM(D2)</f>
-        <v>30</v>
-      </c>
-      <c r="F2" t="str">
+      <c r="E2">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
+        <f>SUM(D2:E2)</f>
+        <v>40</v>
+      </c>
+      <c r="G2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E46" si="0">SUM(D3)</f>
-        <v>35</v>
-      </c>
-      <c r="F3" t="str">
+      <c r="E3">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F46" si="0">SUM(D3:E3)</f>
+        <v>50</v>
+      </c>
+      <c r="G3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Product Manager</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D6">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="E6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="H6" t="str">
+      <c r="I6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D7">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="H7" t="str">
+      <c r="I7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F8" t="str">
+      <c r="E8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D9">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F9" t="str">
+      <c r="E9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="H9" t="str">
+      <c r="I9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D10">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F10" t="str">
+      <c r="E10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H10" t="str">
+      <c r="I10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D11">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F11" t="str">
+      <c r="E11">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H11" t="str">
+      <c r="I11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F12" t="str">
+      <c r="E12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="H12" t="str">
+      <c r="I12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Information Systems Supervisor</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F13" t="str">
+      <c r="E13">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H13" t="str">
+      <c r="I13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D14">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F14" t="str">
+      <c r="E14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="G14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H14" t="str">
+      <c r="I14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F15" t="str">
+      <c r="E15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="H15" t="str">
+      <c r="I15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F16" t="str">
+      <c r="E16">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="H16" t="str">
+      <c r="I16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
       </c>
       <c r="C17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="H17" t="str">
+      <c r="I17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F18" t="str">
+      <c r="E18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="H18" t="str">
+      <c r="I18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F19" t="str">
+      <c r="E19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D20">
-        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F20" t="str">
+      <c r="G20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="H20" t="str">
+      <c r="I20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F21" t="str">
+      <c r="E21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="H21" t="str">
+      <c r="I21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
       <c r="D22">
-        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" t="str">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="H22" t="str">
+      <c r="I22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J22" t="str">
+      <c r="K22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="E23" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F23" t="str">
+      <c r="E23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="H23" t="str">
+      <c r="I23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="E24" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F24" t="str">
+      <c r="E24">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H24" t="str">
+      <c r="I24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="E25" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F25" t="str">
+      <c r="E25">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="H25" t="str">
+      <c r="I25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
         <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
       </c>
       <c r="C26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F26" t="str">
+      <c r="G26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="H26" t="str">
+      <c r="I26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="I26" t="str">
+      <c r="J26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J26" t="str">
+      <c r="K26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="E27" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F27" t="str">
+      <c r="E27">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="H27" t="str">
+      <c r="I27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="I27" t="str">
+      <c r="J27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J27" t="str">
+      <c r="K27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D28">
-        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="E28" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F28" t="str">
+      <c r="E28">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="G28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H28" t="str">
+      <c r="I28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="I28" t="str">
+      <c r="J28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J28" t="str">
+      <c r="K28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D29">
-        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="E29" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F29" t="str">
+      <c r="E29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="H29" t="str">
+      <c r="I29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="I29" t="str">
+      <c r="J29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J29" t="str">
+      <c r="K29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
         <v>22</v>
-      </c>
-      <c r="B30" t="s">
-        <v>23</v>
       </c>
       <c r="C30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D30">
-        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="E30" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F30" t="str">
+      <c r="E30">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="G30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="H30" t="str">
+      <c r="I30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="I30" t="str">
+      <c r="J30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J30" t="str">
+      <c r="K30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D31">
-        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="E31" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F31" t="str">
+      <c r="E31">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H31" t="str">
+      <c r="I31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="I31" t="str">
+      <c r="J31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="J31" t="str">
+      <c r="K31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D32">
-        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="E32" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F32" t="str">
+      <c r="E32">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H32" t="str">
+      <c r="I32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="I32" t="str">
+      <c r="J32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="J32" t="str">
+      <c r="K32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D33">
-        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="E33" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F33" t="str">
+      <c r="E33">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H33" t="str">
+      <c r="I33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="I33" t="str">
+      <c r="J33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="J33" t="str">
+      <c r="K33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D34">
-        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="E34" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F34" t="str">
+      <c r="E34">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="G34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H34" t="str">
+      <c r="I34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="I34" t="str">
+      <c r="J34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J34" t="str">
+      <c r="K34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
         <v>24</v>
-      </c>
-      <c r="B35" t="s">
-        <v>25</v>
       </c>
       <c r="C35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D35">
-        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="E35" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F35" t="str">
+      <c r="E35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="H35" t="str">
+      <c r="I35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Account Executive</v>
       </c>
-      <c r="I35" t="str">
+      <c r="J35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'9"</v>
       </c>
-      <c r="J35" t="str">
+      <c r="K35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D36">
-        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="E36" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F36" t="str">
+      <c r="E36">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H36" t="str">
+      <c r="I36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Singer/Songwriter</v>
       </c>
-      <c r="I36" t="str">
+      <c r="J36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="J36" t="str">
+      <c r="K36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D37">
-        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F37" t="str">
+      <c r="G37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="H37" t="str">
+      <c r="I37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="I37" t="str">
+      <c r="J37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J37" t="str">
+      <c r="K37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D38">
-        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="E38" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F38" t="str">
+      <c r="E38">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H38" t="str">
+      <c r="I38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="I38" t="str">
+      <c r="J38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="J38" t="str">
+      <c r="K38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D39">
-        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="E39" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F39" t="str">
+      <c r="E39">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H39" t="str">
+      <c r="I39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="I39" t="str">
+      <c r="J39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="J39" t="str">
+      <c r="K39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
         <v>27</v>
-      </c>
-      <c r="B40" t="s">
-        <v>28</v>
       </c>
       <c r="C40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
       <c r="D40">
-        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F40" t="str">
+      <c r="G40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="H40" t="str">
+      <c r="I40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marketing Consultant</v>
       </c>
-      <c r="I40" t="str">
+      <c r="J40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="J40" t="str">
+      <c r="K40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Eliminated</v>
       </c>
       <c r="D41">
-        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F41" t="str">
+      <c r="G41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="H41" t="str">
+      <c r="I41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="I41" t="str">
+      <c r="J41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D42">
-        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="E42" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F42" t="str">
+      <c r="E42">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="H42" t="str">
+      <c r="I42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="I42" t="str">
+      <c r="J42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J42" t="str">
+      <c r="K42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D43">
-        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="E43" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F43" t="str">
+      <c r="E43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="H43" t="str">
+      <c r="I43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="I43" t="str">
+      <c r="J43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J43" t="str">
+      <c r="K43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
         <v>29</v>
-      </c>
-      <c r="B44" t="s">
-        <v>30</v>
       </c>
       <c r="C44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D44">
-        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="E44" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F44" t="str">
+      <c r="E44">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="H44" t="str">
+      <c r="I44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="I44" t="str">
+      <c r="J44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J44" t="str">
+      <c r="K44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D45">
-        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="E45" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F45" t="str">
+      <c r="E45">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="H45" t="str">
+      <c r="I45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="I45" t="str">
+      <c r="J45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J45" t="str">
+      <c r="K45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
         <v>Still In</v>
       </c>
       <c r="D46">
-        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$R$32,17,FALSE)</f>
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="E46" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F46" t="str">
+      <c r="E46">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="G46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H46" t="str">
+      <c r="I46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="I46" t="str">
+      <c r="J46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J46" t="str">
+      <c r="K46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
@@ -4271,10 +4560,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F2" sqref="F2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4282,9 +4571,10 @@
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4292,41 +4582,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Eliminated</v>
+        <v>Still In</v>
       </c>
       <c r="D2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <f>SUM(D2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f>SUM(D2:E2)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4334,19 +4631,23 @@
       </c>
       <c r="D3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E16" si="0">SUM(D3)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="0">SUM(D3:E3)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4354,19 +4655,23 @@
       </c>
       <c r="D4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4374,39 +4679,47 @@
       </c>
       <c r="D5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Eliminated</v>
+        <v>Still In</v>
       </c>
       <c r="D6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4414,39 +4727,47 @@
       </c>
       <c r="D7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Eliminated</v>
+        <v>Still In</v>
       </c>
       <c r="D8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4457,16 +4778,20 @@
         <v>35</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4474,39 +4799,47 @@
       </c>
       <c r="D10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Eliminated</v>
+        <v>Still In</v>
       </c>
       <c r="D11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4514,19 +4847,23 @@
       </c>
       <c r="D12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4534,16 +4871,20 @@
       </c>
       <c r="D13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -4554,39 +4895,47 @@
       </c>
       <c r="D14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Eliminated</v>
+        <v>Still In</v>
       </c>
       <c r="D15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4594,11 +4943,135 @@
       </c>
       <c r="D16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>50</v>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4608,10 +5081,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4619,10 +5092,10 @@
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4630,36 +5103,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4670,36 +5146,40 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <f>SUM(D2)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>SUM(D2:E2)</f>
         <v>5</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4710,36 +5190,40 @@
         <v>35</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E56" si="0">SUM(D3)</f>
-        <v>35</v>
-      </c>
-      <c r="F3" t="str">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F56" si="0">SUM(D3:E3)</f>
+        <v>50</v>
+      </c>
+      <c r="G3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4750,36 +5234,40 @@
         <v>30</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4790,36 +5278,40 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F5" t="str">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4830,36 +5322,40 @@
         <v>35</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F6" t="str">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H6" t="str">
+      <c r="I6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4870,36 +5366,40 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="H7" t="str">
+      <c r="I7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4910,36 +5410,40 @@
         <v>30</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4950,36 +5454,40 @@
         <v>5</v>
       </c>
       <c r="E9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="H9" t="str">
+      <c r="I9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -4990,36 +5498,40 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="H10" t="str">
+      <c r="I10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5030,36 +5542,40 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="H11" t="str">
+      <c r="I11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5070,36 +5586,40 @@
         <v>25</v>
       </c>
       <c r="E12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F12" t="str">
+      <c r="G12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="H12" t="str">
+      <c r="I12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5110,36 +5630,40 @@
         <v>30</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="G13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="H13" t="str">
+      <c r="I13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5150,36 +5674,40 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="H14" t="str">
+      <c r="I14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5190,36 +5718,40 @@
         <v>35</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H15" t="str">
+      <c r="I15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5230,36 +5762,40 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="H16" t="str">
+      <c r="I16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Real Estate Agent</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5270,36 +5806,40 @@
         <v>50</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="H17" t="str">
+      <c r="I17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5310,36 +5850,40 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="H18" t="str">
+      <c r="I18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5350,36 +5894,40 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5390,36 +5938,40 @@
         <v>5</v>
       </c>
       <c r="E20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F20" t="str">
+      <c r="G20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H20" t="str">
+      <c r="I20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5430,36 +5982,40 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="H21" t="str">
+      <c r="I21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5470,36 +6026,40 @@
         <v>25</v>
       </c>
       <c r="E22">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F22" t="str">
+      <c r="G22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="H22" t="str">
+      <c r="I22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J22" t="str">
+      <c r="K22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5510,36 +6070,40 @@
         <v>35</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F23" t="str">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H23" t="str">
+      <c r="I23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
         <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5550,36 +6114,40 @@
         <v>25</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F24" t="str">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="H24" t="str">
+      <c r="I24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Assistant</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5590,36 +6158,40 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" t="str">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="H25" t="str">
+      <c r="I25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5630,36 +6202,40 @@
         <v>5</v>
       </c>
       <c r="E26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F26" t="str">
+      <c r="G26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H26" t="str">
+      <c r="I26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="I26" t="str">
+      <c r="J26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J26" t="str">
+      <c r="K26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5670,36 +6246,40 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" t="str">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="H27" t="str">
+      <c r="I27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="I27" t="str">
+      <c r="J27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J27" t="str">
+      <c r="K27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5710,36 +6290,40 @@
         <v>50</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F28" t="str">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="H28" t="str">
+      <c r="I28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="I28" t="str">
+      <c r="J28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J28" t="str">
+      <c r="K28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
         <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
       </c>
       <c r="C29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5750,36 +6334,40 @@
         <v>30</v>
       </c>
       <c r="E29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F29" t="str">
+      <c r="G29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H29" t="str">
+      <c r="I29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Firefighter</v>
       </c>
-      <c r="I29" t="str">
+      <c r="J29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J29" t="str">
+      <c r="K29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5790,36 +6378,40 @@
         <v>35</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F30" t="str">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="H30" t="str">
+      <c r="I30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="I30" t="str">
+      <c r="J30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="J30" t="str">
+      <c r="K30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5830,36 +6422,40 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F31" t="str">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="H31" t="str">
+      <c r="I31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="I31" t="str">
+      <c r="J31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J31" t="str">
+      <c r="K31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5870,36 +6466,40 @@
         <v>35</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F32" t="str">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="H32" t="str">
+      <c r="I32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="I32" t="str">
+      <c r="J32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J32" t="str">
+      <c r="K32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5910,36 +6510,40 @@
         <v>25</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F33" t="str">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="H33" t="str">
+      <c r="I33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="I33" t="str">
+      <c r="J33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J33" t="str">
+      <c r="K33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5950,36 +6554,40 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" t="str">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="H34" t="str">
+      <c r="I34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="I34" t="str">
+      <c r="J34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J34" t="str">
+      <c r="K34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -5990,36 +6598,40 @@
         <v>35</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F35" t="str">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H35" t="str">
+      <c r="I35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="I35" t="str">
+      <c r="J35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="J35" t="str">
+      <c r="K35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6030,36 +6642,40 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" t="str">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="H36" t="str">
+      <c r="I36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="I36" t="str">
+      <c r="J36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="J36" t="str">
+      <c r="K36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6070,36 +6686,40 @@
         <v>5</v>
       </c>
       <c r="E37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F37" t="str">
+      <c r="G37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="H37" t="str">
+      <c r="I37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="I37" t="str">
+      <c r="J37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J37" t="str">
+      <c r="K37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6110,36 +6730,40 @@
         <v>30</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F38" t="str">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H38" t="str">
+      <c r="I38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="I38" t="str">
+      <c r="J38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="J38" t="str">
+      <c r="K38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6150,36 +6774,40 @@
         <v>30</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F39" t="str">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="G39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H39" t="str">
+      <c r="I39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="I39" t="str">
+      <c r="J39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J39" t="str">
+      <c r="K39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6190,36 +6818,40 @@
         <v>50</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F40" t="str">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="H40" t="str">
+      <c r="I40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="I40" t="str">
+      <c r="J40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J40" t="str">
+      <c r="K40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6230,36 +6862,40 @@
         <v>35</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F41" t="str">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H41" t="str">
+      <c r="I41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="I41" t="str">
+      <c r="J41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6270,36 +6906,40 @@
         <v>35</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F42" t="str">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="H42" t="str">
+      <c r="I42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="I42" t="str">
+      <c r="J42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="J42" t="str">
+      <c r="K42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6310,36 +6950,40 @@
         <v>35</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F43" t="str">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H43" t="str">
+      <c r="I43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="I43" t="str">
+      <c r="J43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="J43" t="str">
+      <c r="K43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6350,36 +6994,40 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F44" t="str">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="H44" t="str">
+      <c r="I44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="I44" t="str">
+      <c r="J44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J44" t="str">
+      <c r="K44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6390,36 +7038,40 @@
         <v>50</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F45" t="str">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="H45" t="str">
+      <c r="I45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="I45" t="str">
+      <c r="J45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J45" t="str">
+      <c r="K45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6430,36 +7082,40 @@
         <v>35</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F46" t="str">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="H46" t="str">
+      <c r="I46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="I46" t="str">
+      <c r="J46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J46" t="str">
+      <c r="K46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6470,36 +7126,40 @@
         <v>30</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F47" t="str">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="G47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="H47" t="str">
+      <c r="I47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="I47" t="str">
+      <c r="J47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J47" t="str">
+      <c r="K47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6510,36 +7170,40 @@
         <v>35</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F48" t="str">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H48" t="str">
+      <c r="I48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="I48" t="str">
+      <c r="J48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="J48" t="str">
+      <c r="K48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6550,36 +7214,40 @@
         <v>5</v>
       </c>
       <c r="E49">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F49" t="str">
+      <c r="G49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H49" t="str">
+      <c r="I49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="I49" t="str">
+      <c r="J49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J49" t="str">
+      <c r="K49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6590,36 +7258,40 @@
         <v>35</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F50" t="str">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="H50" t="str">
+      <c r="I50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Information Systems Supervisor</v>
       </c>
-      <c r="I50" t="str">
+      <c r="J50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J50" t="str">
+      <c r="K50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6630,36 +7302,40 @@
         <v>25</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F51" t="str">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="H51" t="str">
+      <c r="I51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="I51" t="str">
+      <c r="J51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J51" t="str">
+      <c r="K51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6670,36 +7346,40 @@
         <v>45</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="F52" t="str">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H52" t="str">
+      <c r="I52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Aspiring Drummer</v>
       </c>
-      <c r="I52" t="str">
+      <c r="J52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="J52" t="str">
+      <c r="K52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6710,36 +7390,40 @@
         <v>50</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="H53" t="str">
+      <c r="I53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="I53" t="str">
+      <c r="J53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="J53" t="str">
+      <c r="K53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6750,36 +7434,40 @@
         <v>35</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F54" t="str">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="H54" t="str">
+      <c r="I54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="I54" t="str">
+      <c r="J54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="J54" t="str">
+      <c r="K54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6790,36 +7478,40 @@
         <v>5</v>
       </c>
       <c r="E55">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F55" t="str">
+      <c r="G55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="H55" t="str">
+      <c r="I55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marketing Consultant</v>
       </c>
-      <c r="I55" t="str">
+      <c r="J55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="J55" t="str">
+      <c r="K55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
@@ -6830,26 +7522,30 @@
         <v>35</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F56" t="str">
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="H56" t="str">
+      <c r="I56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="I56" t="str">
+      <c r="J56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="J56" t="str">
+      <c r="K56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>

--- a/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
+++ b/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contestant Points" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="edX League" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$S$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$T$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="120">
   <si>
     <t>Team</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>Rachel</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
 </sst>
 </file>
@@ -724,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="K10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,10 +747,10 @@
     <col min="14" max="14" width="31.109375" customWidth="1"/>
     <col min="15" max="15" width="6.109375" customWidth="1"/>
     <col min="16" max="16" width="36.44140625" customWidth="1"/>
-    <col min="19" max="19" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -803,10 +806,13 @@
         <v>117</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -861,11 +867,14 @@
         <v>10</v>
       </c>
       <c r="S2">
-        <f>SUM(Q2:R2)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="T2">
+        <f>SUM(Q2:S2)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -916,11 +925,14 @@
         <v>15</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S32" si="4">SUM(Q3:R3)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="T3">
+        <f>SUM(Q3:S3)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -971,19 +983,22 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="T4">
+        <f>SUM(Q4:S4)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="D5">
         <v>31</v>
@@ -1026,11 +1041,14 @@
         <v>45</v>
       </c>
       <c r="S5">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="T5">
+        <f>SUM(Q5:S5)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1081,11 +1099,14 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>SUM(Q6:S6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1136,11 +1157,14 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="T7">
+        <f>SUM(Q7:S7)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1191,11 +1215,14 @@
         <v>10</v>
       </c>
       <c r="S8">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="T8">
+        <f>SUM(Q8:S8)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1246,11 +1273,14 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="T9">
+        <f>SUM(Q9:S9)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1301,19 +1331,22 @@
         <v>55</v>
       </c>
       <c r="S10">
-        <f t="shared" si="4"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="T10">
+        <f>SUM(Q10:S10)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="D11">
         <v>30</v>
@@ -1356,11 +1389,14 @@
         <v>85</v>
       </c>
       <c r="S11">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>SUM(Q11:S11)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1411,11 +1447,14 @@
         <v>10</v>
       </c>
       <c r="S12">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="T12">
+        <f>SUM(Q12:S12)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1466,19 +1505,22 @@
         <v>25</v>
       </c>
       <c r="S13">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="T13">
+        <f>SUM(Q13:S13)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="D14">
         <v>27</v>
@@ -1521,11 +1563,14 @@
         <v>10</v>
       </c>
       <c r="S14">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="T14">
+        <f>SUM(Q14:S14)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1576,11 +1621,14 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f>SUM(Q15:S15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1631,11 +1679,14 @@
         <v>15</v>
       </c>
       <c r="S16">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="T16">
+        <f>SUM(Q16:S16)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1686,19 +1737,22 @@
         <v>15</v>
       </c>
       <c r="S17">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="T17">
+        <f>SUM(Q17:S17)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="D18">
         <v>32</v>
@@ -1741,11 +1795,14 @@
         <v>10</v>
       </c>
       <c r="S18">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f>SUM(Q18:S18)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1796,11 +1853,14 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f>SUM(Q19:S19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1851,11 +1911,14 @@
         <v>10</v>
       </c>
       <c r="S20">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="T20">
+        <f>SUM(Q20:S20)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1906,11 +1969,14 @@
         <v>55</v>
       </c>
       <c r="S21">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="T21">
+        <f>SUM(Q21:S21)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1961,11 +2027,14 @@
         <v>15</v>
       </c>
       <c r="S22">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="T22">
+        <f>SUM(Q22:S22)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2016,11 +2085,14 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f>SUM(Q23:S23)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2071,19 +2143,22 @@
         <v>10</v>
       </c>
       <c r="S24">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="T24">
+        <f>SUM(Q24:S24)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="D25">
         <v>30</v>
@@ -2126,11 +2201,14 @@
         <v>45</v>
       </c>
       <c r="S25">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="T25">
+        <f>SUM(Q25:S25)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2181,11 +2259,14 @@
         <v>10</v>
       </c>
       <c r="S26">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="T26">
+        <f>SUM(Q26:S26)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2236,11 +2317,14 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f>SUM(Q27:S27)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2291,11 +2375,14 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f>SUM(Q28:S28)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2346,11 +2433,14 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f>SUM(Q29:S29)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2401,11 +2491,14 @@
         <v>75</v>
       </c>
       <c r="S30">
-        <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="T30">
+        <f>SUM(Q30:S30)</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2456,11 +2549,14 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f>SUM(Q31:S31)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2511,8 +2607,11 @@
         <v>10</v>
       </c>
       <c r="S32">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="T32">
+        <f>SUM(Q32:S32)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2533,11 +2632,11 @@
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2554,25 +2653,28 @@
         <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -2584,39 +2686,43 @@
         <v>Still In</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="F2" s="3">
-        <f>SUM(D2:E2)</f>
-        <v>40</v>
-      </c>
-      <c r="G2" t="str">
+      <c r="F2">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="G2" s="3">
+        <f>SUM(D2:F2)</f>
+        <v>85</v>
+      </c>
+      <c r="H2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -2628,39 +2734,43 @@
         <v>Still In</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F46" si="0">SUM(D3:E3)</f>
-        <v>50</v>
-      </c>
-      <c r="G3" t="str">
+      <c r="F3">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G46" si="0">SUM(D3:F3)</f>
+        <v>120</v>
+      </c>
+      <c r="H3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -2672,39 +2782,43 @@
         <v>Eliminated</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" t="str">
+      <c r="F4">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -2716,39 +2830,43 @@
         <v>Eliminated</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Product Manager</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -2760,39 +2878,43 @@
         <v>Still In</v>
       </c>
       <c r="D6">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="F6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2804,39 +2926,43 @@
         <v>Still In</v>
       </c>
       <c r="D7">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G7" t="str">
+      <c r="F7">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="H7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2848,39 +2974,43 @@
         <v>Still In</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G8" t="str">
+      <c r="F8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2892,39 +3022,43 @@
         <v>Still In</v>
       </c>
       <c r="D9">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="G9" t="str">
+      <c r="F9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>105</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="H9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2933,42 +3067,46 @@
       </c>
       <c r="C10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D10">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>85</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G10" t="str">
+      <c r="H10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2980,39 +3118,43 @@
         <v>Still In</v>
       </c>
       <c r="D11">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G11" t="str">
+      <c r="F11">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3024,39 +3166,43 @@
         <v>Still In</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G12" t="str">
+      <c r="F12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="H12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Information Systems Supervisor</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3068,39 +3214,43 @@
         <v>Still In</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G13" t="str">
+      <c r="F13">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3112,39 +3262,43 @@
         <v>Still In</v>
       </c>
       <c r="D14">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>75</v>
       </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="G14" t="str">
+      <c r="F14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="H14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3156,39 +3310,43 @@
         <v>Still In</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G15" t="str">
+      <c r="F15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3200,39 +3358,43 @@
         <v>Still In</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G16" t="str">
+      <c r="F16">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="H16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3244,39 +3406,43 @@
         <v>Eliminated</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" t="str">
+      <c r="F17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3288,39 +3454,43 @@
         <v>Still In</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G18" t="str">
+      <c r="F18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="H18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3332,39 +3502,43 @@
         <v>Still In</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G19" t="str">
+      <c r="F19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -3376,39 +3550,43 @@
         <v>Still In</v>
       </c>
       <c r="D20">
-        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G20" t="str">
+      <c r="F20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="H20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -3420,39 +3598,43 @@
         <v>Still In</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G21" t="str">
+      <c r="F21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="H21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3464,39 +3646,43 @@
         <v>Eliminated</v>
       </c>
       <c r="D22">
-        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" t="str">
+      <c r="F22">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="J22" t="str">
+      <c r="K22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -3508,39 +3694,43 @@
         <v>Still In</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G23" t="str">
+      <c r="F23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3549,42 +3739,46 @@
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E24">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>85</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G24" t="str">
+      <c r="H24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3596,39 +3790,43 @@
         <v>Still In</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E25">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G25" t="str">
+      <c r="F25">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -3640,39 +3838,43 @@
         <v>Eliminated</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E26">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" t="str">
+      <c r="H26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="I26" t="str">
+      <c r="J26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="J26" t="str">
+      <c r="K26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -3684,39 +3886,43 @@
         <v>Still In</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="F27" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G27" t="str">
+      <c r="F27">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="I27" t="str">
+      <c r="J27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="J27" t="str">
+      <c r="K27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3728,39 +3934,43 @@
         <v>Still In</v>
       </c>
       <c r="D28">
-        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>75</v>
       </c>
-      <c r="F28" s="3">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="G28" t="str">
+      <c r="F28">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="H28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I28" t="str">
+      <c r="J28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="J28" t="str">
+      <c r="K28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -3772,39 +3982,43 @@
         <v>Still In</v>
       </c>
       <c r="D29">
-        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="F29" s="3">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="G29" t="str">
+      <c r="F29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>105</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="H29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="I29" t="str">
+      <c r="J29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="J29" t="str">
+      <c r="K29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K29" t="str">
+      <c r="L29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -3816,39 +4030,43 @@
         <v>Still In</v>
       </c>
       <c r="D30">
-        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>55</v>
       </c>
-      <c r="F30" s="3">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="G30" t="str">
+      <c r="F30">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="H30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="I30" t="str">
+      <c r="J30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="J30" t="str">
+      <c r="K30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -3857,42 +4075,46 @@
       </c>
       <c r="C31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D31">
-        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>85</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G31" t="str">
+      <c r="H31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I31" t="str">
+      <c r="J31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="J31" t="str">
+      <c r="K31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -3904,39 +4126,43 @@
         <v>Still In</v>
       </c>
       <c r="D32">
-        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E32">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="F32" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G32" t="str">
+      <c r="F32">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I32" t="str">
+      <c r="J32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="J32" t="str">
+      <c r="K32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -3945,42 +4171,46 @@
       </c>
       <c r="C33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D33">
-        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>85</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G33" t="str">
+      <c r="H33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I33" t="str">
+      <c r="J33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="J33" t="str">
+      <c r="K33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="K33" t="str">
+      <c r="L33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -3992,39 +4222,43 @@
         <v>Still In</v>
       </c>
       <c r="D34">
-        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E34">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>75</v>
       </c>
-      <c r="F34" s="3">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="G34" t="str">
+      <c r="F34">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="H34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I34" t="str">
+      <c r="J34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="J34" t="str">
+      <c r="K34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K34" t="str">
+      <c r="L34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -4033,42 +4267,46 @@
       </c>
       <c r="C35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D35">
-        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E35">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G35" t="str">
+      <c r="H35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="I35" t="str">
+      <c r="J35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Account Executive</v>
       </c>
-      <c r="J35" t="str">
+      <c r="K35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'9"</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -4080,39 +4318,43 @@
         <v>Still In</v>
       </c>
       <c r="D36">
-        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>40</v>
       </c>
       <c r="E36">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="F36" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G36" t="str">
+      <c r="F36">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="H36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I36" t="str">
+      <c r="J36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Singer/Songwriter</v>
       </c>
-      <c r="J36" t="str">
+      <c r="K36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="K36" t="str">
+      <c r="L36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -4124,39 +4366,43 @@
         <v>Still In</v>
       </c>
       <c r="D37">
-        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E37">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G37" t="str">
+      <c r="F37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="H37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="I37" t="str">
+      <c r="J37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="J37" t="str">
+      <c r="K37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K37" t="str">
+      <c r="L37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -4165,42 +4411,46 @@
       </c>
       <c r="C38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D38">
-        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E38">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>85</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G38" t="str">
+      <c r="H38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I38" t="str">
+      <c r="J38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="J38" t="str">
+      <c r="K38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4212,39 +4462,43 @@
         <v>Still In</v>
       </c>
       <c r="D39">
-        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E39">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="F39" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G39" t="str">
+      <c r="F39">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I39" t="str">
+      <c r="J39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="J39" t="str">
+      <c r="K39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="K39" t="str">
+      <c r="L39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -4256,39 +4510,43 @@
         <v>Eliminated</v>
       </c>
       <c r="D40">
-        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G40" t="str">
+      <c r="H40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="I40" t="str">
+      <c r="J40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marketing Consultant</v>
       </c>
-      <c r="J40" t="str">
+      <c r="K40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="K40" t="str">
+      <c r="L40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -4300,39 +4558,43 @@
         <v>Eliminated</v>
       </c>
       <c r="D41">
-        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E41">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G41" t="str">
+      <c r="H41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="I41" t="str">
+      <c r="J41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K41" t="str">
+      <c r="L41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -4344,39 +4606,43 @@
         <v>Still In</v>
       </c>
       <c r="D42">
-        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="F42" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G42" t="str">
+      <c r="F42">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="I42" t="str">
+      <c r="J42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="J42" t="str">
+      <c r="K42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K42" t="str">
+      <c r="L42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -4388,39 +4654,43 @@
         <v>Still In</v>
       </c>
       <c r="D43">
-        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="F43" s="3">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="G43" t="str">
+      <c r="F43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>105</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="H43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="I43" t="str">
+      <c r="J43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="J43" t="str">
+      <c r="K43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K43" t="str">
+      <c r="L43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -4432,39 +4702,43 @@
         <v>Still In</v>
       </c>
       <c r="D44">
-        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E44">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>55</v>
       </c>
-      <c r="F44" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="G44" t="str">
+      <c r="F44">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="H44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="I44" t="str">
+      <c r="J44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="J44" t="str">
+      <c r="K44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K44" t="str">
+      <c r="L44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -4476,39 +4750,43 @@
         <v>Still In</v>
       </c>
       <c r="D45">
-        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="F45" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G45" t="str">
+      <c r="F45">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="H45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="I45" t="str">
+      <c r="J45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="J45" t="str">
+      <c r="K45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K45" t="str">
+      <c r="L45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -4520,34 +4798,38 @@
         <v>Still In</v>
       </c>
       <c r="D46">
-        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$S$32,17,FALSE)</f>
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
         <v>75</v>
       </c>
-      <c r="F46" s="3">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="G46" t="str">
+      <c r="F46">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="H46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I46" t="str">
+      <c r="J46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="J46" t="str">
+      <c r="K46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K46" t="str">
+      <c r="L46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
@@ -4560,21 +4842,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4591,10 +4871,13 @@
         <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -4603,7 +4886,7 @@
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -4614,11 +4897,15 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <f>SUM(D2:E2)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G2">
+        <f>SUM(D2:F2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -4638,11 +4925,15 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F21" si="0">SUM(D3:E3)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="0">SUM(D3:F3)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -4662,11 +4953,15 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -4686,11 +4981,15 @@
         <v>15</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4710,11 +5009,15 @@
         <v>15</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -4734,11 +5037,15 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4747,7 +5054,7 @@
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -4758,11 +5065,15 @@
         <v>85</v>
       </c>
       <c r="F8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4782,11 +5093,15 @@
         <v>55</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -4806,11 +5121,15 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -4830,11 +5149,15 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -4854,11 +5177,15 @@
         <v>75</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -4878,11 +5205,15 @@
         <v>25</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>105</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -4902,11 +5233,15 @@
         <v>15</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -4926,11 +5261,15 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -4950,11 +5289,15 @@
         <v>75</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -4963,7 +5306,7 @@
       </c>
       <c r="C17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -4974,11 +5317,15 @@
         <v>85</v>
       </c>
       <c r="F17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -4998,11 +5345,15 @@
         <v>55</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -5011,7 +5362,7 @@
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -5022,11 +5373,15 @@
         <v>85</v>
       </c>
       <c r="F19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5046,11 +5401,15 @@
         <v>15</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -5059,7 +5418,7 @@
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -5070,6 +5429,10 @@
         <v>85</v>
       </c>
       <c r="F21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -5081,10 +5444,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F2:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5092,10 +5455,10 @@
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5112,25 +5475,28 @@
         <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -5150,31 +5516,35 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUM(D2:E2)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>SUM(D2:F2)</f>
         <v>5</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -5194,31 +5564,35 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F56" si="0">SUM(D3:E3)</f>
-        <v>50</v>
-      </c>
-      <c r="G3" t="str">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G56" si="0">SUM(D3:F3)</f>
+        <v>120</v>
+      </c>
+      <c r="H3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -5238,31 +5612,35 @@
         <v>25</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="G4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>105</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="H4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -5282,31 +5660,35 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G5" t="str">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -5315,7 +5697,7 @@
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -5326,31 +5708,35 @@
         <v>85</v>
       </c>
       <c r="F6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -5370,31 +5756,35 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -5414,31 +5804,35 @@
         <v>25</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="G8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>105</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="H8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -5458,31 +5852,35 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -5502,31 +5900,35 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -5546,31 +5948,35 @@
         <v>15</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="H11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -5590,31 +5996,35 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="H12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -5634,31 +6044,35 @@
         <v>55</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="G13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="H13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -5678,31 +6092,35 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -5711,7 +6129,7 @@
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -5722,31 +6140,35 @@
         <v>85</v>
       </c>
       <c r="F15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G15" t="str">
+      <c r="H15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -5766,31 +6188,35 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="H16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Real Estate Agent</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -5810,31 +6236,35 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -5854,31 +6284,35 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -5898,31 +6332,35 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="H19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -5942,31 +6380,35 @@
         <v>0</v>
       </c>
       <c r="F20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" t="str">
+      <c r="H20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -5986,31 +6428,35 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -6030,31 +6476,35 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G22" t="str">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="H22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="J22" t="str">
+      <c r="K22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -6063,7 +6513,7 @@
       </c>
       <c r="C23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -6074,31 +6524,35 @@
         <v>85</v>
       </c>
       <c r="F23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G23" t="str">
+      <c r="H23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -6107,7 +6561,7 @@
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D24">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -6118,31 +6572,35 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G24" t="str">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Assistant</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -6162,31 +6620,35 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" t="str">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -6206,31 +6668,35 @@
         <v>0</v>
       </c>
       <c r="F26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" t="str">
+      <c r="H26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I26" t="str">
+      <c r="J26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="J26" t="str">
+      <c r="K26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -6250,31 +6716,35 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" t="str">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="I27" t="str">
+      <c r="J27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="J27" t="str">
+      <c r="K27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -6294,31 +6764,35 @@
         <v>10</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G28" t="str">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="I28" t="str">
+      <c r="J28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="J28" t="str">
+      <c r="K28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -6338,31 +6812,35 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G29" t="str">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="H29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I29" t="str">
+      <c r="J29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Firefighter</v>
       </c>
-      <c r="J29" t="str">
+      <c r="K29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K29" t="str">
+      <c r="L29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -6382,31 +6860,35 @@
         <v>15</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G30" t="str">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="H30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="I30" t="str">
+      <c r="J30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="J30" t="str">
+      <c r="K30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -6426,31 +6908,35 @@
         <v>10</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G31" t="str">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="I31" t="str">
+      <c r="J31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="J31" t="str">
+      <c r="K31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -6470,31 +6956,35 @@
         <v>55</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="G32" t="str">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="H32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="I32" t="str">
+      <c r="J32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="J32" t="str">
+      <c r="K32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -6514,31 +7004,35 @@
         <v>10</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G33" t="str">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="H33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="I33" t="str">
+      <c r="J33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="J33" t="str">
+      <c r="K33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K33" t="str">
+      <c r="L33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -6558,31 +7052,35 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" t="str">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="I34" t="str">
+      <c r="J34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="J34" t="str">
+      <c r="K34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K34" t="str">
+      <c r="L34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -6591,7 +7089,7 @@
       </c>
       <c r="C35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D35">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -6602,31 +7100,35 @@
         <v>85</v>
       </c>
       <c r="F35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G35" t="str">
+      <c r="H35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I35" t="str">
+      <c r="J35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="J35" t="str">
+      <c r="K35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -6646,31 +7148,35 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" t="str">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="I36" t="str">
+      <c r="J36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="J36" t="str">
+      <c r="K36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="K36" t="str">
+      <c r="L36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -6690,31 +7196,35 @@
         <v>0</v>
       </c>
       <c r="F37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G37" t="str">
+      <c r="H37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="I37" t="str">
+      <c r="J37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="J37" t="str">
+      <c r="K37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K37" t="str">
+      <c r="L37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -6734,31 +7244,35 @@
         <v>10</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G38" t="str">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I38" t="str">
+      <c r="J38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="J38" t="str">
+      <c r="K38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -6778,31 +7292,35 @@
         <v>75</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="G39" t="str">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="H39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I39" t="str">
+      <c r="J39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="J39" t="str">
+      <c r="K39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K39" t="str">
+      <c r="L39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -6822,31 +7340,35 @@
         <v>10</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G40" t="str">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="I40" t="str">
+      <c r="J40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="J40" t="str">
+      <c r="K40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K40" t="str">
+      <c r="L40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -6855,7 +7377,7 @@
       </c>
       <c r="C41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D41">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -6866,31 +7388,35 @@
         <v>85</v>
       </c>
       <c r="F41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G41" t="str">
+      <c r="H41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I41" t="str">
+      <c r="J41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="K41" t="str">
+      <c r="L41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -6910,31 +7436,35 @@
         <v>15</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G42" t="str">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="H42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="I42" t="str">
+      <c r="J42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="J42" t="str">
+      <c r="K42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="K42" t="str">
+      <c r="L42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -6943,7 +7473,7 @@
       </c>
       <c r="C43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -6954,31 +7484,35 @@
         <v>85</v>
       </c>
       <c r="F43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G43" t="str">
+      <c r="H43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I43" t="str">
+      <c r="J43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="J43" t="str">
+      <c r="K43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="K43" t="str">
+      <c r="L43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -6998,31 +7532,35 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" t="str">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="I44" t="str">
+      <c r="J44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="J44" t="str">
+      <c r="K44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K44" t="str">
+      <c r="L44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -7042,31 +7580,35 @@
         <v>10</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G45" t="str">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="I45" t="str">
+      <c r="J45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="J45" t="str">
+      <c r="K45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K45" t="str">
+      <c r="L45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -7086,31 +7628,35 @@
         <v>55</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="G46" t="str">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="H46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="I46" t="str">
+      <c r="J46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="J46" t="str">
+      <c r="K46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K46" t="str">
+      <c r="L46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -7130,31 +7676,35 @@
         <v>55</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="G47" t="str">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="H47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="I47" t="str">
+      <c r="J47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="J47" t="str">
+      <c r="K47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K47" t="str">
+      <c r="L47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -7163,7 +7713,7 @@
       </c>
       <c r="C48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D48">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -7174,31 +7724,35 @@
         <v>85</v>
       </c>
       <c r="F48">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G48" t="str">
+      <c r="H48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I48" t="str">
+      <c r="J48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="J48" t="str">
+      <c r="K48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="K48" t="str">
+      <c r="L48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -7218,31 +7772,35 @@
         <v>0</v>
       </c>
       <c r="F49">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G49" t="str">
+      <c r="H49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I49" t="str">
+      <c r="J49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="J49" t="str">
+      <c r="K49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K49" t="str">
+      <c r="L49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -7262,31 +7820,35 @@
         <v>15</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G50" t="str">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="H50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="I50" t="str">
+      <c r="J50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Information Systems Supervisor</v>
       </c>
-      <c r="J50" t="str">
+      <c r="K50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K50" t="str">
+      <c r="L50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -7306,31 +7868,35 @@
         <v>10</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G51" t="str">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="I51" t="str">
+      <c r="J51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="J51" t="str">
+      <c r="K51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K51" t="str">
+      <c r="L51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>114</v>
       </c>
@@ -7339,7 +7905,7 @@
       </c>
       <c r="C52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D52">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -7350,31 +7916,35 @@
         <v>45</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="G52" t="str">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="H52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I52" t="str">
+      <c r="J52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Aspiring Drummer</v>
       </c>
-      <c r="J52" t="str">
+      <c r="K52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="K52" t="str">
+      <c r="L52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -7394,31 +7964,35 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="I53" t="str">
+      <c r="J53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="J53" t="str">
+      <c r="K53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="K53" t="str">
+      <c r="L53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -7427,7 +8001,7 @@
       </c>
       <c r="C54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D54">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -7438,31 +8012,35 @@
         <v>85</v>
       </c>
       <c r="F54">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G54">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G54" t="str">
+      <c r="H54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="I54" t="str">
+      <c r="J54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="J54" t="str">
+      <c r="K54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="K54" t="str">
+      <c r="L54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -7482,31 +8060,35 @@
         <v>0</v>
       </c>
       <c r="F55">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G55" t="str">
+      <c r="H55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="I55" t="str">
+      <c r="J55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marketing Consultant</v>
       </c>
-      <c r="J55" t="str">
+      <c r="K55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="K55" t="str">
+      <c r="L55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -7526,26 +8108,30 @@
         <v>55</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="G56" t="str">
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="H56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="I56" t="str">
+      <c r="J56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="J56" t="str">
+      <c r="K56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="K56" t="str">
+      <c r="L56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>

--- a/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
+++ b/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Contestant Points" sheetId="4" r:id="rId1"/>
@@ -729,15 +729,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.5546875" customWidth="1"/>
+    <col min="2" max="7" width="9.5546875" customWidth="1"/>
     <col min="8" max="8" width="30.109375" customWidth="1"/>
     <col min="9" max="9" width="5.109375" customWidth="1"/>
     <col min="10" max="10" width="36.44140625" customWidth="1"/>
@@ -870,7 +869,7 @@
         <v>70</v>
       </c>
       <c r="T2">
-        <f>SUM(Q2:S2)</f>
+        <f t="shared" ref="T2:T32" si="0">SUM(Q2:S2)</f>
         <v>105</v>
       </c>
     </row>
@@ -900,22 +899,22 @@
         <v>1</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I32" si="0">H3/SUM($H$2:$H$32)</f>
+        <f t="shared" ref="I3:I32" si="1">H3/SUM($H$2:$H$32)</f>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J32" si="1">CONCATENATE(ROUND(I3*100,0),"% of people have chosen this contestant")</f>
+        <f t="shared" ref="J3:J32" si="2">CONCATENATE(ROUND(I3*100,0),"% of people have chosen this contestant")</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O32" si="2">N3/SUM($N$2:$N$32)</f>
+        <f t="shared" ref="O3:O32" si="3">N3/SUM($N$2:$N$32)</f>
         <v>0.02</v>
       </c>
       <c r="P3" s="2" t="str">
-        <f t="shared" ref="P3:P32" si="3">CONCATENATE(ROUND(O3*100,0),"% of people have chosen this contestant")</f>
+        <f t="shared" ref="P3:P32" si="4">CONCATENATE(ROUND(O3*100,0),"% of people have chosen this contestant")</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q3">
@@ -928,7 +927,7 @@
         <v>100</v>
       </c>
       <c r="T3">
-        <f>SUM(Q3:S3)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
@@ -958,22 +957,22 @@
         <v>3</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
       <c r="P4" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q4">
@@ -983,11 +982,11 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="T4">
-        <f>SUM(Q4:S4)</f>
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -1016,22 +1015,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P5" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q5">
@@ -1044,7 +1043,7 @@
         <v>15</v>
       </c>
       <c r="T5">
-        <f>SUM(Q5:S5)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
     </row>
@@ -1074,22 +1073,22 @@
         <v>2</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="N6">
         <v>6</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
       <c r="P6" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12% of people have chosen this contestant</v>
       </c>
       <c r="Q6">
@@ -1102,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SUM(Q6:S6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1132,22 +1131,22 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P7" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q7">
@@ -1160,7 +1159,7 @@
         <v>75</v>
       </c>
       <c r="T7">
-        <f>SUM(Q7:S7)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -1190,22 +1189,22 @@
         <v>5</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
       <c r="P8" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8% of people have chosen this contestant</v>
       </c>
       <c r="Q8">
@@ -1218,7 +1217,7 @@
         <v>65</v>
       </c>
       <c r="T8">
-        <f>SUM(Q8:S8)</f>
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
     </row>
@@ -1248,22 +1247,22 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="P9" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q9">
@@ -1276,7 +1275,7 @@
         <v>75</v>
       </c>
       <c r="T9">
-        <f>SUM(Q9:S9)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
     </row>
@@ -1306,22 +1305,22 @@
         <v>1</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
       <c r="P10" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q10">
@@ -1331,11 +1330,11 @@
         <v>55</v>
       </c>
       <c r="S10">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="T10">
-        <f>SUM(Q10:S10)</f>
-        <v>130</v>
+        <f t="shared" si="0"/>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -1364,22 +1363,22 @@
         <v>5</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="N11">
         <v>7</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="P11" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14% of people have chosen this contestant</v>
       </c>
       <c r="Q11">
@@ -1392,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <f>SUM(Q11:S11)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
@@ -1422,22 +1421,22 @@
         <v>6</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13% of people have chosen this contestant</v>
       </c>
       <c r="N12">
         <v>2</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
       <c r="P12" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q12">
@@ -1450,7 +1449,7 @@
         <v>45</v>
       </c>
       <c r="T12">
-        <f>SUM(Q12:S12)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
@@ -1480,22 +1479,22 @@
         <v>3</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="N13">
         <v>2</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
       <c r="P13" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q13">
@@ -1508,7 +1507,7 @@
         <v>105</v>
       </c>
       <c r="T13">
-        <f>SUM(Q13:S13)</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
@@ -1538,22 +1537,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="P14" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q14">
@@ -1566,7 +1565,7 @@
         <v>65</v>
       </c>
       <c r="T14">
-        <f>SUM(Q14:S14)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -1596,22 +1595,22 @@
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P15" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q15">
@@ -1624,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <f>SUM(Q15:S15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1654,22 +1653,22 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P16" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q16">
@@ -1682,7 +1681,7 @@
         <v>60</v>
       </c>
       <c r="T16">
-        <f>SUM(Q16:S16)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
     </row>
@@ -1712,22 +1711,22 @@
         <v>1</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="N17">
         <v>3</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="P17" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q17">
@@ -1740,7 +1739,7 @@
         <v>70</v>
       </c>
       <c r="T17">
-        <f>SUM(Q17:S17)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
@@ -1770,22 +1769,22 @@
         <v>1</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P18" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q18">
@@ -1798,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <f>SUM(Q18:S18)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -1828,22 +1827,22 @@
         <v>1</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="N19">
         <v>3</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="P19" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q19">
@@ -1856,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <f>SUM(Q19:S19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1886,22 +1885,22 @@
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P20" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q20">
@@ -1914,7 +1913,7 @@
         <v>55</v>
       </c>
       <c r="T20">
-        <f>SUM(Q20:S20)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
@@ -1944,22 +1943,22 @@
         <v>1</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J21" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="N21">
         <v>2</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
       <c r="P21" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q21">
@@ -1972,7 +1971,7 @@
         <v>15</v>
       </c>
       <c r="T21">
-        <f>SUM(Q21:S21)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
     </row>
@@ -2002,22 +2001,22 @@
         <v>3</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="J22" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="P22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q22">
@@ -2030,7 +2029,7 @@
         <v>80</v>
       </c>
       <c r="T22">
-        <f>SUM(Q22:S22)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
     </row>
@@ -2060,22 +2059,22 @@
         <v>1</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J23" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P23" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q23">
@@ -2088,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <f>SUM(Q23:S23)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2118,22 +2117,22 @@
         <v>1</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P24" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q24">
@@ -2146,7 +2145,7 @@
         <v>90</v>
       </c>
       <c r="T24">
-        <f>SUM(Q24:S24)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
@@ -2176,22 +2175,22 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P25" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q25">
@@ -2204,7 +2203,7 @@
         <v>35</v>
       </c>
       <c r="T25">
-        <f>SUM(Q25:S25)</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
     </row>
@@ -2234,22 +2233,22 @@
         <v>1</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J26" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="N26">
         <v>2</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
       <c r="P26" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q26">
@@ -2262,7 +2261,7 @@
         <v>40</v>
       </c>
       <c r="T26">
-        <f>SUM(Q26:S26)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
@@ -2292,22 +2291,22 @@
         <v>2</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="J27" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="N27">
         <v>3</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="P27" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q27">
@@ -2320,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <f>SUM(Q27:S27)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2350,22 +2349,22 @@
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P28" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q28">
@@ -2378,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <f>SUM(Q28:S28)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -2408,22 +2407,22 @@
         <v>1</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P29" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q29">
@@ -2436,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <f>SUM(Q29:S29)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -2466,22 +2465,22 @@
         <v>4</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="J30" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9% of people have chosen this contestant</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="P30" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q30">
@@ -2494,7 +2493,7 @@
         <v>40</v>
       </c>
       <c r="T30">
-        <f>SUM(Q30:S30)</f>
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
     </row>
@@ -2524,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N31">
         <v>3</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="P31" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q31">
@@ -2552,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <f>SUM(Q31:S31)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2582,22 +2581,22 @@
         <v>2</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="J32" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="N32">
         <v>3</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="P32" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q32">
@@ -2610,7 +2609,7 @@
         <v>65</v>
       </c>
       <c r="T32">
-        <f>SUM(Q32:S32)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2935,11 +2934,11 @@
       </c>
       <c r="F7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="H7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -3559,11 +3558,11 @@
       </c>
       <c r="F20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="H20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -4039,11 +4038,11 @@
       </c>
       <c r="F30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -4375,11 +4374,11 @@
       </c>
       <c r="F37">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="H37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -4954,11 +4953,11 @@
       </c>
       <c r="F4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -5122,11 +5121,11 @@
       </c>
       <c r="F10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -5446,8 +5445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5997,11 +5996,11 @@
       </c>
       <c r="F12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="H12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -6045,11 +6044,11 @@
       </c>
       <c r="F13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -6477,11 +6476,11 @@
       </c>
       <c r="F22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="H22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -7677,11 +7676,11 @@
       </c>
       <c r="F47">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>

--- a/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
+++ b/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contestant Points" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="120">
   <si>
     <t>Team</t>
   </si>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,6 +844,13 @@
         <f>CONCATENATE(ROUND(I2*100,0),"% of people have chosen this contestant")</f>
         <v>0% of people have chosen this contestant</v>
       </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <f>K2/SUM($K$2:$K$32)</f>
+        <v>0</v>
+      </c>
       <c r="M2" s="2" t="str">
         <f>CONCATENATE(ROUND(L2*100,0),"% of people have chosen this contestant")</f>
         <v>0% of people have chosen this contestant</v>
@@ -906,15 +913,26 @@
         <f t="shared" ref="J3:J32" si="2">CONCATENATE(ROUND(I3*100,0),"% of people have chosen this contestant")</f>
         <v>2% of people have chosen this contestant</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L32" si="3">K3/SUM($K$2:$K$32)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f t="shared" ref="M3:M32" si="4">CONCATENATE(ROUND(L3*100,0),"% of people have chosen this contestant")</f>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O32" si="3">N3/SUM($N$2:$N$32)</f>
+        <f t="shared" ref="O3:O32" si="5">N3/SUM($N$2:$N$32)</f>
         <v>0.02</v>
       </c>
       <c r="P3" s="2" t="str">
-        <f t="shared" ref="P3:P32" si="4">CONCATENATE(ROUND(O3*100,0),"% of people have chosen this contestant")</f>
+        <f t="shared" ref="P3:P32" si="6">CONCATENATE(ROUND(O3*100,0),"% of people have chosen this contestant")</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q3">
@@ -964,15 +982,26 @@
         <f t="shared" si="2"/>
         <v>7% of people have chosen this contestant</v>
       </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>10% of people have chosen this contestant</v>
+      </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="P4" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q4">
@@ -1022,15 +1051,26 @@
         <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P5" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q5">
@@ -1080,15 +1120,26 @@
         <f t="shared" si="2"/>
         <v>4% of people have chosen this contestant</v>
       </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N6">
         <v>6</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="P6" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12% of people have chosen this contestant</v>
       </c>
       <c r="Q6">
@@ -1138,15 +1189,26 @@
         <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P7" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q7">
@@ -1196,15 +1258,26 @@
         <f t="shared" si="2"/>
         <v>11% of people have chosen this contestant</v>
       </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>15% of people have chosen this contestant</v>
+      </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.08</v>
       </c>
       <c r="P8" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8% of people have chosen this contestant</v>
       </c>
       <c r="Q8">
@@ -1254,15 +1327,26 @@
         <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="P9" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q9">
@@ -1312,15 +1396,26 @@
         <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="P10" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q10">
@@ -1370,15 +1465,26 @@
         <f t="shared" si="2"/>
         <v>11% of people have chosen this contestant</v>
       </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>15% of people have chosen this contestant</v>
+      </c>
       <c r="N11">
         <v>7</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="P11" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14% of people have chosen this contestant</v>
       </c>
       <c r="Q11">
@@ -1428,15 +1534,26 @@
         <f t="shared" si="2"/>
         <v>13% of people have chosen this contestant</v>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>5% of people have chosen this contestant</v>
+      </c>
       <c r="N12">
         <v>2</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="P12" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q12">
@@ -1486,15 +1603,26 @@
         <f t="shared" si="2"/>
         <v>7% of people have chosen this contestant</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>5% of people have chosen this contestant</v>
+      </c>
       <c r="N13">
         <v>2</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="P13" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q13">
@@ -1544,15 +1672,26 @@
         <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>5% of people have chosen this contestant</v>
+      </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="P14" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q14">
@@ -1602,15 +1741,26 @@
         <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q15">
@@ -1660,15 +1810,26 @@
         <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P16" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q16">
@@ -1718,15 +1879,26 @@
         <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20% of people have chosen this contestant</v>
+      </c>
       <c r="N17">
         <v>3</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="P17" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q17">
@@ -1776,15 +1948,26 @@
         <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P18" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q18">
@@ -1834,15 +2017,26 @@
         <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N19">
         <v>3</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="P19" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q19">
@@ -1892,15 +2086,26 @@
         <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P20" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q20">
@@ -1950,15 +2155,26 @@
         <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="M21" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>10% of people have chosen this contestant</v>
+      </c>
       <c r="N21">
         <v>2</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="P21" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q21">
@@ -2008,15 +2224,26 @@
         <f t="shared" si="2"/>
         <v>7% of people have chosen this contestant</v>
       </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M22" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>5% of people have chosen this contestant</v>
+      </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="P22" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q22">
@@ -2066,15 +2293,26 @@
         <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P23" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q23">
@@ -2124,15 +2362,26 @@
         <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P24" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q24">
@@ -2182,15 +2431,26 @@
         <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P25" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q25">
@@ -2240,15 +2500,26 @@
         <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N26">
         <v>2</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="P26" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q26">
@@ -2298,15 +2569,26 @@
         <f t="shared" si="2"/>
         <v>4% of people have chosen this contestant</v>
       </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N27">
         <v>3</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="P27" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q27">
@@ -2356,15 +2638,26 @@
         <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P28" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q28">
@@ -2414,15 +2707,26 @@
         <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P29" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q29">
@@ -2472,15 +2776,26 @@
         <f t="shared" si="2"/>
         <v>9% of people have chosen this contestant</v>
       </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="M30" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>10% of people have chosen this contestant</v>
+      </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="P30" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q30">
@@ -2530,15 +2845,26 @@
         <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N31">
         <v>3</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="P31" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q31">
@@ -2588,15 +2914,26 @@
         <f t="shared" si="2"/>
         <v>4% of people have chosen this contestant</v>
       </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0% of people have chosen this contestant</v>
+      </c>
       <c r="N32">
         <v>3</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="P32" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q32">
@@ -2623,7 +2960,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4841,9 +5178,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4853,7 +5192,7 @@
     <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4875,8 +5214,23 @@
       <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -4903,8 +5257,28 @@
         <f>SUM(D2:F2)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="str">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="I2">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="J2" t="str">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Assistant</v>
+      </c>
+      <c r="K2" t="str">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+      <c r="L2" t="str">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -4931,8 +5305,28 @@
         <f t="shared" ref="G3:G21" si="0">SUM(D3:F3)</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="str">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>13% of people have chosen this contestant</v>
+      </c>
+      <c r="I3">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="J3" t="str">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Senior Inventory Analyst</v>
+      </c>
+      <c r="K3" t="str">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+      <c r="L3" t="str">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -4959,8 +5353,28 @@
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="I4">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="J4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Education Software Manager</v>
+      </c>
+      <c r="K4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+      <c r="L4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -4987,8 +5401,28 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="str">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="I5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="J5" t="str">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Attorney</v>
+      </c>
+      <c r="K5" t="str">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+      <c r="L5" t="str">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -5015,8 +5449,28 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="str">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="I6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="J6" t="str">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Attorney</v>
+      </c>
+      <c r="K6" t="str">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+      <c r="L6" t="str">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -5043,8 +5497,28 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="I7">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="J7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="K7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+      <c r="L7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5071,8 +5545,28 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="I8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="J8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Recruiter</v>
+      </c>
+      <c r="K8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'4"</v>
+      </c>
+      <c r="L8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5099,8 +5593,28 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="str">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="I9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="J9" t="str">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Prosecuting Attorney</v>
+      </c>
+      <c r="K9" t="str">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+      <c r="L9" t="str">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -5127,8 +5641,28 @@
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="I10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="J10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Education Software Manager</v>
+      </c>
+      <c r="K10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -5155,8 +5689,28 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="I11">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="J11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="K11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+      <c r="L11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -5183,8 +5737,28 @@
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>9% of people have chosen this contestant</v>
+      </c>
+      <c r="I12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="J12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Business Owner</v>
+      </c>
+      <c r="K12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+      <c r="L12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -5211,8 +5785,28 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="I13">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="J13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Personal Trainer</v>
+      </c>
+      <c r="K13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+      <c r="L13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -5239,8 +5833,28 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="I14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="J14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Attorney</v>
+      </c>
+      <c r="K14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+      <c r="L14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -5267,8 +5881,28 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="I15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="J15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="K15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+      <c r="L15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -5295,8 +5929,28 @@
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>9% of people have chosen this contestant</v>
+      </c>
+      <c r="I16">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="J16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Business Owner</v>
+      </c>
+      <c r="K16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+      <c r="L16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -5323,8 +5977,28 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="I17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="J17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Recruiter</v>
+      </c>
+      <c r="K17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'4"</v>
+      </c>
+      <c r="L17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -5351,17 +6025,37 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="I18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="J18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Prosecuting Attorney</v>
+      </c>
+      <c r="K18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+      <c r="L18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Eliminated</v>
+        <v>Still In</v>
       </c>
       <c r="D19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -5369,18 +6063,38 @@
       </c>
       <c r="E19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$R$32,18,FALSE)</f>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="H19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="I19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="J19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Professional Wrestler</v>
+      </c>
+      <c r="K19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'</v>
+      </c>
+      <c r="L19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5407,8 +6121,28 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="str">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="I20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="J20" t="str">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Attorney</v>
+      </c>
+      <c r="K20" t="str">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>5'11"</v>
+      </c>
+      <c r="L20" t="str">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -5434,6 +6168,26 @@
       <c r="G21">
         <f t="shared" si="0"/>
         <v>120</v>
+      </c>
+      <c r="H21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="I21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="J21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Executive Recruiter</v>
+      </c>
+      <c r="K21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'4"</v>
+      </c>
+      <c r="L21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
       </c>
     </row>
   </sheetData>

--- a/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
+++ b/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contestant Points" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="edX League" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$T$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$U$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="121">
   <si>
     <t>Team</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
 </sst>
 </file>
@@ -727,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,10 +749,10 @@
     <col min="14" max="14" width="31.109375" customWidth="1"/>
     <col min="15" max="15" width="6.109375" customWidth="1"/>
     <col min="16" max="16" width="36.44140625" customWidth="1"/>
-    <col min="20" max="20" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -808,10 +811,13 @@
         <v>119</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -876,11 +882,14 @@
         <v>70</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T32" si="0">SUM(Q2:S2)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="U2">
+        <f>SUM(Q2:T2)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -906,33 +915,33 @@
         <v>1</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I32" si="1">H3/SUM($H$2:$H$32)</f>
+        <f t="shared" ref="I3:I32" si="0">H3/SUM($H$2:$H$32)</f>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J32" si="2">CONCATENATE(ROUND(I3*100,0),"% of people have chosen this contestant")</f>
+        <f t="shared" ref="J3:J32" si="1">CONCATENATE(ROUND(I3*100,0),"% of people have chosen this contestant")</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L32" si="3">K3/SUM($K$2:$K$32)</f>
+        <f t="shared" ref="L3:L32" si="2">K3/SUM($K$2:$K$32)</f>
         <v>0</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M32" si="4">CONCATENATE(ROUND(L3*100,0),"% of people have chosen this contestant")</f>
+        <f t="shared" ref="M3:M32" si="3">CONCATENATE(ROUND(L3*100,0),"% of people have chosen this contestant")</f>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O32" si="5">N3/SUM($N$2:$N$32)</f>
+        <f t="shared" ref="O3:O32" si="4">N3/SUM($N$2:$N$32)</f>
         <v>0.02</v>
       </c>
       <c r="P3" s="2" t="str">
-        <f t="shared" ref="P3:P32" si="6">CONCATENATE(ROUND(O3*100,0),"% of people have chosen this contestant")</f>
+        <f t="shared" ref="P3:P32" si="5">CONCATENATE(ROUND(O3*100,0),"% of people have chosen this contestant")</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q3">
@@ -945,11 +954,14 @@
         <v>100</v>
       </c>
       <c r="T3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U32" si="6">SUM(Q3:T3)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -975,33 +987,33 @@
         <v>3</v>
       </c>
       <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J4" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="M4" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>10% of people have chosen this contestant</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="P4" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="P4" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q4">
@@ -1014,11 +1026,14 @@
         <v>110</v>
       </c>
       <c r="T4">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="6"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1044,33 +1059,33 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="str">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q5">
@@ -1083,11 +1098,14 @@
         <v>15</v>
       </c>
       <c r="T5">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1113,58 +1131,61 @@
         <v>2</v>
       </c>
       <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="J6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="J6" s="2" t="str">
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>4% of people have chosen this contestant</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N6">
         <v>6</v>
       </c>
       <c r="O6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.12</v>
+      </c>
+      <c r="P6" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.12</v>
-      </c>
-      <c r="P6" s="2" t="str">
+        <v>12% of people have chosen this contestant</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="6"/>
-        <v>12% of people have chosen this contestant</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="D7">
         <v>29</v>
@@ -1182,33 +1203,33 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="str">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q7">
@@ -1221,11 +1242,14 @@
         <v>75</v>
       </c>
       <c r="T7">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1251,33 +1275,33 @@
         <v>5</v>
       </c>
       <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J8" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="M8" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="M8" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>15% of people have chosen this contestant</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="P8" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.08</v>
-      </c>
-      <c r="P8" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>8% of people have chosen this contestant</v>
       </c>
       <c r="Q8">
@@ -1290,19 +1314,22 @@
         <v>65</v>
       </c>
       <c r="T8">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -1320,33 +1347,33 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="P9" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-      <c r="P9" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q9">
@@ -1359,11 +1386,14 @@
         <v>75</v>
       </c>
       <c r="T9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1389,33 +1419,33 @@
         <v>1</v>
       </c>
       <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J10" s="2" t="str">
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>2% of people have chosen this contestant</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="P10" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="P10" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q10">
@@ -1428,11 +1458,14 @@
         <v>55</v>
       </c>
       <c r="T10">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1458,33 +1491,33 @@
         <v>5</v>
       </c>
       <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J11" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="M11" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="M11" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>15% of people have chosen this contestant</v>
       </c>
       <c r="N11">
         <v>7</v>
       </c>
       <c r="O11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P11" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P11" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>14% of people have chosen this contestant</v>
       </c>
       <c r="Q11">
@@ -1497,19 +1530,22 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="D12">
         <v>31</v>
@@ -1527,33 +1563,33 @@
         <v>6</v>
       </c>
       <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="J12" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>13% of people have chosen this contestant</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="M12" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="M12" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>5% of people have chosen this contestant</v>
       </c>
       <c r="N12">
         <v>2</v>
       </c>
       <c r="O12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="P12" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="P12" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q12">
@@ -1566,11 +1602,14 @@
         <v>45</v>
       </c>
       <c r="T12">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1596,33 +1635,33 @@
         <v>3</v>
       </c>
       <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J13" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="M13" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="M13" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>5% of people have chosen this contestant</v>
       </c>
       <c r="N13">
         <v>2</v>
       </c>
       <c r="O13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="P13" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="P13" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q13">
@@ -1635,11 +1674,14 @@
         <v>105</v>
       </c>
       <c r="T13">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="6"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1665,33 +1707,33 @@
         <v>0</v>
       </c>
       <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="M14" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="M14" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>5% of people have chosen this contestant</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14" s="2">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="P14" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-      <c r="P14" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q14">
@@ -1704,11 +1746,14 @@
         <v>65</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1734,50 +1779,53 @@
         <v>0</v>
       </c>
       <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="2" t="str">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="2" t="str">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="6"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1803,33 +1851,33 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="2" t="str">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q16">
@@ -1842,11 +1890,14 @@
         <v>60</v>
       </c>
       <c r="T16">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="6"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1872,33 +1923,33 @@
         <v>1</v>
       </c>
       <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J17" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="K17">
         <v>4</v>
       </c>
       <c r="L17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="M17" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="M17" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>20% of people have chosen this contestant</v>
       </c>
       <c r="N17">
         <v>3</v>
       </c>
       <c r="O17" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="P17" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.06</v>
-      </c>
-      <c r="P17" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q17">
@@ -1911,11 +1962,14 @@
         <v>70</v>
       </c>
       <c r="T17">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="6"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1941,33 +1995,33 @@
         <v>1</v>
       </c>
       <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J18" s="2" t="str">
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>2% of people have chosen this contestant</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q18">
@@ -1980,11 +2034,14 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2010,50 +2067,53 @@
         <v>1</v>
       </c>
       <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J19" s="2" t="str">
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>2% of people have chosen this contestant</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N19">
         <v>3</v>
       </c>
       <c r="O19" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="P19" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.06</v>
-      </c>
-      <c r="P19" s="2" t="str">
+        <v>6% of people have chosen this contestant</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="6"/>
-        <v>6% of people have chosen this contestant</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -2079,33 +2139,33 @@
         <v>0</v>
       </c>
       <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="2" t="str">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q20">
@@ -2118,11 +2178,14 @@
         <v>55</v>
       </c>
       <c r="T20">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="6"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2148,33 +2211,33 @@
         <v>1</v>
       </c>
       <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J21" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
       <c r="L21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="M21" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="M21" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>10% of people have chosen this contestant</v>
       </c>
       <c r="N21">
         <v>2</v>
       </c>
       <c r="O21" s="2">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="P21" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="P21" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q21">
@@ -2187,11 +2250,14 @@
         <v>15</v>
       </c>
       <c r="T21">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="6"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2217,33 +2283,33 @@
         <v>3</v>
       </c>
       <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J22" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="M22" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="M22" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>5% of people have chosen this contestant</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="P22" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-      <c r="P22" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q22">
@@ -2256,11 +2322,14 @@
         <v>80</v>
       </c>
       <c r="T22">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2286,33 +2355,33 @@
         <v>1</v>
       </c>
       <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J23" s="2" t="str">
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>2% of people have chosen this contestant</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q23">
@@ -2325,11 +2394,14 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2355,33 +2427,33 @@
         <v>1</v>
       </c>
       <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J24" s="2" t="str">
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>2% of people have chosen this contestant</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q24">
@@ -2394,11 +2466,14 @@
         <v>90</v>
       </c>
       <c r="T24">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="6"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2424,33 +2499,33 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="2" t="str">
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q25">
@@ -2463,11 +2538,14 @@
         <v>35</v>
       </c>
       <c r="T25">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="6"/>
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2493,33 +2571,33 @@
         <v>1</v>
       </c>
       <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J26" s="2" t="str">
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>2% of people have chosen this contestant</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N26">
         <v>2</v>
       </c>
       <c r="O26" s="2">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="P26" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="P26" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q26">
@@ -2532,11 +2610,14 @@
         <v>40</v>
       </c>
       <c r="T26">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2562,33 +2643,33 @@
         <v>2</v>
       </c>
       <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="J27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="J27" s="2" t="str">
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>4% of people have chosen this contestant</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N27">
         <v>3</v>
       </c>
       <c r="O27" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="P27" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.06</v>
-      </c>
-      <c r="P27" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q27">
@@ -2601,11 +2682,14 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2631,33 +2715,33 @@
         <v>0</v>
       </c>
       <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="2" t="str">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q28">
@@ -2670,11 +2754,14 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2700,33 +2787,33 @@
         <v>1</v>
       </c>
       <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J29" s="2" t="str">
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>2% of people have chosen this contestant</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q29">
@@ -2739,11 +2826,14 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2769,33 +2859,33 @@
         <v>4</v>
       </c>
       <c r="I30" s="2">
+        <f t="shared" si="0"/>
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="J30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="J30" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>9% of people have chosen this contestant</v>
       </c>
       <c r="K30">
         <v>2</v>
       </c>
       <c r="L30" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="M30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="M30" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>10% of people have chosen this contestant</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30" s="2">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="P30" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-      <c r="P30" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q30">
@@ -2808,11 +2898,14 @@
         <v>40</v>
       </c>
       <c r="T30">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2838,33 +2931,33 @@
         <v>0</v>
       </c>
       <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N31">
         <v>3</v>
       </c>
       <c r="O31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="P31" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.06</v>
-      </c>
-      <c r="P31" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q31">
@@ -2877,11 +2970,14 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2907,33 +3003,33 @@
         <v>2</v>
       </c>
       <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="J32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="J32" s="2" t="str">
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>4% of people have chosen this contestant</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N32">
         <v>3</v>
       </c>
       <c r="O32" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="P32" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.06</v>
-      </c>
-      <c r="P32" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q32">
@@ -2946,8 +3042,11 @@
         <v>65</v>
       </c>
       <c r="T32">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="6"/>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2957,22 +3056,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2992,25 +3089,28 @@
         <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -3019,10 +3119,10 @@
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E2">
@@ -3033,32 +3133,36 @@
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="G2" s="3">
-        <f>SUM(D2:F2)</f>
+      <c r="G2">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <f>SUM(D2:G2)</f>
         <v>85</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -3070,7 +3174,7 @@
         <v>Still In</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E3">
@@ -3081,32 +3185,36 @@
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G46" si="0">SUM(D3:F3)</f>
-        <v>120</v>
-      </c>
-      <c r="H3" t="str">
+      <c r="G3">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H46" si="0">SUM(D3:G3)</f>
+        <v>145</v>
+      </c>
+      <c r="I3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -3118,7 +3226,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E4">
@@ -3129,32 +3237,36 @@
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" t="str">
+      <c r="G4">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -3166,7 +3278,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E5">
@@ -3177,32 +3289,36 @@
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Product Manager</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3214,7 +3330,7 @@
         <v>Still In</v>
       </c>
       <c r="D6">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E6">
@@ -3225,32 +3341,36 @@
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H6" t="str">
+      <c r="G6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="I6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3262,7 +3382,7 @@
         <v>Still In</v>
       </c>
       <c r="D7">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E7">
@@ -3273,32 +3393,36 @@
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>110</v>
       </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="H7" t="str">
+      <c r="G7">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3310,7 +3434,7 @@
         <v>Still In</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E8">
@@ -3321,32 +3445,36 @@
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H8" t="str">
+      <c r="G8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3358,7 +3486,7 @@
         <v>Still In</v>
       </c>
       <c r="D9">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E9">
@@ -3369,32 +3497,36 @@
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>105</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="H9" t="str">
+      <c r="G9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="I9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3406,7 +3538,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D10">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E10">
@@ -3417,32 +3549,36 @@
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H10" t="str">
+      <c r="I10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3451,10 +3587,10 @@
       </c>
       <c r="C11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D11">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E11">
@@ -3465,32 +3601,36 @@
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="H11" t="str">
+      <c r="I11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3502,7 +3642,7 @@
         <v>Still In</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E12">
@@ -3513,32 +3653,36 @@
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="H12" t="str">
+      <c r="G12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="I12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Information Systems Supervisor</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3547,10 +3691,10 @@
       </c>
       <c r="C13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E13">
@@ -3561,32 +3705,36 @@
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="H13" t="str">
+      <c r="I13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3598,7 +3746,7 @@
         <v>Still In</v>
       </c>
       <c r="D14">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E14">
@@ -3609,32 +3757,36 @@
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="H14" t="str">
+      <c r="G14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3646,7 +3798,7 @@
         <v>Still In</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E15">
@@ -3657,32 +3809,36 @@
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H15" t="str">
+      <c r="G15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="I15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3694,7 +3850,7 @@
         <v>Still In</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E16">
@@ -3705,32 +3861,36 @@
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="H16" t="str">
+      <c r="G16">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3742,7 +3902,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E17">
@@ -3753,32 +3913,36 @@
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" t="str">
+      <c r="G17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3790,7 +3954,7 @@
         <v>Still In</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E18">
@@ -3801,32 +3965,36 @@
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="H18" t="str">
+      <c r="G18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3835,10 +4003,10 @@
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E19">
@@ -3849,32 +4017,36 @@
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -3886,7 +4058,7 @@
         <v>Still In</v>
       </c>
       <c r="D20">
-        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E20">
@@ -3897,32 +4069,36 @@
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>110</v>
       </c>
-      <c r="G20" s="3">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="H20" t="str">
+      <c r="G20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -3934,7 +4110,7 @@
         <v>Still In</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E21">
@@ -3945,32 +4121,36 @@
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="G21" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="H21" t="str">
+      <c r="G21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="I21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3982,7 +4162,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D22">
-        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E22">
@@ -3993,32 +4173,36 @@
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" t="str">
+      <c r="G22">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="J22" t="str">
+      <c r="K22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L22" t="str">
+      <c r="M22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4030,7 +4214,7 @@
         <v>Still In</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E23">
@@ -4041,32 +4225,36 @@
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="G23" s="3">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H23" t="str">
+      <c r="G23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="I23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L23" t="str">
+      <c r="M23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -4078,7 +4266,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E24">
@@ -4089,32 +4277,36 @@
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H24" t="str">
+      <c r="I24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="L24" t="str">
+      <c r="M24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -4126,7 +4318,7 @@
         <v>Still In</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E25">
@@ -4137,32 +4329,36 @@
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="G25" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H25" t="str">
+      <c r="G25">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L25" t="str">
+      <c r="M25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -4174,7 +4370,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E26">
@@ -4185,32 +4381,36 @@
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H26" t="str">
+      <c r="I26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J26" t="str">
+      <c r="K26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L26" t="str">
+      <c r="M26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -4222,7 +4422,7 @@
         <v>Still In</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E27">
@@ -4233,32 +4433,36 @@
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="G27" s="3">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H27" t="str">
+      <c r="G27">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="I27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="J27" t="str">
+      <c r="K27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L27" t="str">
+      <c r="M27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -4270,7 +4474,7 @@
         <v>Still In</v>
       </c>
       <c r="D28">
-        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E28">
@@ -4281,32 +4485,36 @@
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="G28" s="3">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="H28" t="str">
+      <c r="G28">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J28" t="str">
+      <c r="K28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L28" t="str">
+      <c r="M28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -4318,7 +4526,7 @@
         <v>Still In</v>
       </c>
       <c r="D29">
-        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E29">
@@ -4329,32 +4537,36 @@
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>105</v>
       </c>
-      <c r="G29" s="3">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="H29" t="str">
+      <c r="G29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="I29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="J29" t="str">
+      <c r="K29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="K29" t="str">
+      <c r="L29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L29" t="str">
+      <c r="M29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -4366,7 +4578,7 @@
         <v>Still In</v>
       </c>
       <c r="D30">
-        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E30">
@@ -4377,32 +4589,36 @@
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>55</v>
       </c>
-      <c r="G30" s="3">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="H30" t="str">
+      <c r="G30">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>165</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+      <c r="I30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J30" t="str">
+      <c r="K30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L30" t="str">
+      <c r="M30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -4414,7 +4630,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D31">
-        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E31">
@@ -4425,32 +4641,36 @@
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H31" t="str">
+      <c r="I31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J31" t="str">
+      <c r="K31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="L31" t="str">
+      <c r="M31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -4459,10 +4679,10 @@
       </c>
       <c r="C32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D32">
-        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E32">
@@ -4473,32 +4693,36 @@
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="H32" t="str">
+      <c r="I32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J32" t="str">
+      <c r="K32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L32" t="str">
+      <c r="M32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -4510,7 +4734,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D33">
-        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E33">
@@ -4521,32 +4745,36 @@
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H33" t="str">
+      <c r="I33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J33" t="str">
+      <c r="K33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="K33" t="str">
+      <c r="L33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="L33" t="str">
+      <c r="M33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -4558,7 +4786,7 @@
         <v>Still In</v>
       </c>
       <c r="D34">
-        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E34">
@@ -4569,32 +4797,36 @@
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="G34" s="3">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="H34" t="str">
+      <c r="G34">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J34" t="str">
+      <c r="K34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="K34" t="str">
+      <c r="L34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L34" t="str">
+      <c r="M34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -4606,7 +4838,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D35">
-        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E35">
@@ -4617,32 +4849,36 @@
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H35" t="str">
+      <c r="I35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="J35" t="str">
+      <c r="K35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Account Executive</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'9"</v>
       </c>
-      <c r="L35" t="str">
+      <c r="M35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -4654,7 +4890,7 @@
         <v>Still In</v>
       </c>
       <c r="D36">
-        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>40</v>
       </c>
       <c r="E36">
@@ -4665,32 +4901,36 @@
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="G36" s="3">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="H36" t="str">
+      <c r="G36">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="I36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J36" t="str">
+      <c r="K36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Singer/Songwriter</v>
       </c>
-      <c r="K36" t="str">
+      <c r="L36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L36" t="str">
+      <c r="M36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -4702,7 +4942,7 @@
         <v>Still In</v>
       </c>
       <c r="D37">
-        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E37">
@@ -4713,32 +4953,36 @@
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>110</v>
       </c>
-      <c r="G37" s="3">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="H37" t="str">
+      <c r="G37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J37" t="str">
+      <c r="K37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="K37" t="str">
+      <c r="L37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L37" t="str">
+      <c r="M37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -4750,7 +4994,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D38">
-        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E38">
@@ -4761,32 +5005,36 @@
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H38" t="str">
+      <c r="I38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J38" t="str">
+      <c r="K38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="L38" t="str">
+      <c r="M38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4795,10 +5043,10 @@
       </c>
       <c r="C39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D39">
-        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E39">
@@ -4809,32 +5057,36 @@
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="H39" t="str">
+      <c r="I39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J39" t="str">
+      <c r="K39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="K39" t="str">
+      <c r="L39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L39" t="str">
+      <c r="M39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -4846,7 +5098,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D40">
-        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E40">
@@ -4857,32 +5109,36 @@
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H40" t="str">
+      <c r="I40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J40" t="str">
+      <c r="K40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marketing Consultant</v>
       </c>
-      <c r="K40" t="str">
+      <c r="L40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L40" t="str">
+      <c r="M40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -4894,7 +5150,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D41">
-        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E41">
@@ -4905,32 +5161,36 @@
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H41" t="str">
+      <c r="I41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="K41" t="str">
+      <c r="L41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L41" t="str">
+      <c r="M41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -4942,7 +5202,7 @@
         <v>Still In</v>
       </c>
       <c r="D42">
-        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E42">
@@ -4953,32 +5213,36 @@
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="G42" s="3">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H42" t="str">
+      <c r="G42">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="I42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="J42" t="str">
+      <c r="K42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="K42" t="str">
+      <c r="L42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L42" t="str">
+      <c r="M42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -4990,7 +5254,7 @@
         <v>Still In</v>
       </c>
       <c r="D43">
-        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E43">
@@ -5001,32 +5265,36 @@
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>105</v>
       </c>
-      <c r="G43" s="3">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="H43" t="str">
+      <c r="G43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="I43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="J43" t="str">
+      <c r="K43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="K43" t="str">
+      <c r="L43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L43" t="str">
+      <c r="M43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -5038,7 +5306,7 @@
         <v>Still In</v>
       </c>
       <c r="D44">
-        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E44">
@@ -5049,32 +5317,36 @@
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="G44" s="3">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="H44" t="str">
+      <c r="G44">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="J44" t="str">
+      <c r="K44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="K44" t="str">
+      <c r="L44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L44" t="str">
+      <c r="M44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -5086,7 +5358,7 @@
         <v>Still In</v>
       </c>
       <c r="D45">
-        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E45">
@@ -5097,32 +5369,36 @@
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="G45" s="3">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="H45" t="str">
+      <c r="G45">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="J45" t="str">
+      <c r="K45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="K45" t="str">
+      <c r="L45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L45" t="str">
+      <c r="M45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -5134,7 +5410,7 @@
         <v>Still In</v>
       </c>
       <c r="D46">
-        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$T$32,17,FALSE)</f>
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E46">
@@ -5145,27 +5421,31 @@
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$S$32,19,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="G46" s="3">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="H46" t="str">
+      <c r="G46">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J46" t="str">
+      <c r="K46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="K46" t="str">
+      <c r="L46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L46" t="str">
+      <c r="M46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
@@ -5178,10 +5458,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5189,10 +5469,10 @@
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5212,25 +5492,28 @@
         <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -5254,31 +5537,35 @@
         <v>65</v>
       </c>
       <c r="G2">
-        <f>SUM(D2:F2)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(D2:G2)</f>
         <v>100</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Assistant</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -5287,7 +5574,7 @@
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -5302,31 +5589,35 @@
         <v>45</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G21" si="0">SUM(D3:F3)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H21" si="0">SUM(D3:G3)</f>
         <v>85</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -5350,31 +5641,35 @@
         <v>110</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="H4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -5398,31 +5693,35 @@
         <v>70</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="H5" t="str">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="I5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -5446,31 +5745,35 @@
         <v>70</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="H6" t="str">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="I6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -5494,31 +5797,35 @@
         <v>65</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="I7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5542,31 +5849,35 @@
         <v>0</v>
       </c>
       <c r="G8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5590,31 +5901,35 @@
         <v>15</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="H9" t="str">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -5638,31 +5953,35 @@
         <v>110</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="H10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -5686,31 +6005,35 @@
         <v>65</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="I11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -5734,31 +6057,35 @@
         <v>40</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="H12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -5782,31 +6109,35 @@
         <v>105</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="H13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="I13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -5830,31 +6161,35 @@
         <v>70</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="H14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="I14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -5878,31 +6213,35 @@
         <v>65</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="I15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -5926,31 +6265,35 @@
         <v>40</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="H16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -5974,31 +6317,35 @@
         <v>0</v>
       </c>
       <c r="G17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H17" t="str">
+      <c r="I17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -6022,31 +6369,35 @@
         <v>15</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="H18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -6070,31 +6421,35 @@
         <v>80</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="H19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -6118,31 +6473,35 @@
         <v>70</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="H20" t="str">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="I20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -6166,26 +6525,30 @@
         <v>0</v>
       </c>
       <c r="G21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H21" t="str">
+      <c r="I21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
@@ -6197,10 +6560,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6208,10 +6571,10 @@
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6231,25 +6594,28 @@
         <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6269,35 +6635,39 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUM(D2:F2)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(D2:G2)</f>
         <v>5</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -6317,35 +6687,39 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G56" si="0">SUM(D3:F3)</f>
-        <v>120</v>
-      </c>
-      <c r="H3" t="str">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H56" si="0">SUM(D3:G3)</f>
+        <v>145</v>
+      </c>
+      <c r="I3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -6365,35 +6739,39 @@
         <v>25</v>
       </c>
       <c r="F4">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>105</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="H4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="I4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6402,7 +6780,7 @@
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -6413,35 +6791,39 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>45</v>
       </c>
       <c r="G5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6461,35 +6843,39 @@
         <v>85</v>
       </c>
       <c r="F6">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H6" t="str">
+      <c r="I6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -6509,35 +6895,39 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -6557,35 +6947,39 @@
         <v>25</v>
       </c>
       <c r="F8">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>105</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="H8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="I8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -6605,35 +6999,39 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H9" t="str">
+      <c r="I9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -6653,35 +7051,39 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -6701,35 +7103,39 @@
         <v>15</v>
       </c>
       <c r="F11">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>80</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="H11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -6749,35 +7155,39 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>110</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="H12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -6797,35 +7207,39 @@
         <v>55</v>
       </c>
       <c r="F13">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>55</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="H13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>165</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+      <c r="I13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -6845,35 +7259,39 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -6893,35 +7311,39 @@
         <v>85</v>
       </c>
       <c r="F15">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H15" t="str">
+      <c r="I15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -6941,35 +7363,39 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="H16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="I16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Real Estate Agent</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -6989,35 +7415,39 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="I17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -7037,35 +7467,39 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -7085,35 +7519,39 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>40</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="H19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="I19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -7133,35 +7571,39 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H20" t="str">
+      <c r="I20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -7181,35 +7623,39 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -7229,35 +7675,39 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>110</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="H22" t="str">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J22" t="str">
+      <c r="K22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L22" t="str">
+      <c r="M22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -7277,35 +7727,39 @@
         <v>85</v>
       </c>
       <c r="F23">
-        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H23" t="str">
+      <c r="I23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="L23" t="str">
+      <c r="M23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -7325,35 +7779,39 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G24">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H24" t="str">
+      <c r="I24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Assistant</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L24" t="str">
+      <c r="M24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -7373,35 +7831,39 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" t="str">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="L25" t="str">
+      <c r="M25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -7421,35 +7883,39 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H26" t="str">
+      <c r="I26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J26" t="str">
+      <c r="K26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L26" t="str">
+      <c r="M26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -7469,35 +7935,39 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27" t="str">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="J27" t="str">
+      <c r="K27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L27" t="str">
+      <c r="M27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -7517,35 +7987,39 @@
         <v>10</v>
       </c>
       <c r="F28">
-        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H28" t="str">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="I28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="J28" t="str">
+      <c r="K28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L28" t="str">
+      <c r="M28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -7554,7 +8028,7 @@
       </c>
       <c r="C29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -7565,35 +8039,39 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>75</v>
       </c>
       <c r="G29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="H29" t="str">
+      <c r="I29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J29" t="str">
+      <c r="K29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Firefighter</v>
       </c>
-      <c r="K29" t="str">
+      <c r="L29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L29" t="str">
+      <c r="M29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -7613,35 +8091,39 @@
         <v>15</v>
       </c>
       <c r="F30">
-        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="H30" t="str">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="I30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="J30" t="str">
+      <c r="K30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L30" t="str">
+      <c r="M30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -7661,35 +8143,39 @@
         <v>10</v>
       </c>
       <c r="F31">
-        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H31" t="str">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="J31" t="str">
+      <c r="K31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L31" t="str">
+      <c r="M31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -7709,35 +8195,39 @@
         <v>55</v>
       </c>
       <c r="F32">
-        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="H32" t="str">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="J32" t="str">
+      <c r="K32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L32" t="str">
+      <c r="M32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -7757,35 +8247,39 @@
         <v>10</v>
       </c>
       <c r="F33">
-        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>40</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="H33" t="str">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="I33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="J33" t="str">
+      <c r="K33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="K33" t="str">
+      <c r="L33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L33" t="str">
+      <c r="M33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -7805,35 +8299,39 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H34" t="str">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="J34" t="str">
+      <c r="K34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="K34" t="str">
+      <c r="L34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L34" t="str">
+      <c r="M34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -7853,35 +8351,39 @@
         <v>85</v>
       </c>
       <c r="F35">
-        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H35" t="str">
+      <c r="I35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J35" t="str">
+      <c r="K35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="L35" t="str">
+      <c r="M35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -7901,35 +8403,39 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H36" t="str">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="J36" t="str">
+      <c r="K36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="K36" t="str">
+      <c r="L36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="L36" t="str">
+      <c r="M36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -7949,35 +8455,39 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H37" t="str">
+      <c r="I37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J37" t="str">
+      <c r="K37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="K37" t="str">
+      <c r="L37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L37" t="str">
+      <c r="M37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -7986,7 +8496,7 @@
       </c>
       <c r="C38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D38">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -7997,35 +8507,39 @@
         <v>10</v>
       </c>
       <c r="F38">
-        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>45</v>
       </c>
       <c r="G38">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="H38" t="str">
+      <c r="I38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J38" t="str">
+      <c r="K38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L38" t="str">
+      <c r="M38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -8045,35 +8559,39 @@
         <v>75</v>
       </c>
       <c r="F39">
-        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>40</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="H39" t="str">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J39" t="str">
+      <c r="K39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="K39" t="str">
+      <c r="L39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L39" t="str">
+      <c r="M39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -8093,35 +8611,39 @@
         <v>10</v>
       </c>
       <c r="F40">
-        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H40" t="str">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="I40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="J40" t="str">
+      <c r="K40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="K40" t="str">
+      <c r="L40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L40" t="str">
+      <c r="M40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -8141,35 +8663,39 @@
         <v>85</v>
       </c>
       <c r="F41">
-        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H41" t="str">
+      <c r="I41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="K41" t="str">
+      <c r="L41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="L41" t="str">
+      <c r="M41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -8189,35 +8715,39 @@
         <v>15</v>
       </c>
       <c r="F42">
-        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="H42" t="str">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="I42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="J42" t="str">
+      <c r="K42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="K42" t="str">
+      <c r="L42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L42" t="str">
+      <c r="M42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -8237,35 +8767,39 @@
         <v>85</v>
       </c>
       <c r="F43">
-        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H43" t="str">
+      <c r="I43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J43" t="str">
+      <c r="K43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="K43" t="str">
+      <c r="L43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="L43" t="str">
+      <c r="M43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -8285,35 +8819,39 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H44" t="str">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="J44" t="str">
+      <c r="K44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="K44" t="str">
+      <c r="L44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L44" t="str">
+      <c r="M44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -8333,35 +8871,39 @@
         <v>10</v>
       </c>
       <c r="F45">
-        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H45" t="str">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="I45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="J45" t="str">
+      <c r="K45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="K45" t="str">
+      <c r="L45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L45" t="str">
+      <c r="M45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -8381,35 +8923,39 @@
         <v>55</v>
       </c>
       <c r="F46">
-        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="H46" t="str">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="J46" t="str">
+      <c r="K46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="K46" t="str">
+      <c r="L46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L46" t="str">
+      <c r="M46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -8429,35 +8975,39 @@
         <v>55</v>
       </c>
       <c r="F47">
-        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>55</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="H47" t="str">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>165</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+      <c r="I47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J47" t="str">
+      <c r="K47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="K47" t="str">
+      <c r="L47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L47" t="str">
+      <c r="M47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -8477,35 +9027,39 @@
         <v>85</v>
       </c>
       <c r="F48">
-        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G48">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H48" t="str">
+      <c r="I48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J48" t="str">
+      <c r="K48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="K48" t="str">
+      <c r="L48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="L48" t="str">
+      <c r="M48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -8525,35 +9079,39 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G49">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H49" t="str">
+      <c r="I49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J49" t="str">
+      <c r="K49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="K49" t="str">
+      <c r="L49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L49" t="str">
+      <c r="M49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -8573,35 +9131,39 @@
         <v>15</v>
       </c>
       <c r="F50">
-        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>100</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="H50" t="str">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="I50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="J50" t="str">
+      <c r="K50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Information Systems Supervisor</v>
       </c>
-      <c r="K50" t="str">
+      <c r="L50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L50" t="str">
+      <c r="M50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -8621,35 +9183,39 @@
         <v>10</v>
       </c>
       <c r="F51">
-        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H51" t="str">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="J51" t="str">
+      <c r="K51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="K51" t="str">
+      <c r="L51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L51" t="str">
+      <c r="M51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>114</v>
       </c>
@@ -8669,35 +9235,39 @@
         <v>45</v>
       </c>
       <c r="F52">
-        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G52">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="H52" t="str">
+      <c r="I52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="J52" t="str">
+      <c r="K52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Aspiring Drummer</v>
       </c>
-      <c r="K52" t="str">
+      <c r="L52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="L52" t="str">
+      <c r="M52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -8717,35 +9287,39 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="I53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="J53" t="str">
+      <c r="K53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="K53" t="str">
+      <c r="L53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="L53" t="str">
+      <c r="M53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -8765,35 +9339,39 @@
         <v>85</v>
       </c>
       <c r="F54">
-        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G54">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H54" t="str">
+      <c r="I54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="J54" t="str">
+      <c r="K54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="K54" t="str">
+      <c r="L54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="L54" t="str">
+      <c r="M54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -8813,35 +9391,39 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G55">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H55" t="str">
+      <c r="I55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="J55" t="str">
+      <c r="K55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marketing Consultant</v>
       </c>
-      <c r="K55" t="str">
+      <c r="L55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="L55" t="str">
+      <c r="M55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -8861,30 +9443,34 @@
         <v>55</v>
       </c>
       <c r="F56">
-        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$T$32,19,FALSE)</f>
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="H56" t="str">
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="J56" t="str">
+      <c r="K56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="K56" t="str">
+      <c r="L56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="L56" t="str">
+      <c r="M56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>

--- a/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
+++ b/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
@@ -18,7 +18,7 @@
     <sheet name="edX League" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$U$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$V$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="122">
   <si>
     <t>Team</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
 </sst>
 </file>
@@ -730,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,10 +752,10 @@
     <col min="14" max="14" width="31.109375" customWidth="1"/>
     <col min="15" max="15" width="6.109375" customWidth="1"/>
     <col min="16" max="16" width="36.44140625" customWidth="1"/>
-    <col min="21" max="21" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -814,10 +817,13 @@
         <v>120</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -885,11 +891,14 @@
         <v>55</v>
       </c>
       <c r="U2">
-        <f>SUM(Q2:T2)</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="V2">
+        <f>SUM(Q2:U2)</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -957,11 +966,14 @@
         <v>20</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U32" si="6">SUM(Q3:T3)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V32" si="6">SUM(Q3:U3)</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1029,11 +1041,14 @@
         <v>20</v>
       </c>
       <c r="U4">
+        <v>35</v>
+      </c>
+      <c r="V4">
         <f t="shared" si="6"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1101,11 +1116,14 @@
         <v>0</v>
       </c>
       <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1173,11 +1191,14 @@
         <v>0</v>
       </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1245,11 +1266,14 @@
         <v>0</v>
       </c>
       <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1317,11 +1341,14 @@
         <v>60</v>
       </c>
       <c r="U8">
+        <v>85</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="6"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1389,11 +1416,14 @@
         <v>0</v>
       </c>
       <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1461,11 +1491,14 @@
         <v>165</v>
       </c>
       <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="6"/>
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1533,11 +1566,14 @@
         <v>0</v>
       </c>
       <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1605,11 +1641,14 @@
         <v>0</v>
       </c>
       <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1677,11 +1716,14 @@
         <v>35</v>
       </c>
       <c r="U13">
+        <v>45</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="6"/>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1749,11 +1791,14 @@
         <v>0</v>
       </c>
       <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1821,19 +1866,22 @@
         <v>0</v>
       </c>
       <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="D16">
         <v>30</v>
@@ -1893,19 +1941,22 @@
         <v>70</v>
       </c>
       <c r="U16">
+        <v>25</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="6"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="D17">
         <v>32</v>
@@ -1965,11 +2016,14 @@
         <v>25</v>
       </c>
       <c r="U17">
+        <v>35</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="6"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2037,11 +2091,14 @@
         <v>0</v>
       </c>
       <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2109,19 +2166,22 @@
         <v>0</v>
       </c>
       <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="D20">
         <v>31</v>
@@ -2181,11 +2241,14 @@
         <v>50</v>
       </c>
       <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="6"/>
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2253,11 +2316,14 @@
         <v>50</v>
       </c>
       <c r="U21">
+        <v>50</v>
+      </c>
+      <c r="V21">
         <f t="shared" si="6"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2325,11 +2391,14 @@
         <v>70</v>
       </c>
       <c r="U22">
+        <v>115</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="6"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2397,11 +2466,14 @@
         <v>0</v>
       </c>
       <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2469,11 +2541,14 @@
         <v>120</v>
       </c>
       <c r="U24">
+        <v>85</v>
+      </c>
+      <c r="V24">
         <f t="shared" si="6"/>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2541,11 +2616,14 @@
         <v>0</v>
       </c>
       <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
         <f t="shared" si="6"/>
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2613,11 +2691,14 @@
         <v>45</v>
       </c>
       <c r="U26">
+        <v>40</v>
+      </c>
+      <c r="V26">
         <f t="shared" si="6"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2685,11 +2766,14 @@
         <v>0</v>
       </c>
       <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2757,11 +2841,14 @@
         <v>0</v>
       </c>
       <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2829,11 +2916,14 @@
         <v>0</v>
       </c>
       <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2901,11 +2991,14 @@
         <v>65</v>
       </c>
       <c r="U30">
+        <v>50</v>
+      </c>
+      <c r="V30">
         <f t="shared" si="6"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2973,11 +3066,14 @@
         <v>0</v>
       </c>
       <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3045,8 +3141,11 @@
         <v>50</v>
       </c>
       <c r="U32">
+        <v>80</v>
+      </c>
+      <c r="V32">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3056,7 +3155,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3065,11 +3164,11 @@
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3092,25 +3191,28 @@
         <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -3122,7 +3224,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E2">
@@ -3137,32 +3239,36 @@
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="3">
-        <f>SUM(D2:G2)</f>
+      <c r="H2">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <f>SUM(D2:H2)</f>
         <v>85</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -3171,10 +3277,10 @@
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E3">
@@ -3189,32 +3295,36 @@
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H46" si="0">SUM(D3:G3)</f>
-        <v>145</v>
-      </c>
-      <c r="I3" t="str">
+      <c r="H3">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I46" si="0">SUM(D3:H3)</f>
+        <v>180</v>
+      </c>
+      <c r="J3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -3226,7 +3336,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E4">
@@ -3241,32 +3351,36 @@
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" t="str">
+      <c r="H4">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -3278,7 +3392,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E5">
@@ -3293,32 +3407,36 @@
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Product Manager</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3330,7 +3448,7 @@
         <v>Still In</v>
       </c>
       <c r="D6">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E6">
@@ -3345,32 +3463,36 @@
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="H6" s="3">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="I6" t="str">
+      <c r="H6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3382,7 +3504,7 @@
         <v>Still In</v>
       </c>
       <c r="D7">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E7">
@@ -3397,32 +3519,36 @@
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H7" s="3">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="I7" t="str">
+      <c r="H7">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3434,7 +3560,7 @@
         <v>Still In</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E8">
@@ -3449,32 +3575,36 @@
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="H8" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="I8" t="str">
+      <c r="H8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="J8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3486,7 +3616,7 @@
         <v>Still In</v>
       </c>
       <c r="D9">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E9">
@@ -3501,32 +3631,36 @@
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="I9" t="str">
+      <c r="H9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="J9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3538,7 +3672,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D10">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E10">
@@ -3553,32 +3687,36 @@
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3590,7 +3728,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D11">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E11">
@@ -3605,32 +3743,36 @@
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3642,7 +3784,7 @@
         <v>Still In</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E12">
@@ -3657,32 +3799,36 @@
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H12" s="3">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="I12" t="str">
+      <c r="H12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="J12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Information Systems Supervisor</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3694,7 +3840,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E13">
@@ -3709,32 +3855,36 @@
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3746,7 +3896,7 @@
         <v>Still In</v>
       </c>
       <c r="D14">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E14">
@@ -3761,32 +3911,36 @@
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="H14" s="3">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="I14" t="str">
+      <c r="H14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="J14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3798,7 +3952,7 @@
         <v>Still In</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E15">
@@ -3813,32 +3967,36 @@
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="H15" s="3">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="I15" t="str">
+      <c r="H15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3850,7 +4008,7 @@
         <v>Still In</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E16">
@@ -3865,32 +4023,36 @@
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="H16" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="I16" t="str">
+      <c r="H16">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>115</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="J16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3902,7 +4064,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E17">
@@ -3917,32 +4079,36 @@
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" t="str">
+      <c r="H17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3954,7 +4120,7 @@
         <v>Still In</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E18">
@@ -3969,32 +4135,36 @@
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="H18" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="I18" t="str">
+      <c r="H18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>115</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="J18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4006,7 +4176,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E19">
@@ -4021,32 +4191,36 @@
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -4058,7 +4232,7 @@
         <v>Still In</v>
       </c>
       <c r="D20">
-        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E20">
@@ -4073,32 +4247,36 @@
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H20" s="3">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="I20" t="str">
+      <c r="H20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -4110,7 +4288,7 @@
         <v>Still In</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E21">
@@ -4125,32 +4303,36 @@
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="H21" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="I21" t="str">
+      <c r="H21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4162,7 +4344,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D22">
-        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E22">
@@ -4177,32 +4359,36 @@
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" t="str">
+      <c r="H22">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="L22" t="str">
+      <c r="M22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M22" t="str">
+      <c r="N22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4214,7 +4400,7 @@
         <v>Still In</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E23">
@@ -4229,32 +4415,36 @@
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="H23" s="3">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="I23" t="str">
+      <c r="H23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="L23" t="str">
+      <c r="M23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M23" t="str">
+      <c r="N23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -4266,7 +4456,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E24">
@@ -4281,32 +4471,36 @@
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="L24" t="str">
+      <c r="M24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="M24" t="str">
+      <c r="N24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -4318,7 +4512,7 @@
         <v>Still In</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E25">
@@ -4333,32 +4527,36 @@
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="H25" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="I25" t="str">
+      <c r="H25">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="J25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="L25" t="str">
+      <c r="M25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M25" t="str">
+      <c r="N25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -4370,7 +4568,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E26">
@@ -4385,32 +4583,36 @@
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I26" t="str">
+      <c r="J26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="L26" t="str">
+      <c r="M26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M26" t="str">
+      <c r="N26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -4422,7 +4624,7 @@
         <v>Still In</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E27">
@@ -4437,32 +4639,36 @@
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="H27" s="3">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="I27" t="str">
+      <c r="H27">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="L27" t="str">
+      <c r="M27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M27" t="str">
+      <c r="N27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -4474,7 +4680,7 @@
         <v>Still In</v>
       </c>
       <c r="D28">
-        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E28">
@@ -4489,32 +4695,36 @@
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="H28" s="3">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="I28" t="str">
+      <c r="H28">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="J28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="L28" t="str">
+      <c r="M28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M28" t="str">
+      <c r="N28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -4526,7 +4736,7 @@
         <v>Still In</v>
       </c>
       <c r="D29">
-        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E29">
@@ -4541,32 +4751,36 @@
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="H29" s="3">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="I29" t="str">
+      <c r="H29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="J29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="K29" t="str">
+      <c r="L29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="L29" t="str">
+      <c r="M29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M29" t="str">
+      <c r="N29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -4578,7 +4792,7 @@
         <v>Still In</v>
       </c>
       <c r="D30">
-        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E30">
@@ -4593,32 +4807,36 @@
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>165</v>
       </c>
-      <c r="H30" s="3">
-        <f t="shared" si="0"/>
-        <v>305</v>
-      </c>
-      <c r="I30" t="str">
+      <c r="H30">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="J30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="L30" t="str">
+      <c r="M30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M30" t="str">
+      <c r="N30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -4630,7 +4848,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D31">
-        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E31">
@@ -4645,32 +4863,36 @@
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I31" t="str">
+      <c r="J31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="L31" t="str">
+      <c r="M31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="M31" t="str">
+      <c r="N31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -4682,7 +4904,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D32">
-        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E32">
@@ -4697,32 +4919,36 @@
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="I32" t="str">
+      <c r="J32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="L32" t="str">
+      <c r="M32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M32" t="str">
+      <c r="N32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -4734,7 +4960,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D33">
-        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E33">
@@ -4749,32 +4975,36 @@
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I33" t="str">
+      <c r="J33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K33" t="str">
+      <c r="L33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="L33" t="str">
+      <c r="M33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="M33" t="str">
+      <c r="N33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -4786,7 +5016,7 @@
         <v>Still In</v>
       </c>
       <c r="D34">
-        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E34">
@@ -4801,32 +5031,36 @@
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="H34" s="3">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="I34" t="str">
+      <c r="H34">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="J34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K34" t="str">
+      <c r="L34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="L34" t="str">
+      <c r="M34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M34" t="str">
+      <c r="N34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -4838,7 +5072,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D35">
-        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E35">
@@ -4853,32 +5087,36 @@
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I35" t="str">
+      <c r="J35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Account Executive</v>
       </c>
-      <c r="L35" t="str">
+      <c r="M35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'9"</v>
       </c>
-      <c r="M35" t="str">
+      <c r="N35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -4890,7 +5128,7 @@
         <v>Still In</v>
       </c>
       <c r="D36">
-        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>40</v>
       </c>
       <c r="E36">
@@ -4905,32 +5143,36 @@
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>120</v>
       </c>
-      <c r="H36" s="3">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="I36" t="str">
+      <c r="H36">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="J36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K36" t="str">
+      <c r="L36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Singer/Songwriter</v>
       </c>
-      <c r="L36" t="str">
+      <c r="M36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M36" t="str">
+      <c r="N36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -4942,7 +5184,7 @@
         <v>Still In</v>
       </c>
       <c r="D37">
-        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E37">
@@ -4957,32 +5199,36 @@
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H37" s="3">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="I37" t="str">
+      <c r="H37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K37" t="str">
+      <c r="L37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="L37" t="str">
+      <c r="M37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M37" t="str">
+      <c r="N37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -4994,7 +5240,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D38">
-        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E38">
@@ -5009,32 +5255,36 @@
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I38" t="str">
+      <c r="J38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="L38" t="str">
+      <c r="M38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="M38" t="str">
+      <c r="N38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -5046,7 +5296,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D39">
-        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E39">
@@ -5061,32 +5311,36 @@
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="I39" t="str">
+      <c r="J39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K39" t="str">
+      <c r="L39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="L39" t="str">
+      <c r="M39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M39" t="str">
+      <c r="N39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -5098,7 +5352,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D40">
-        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E40">
@@ -5113,32 +5367,36 @@
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I40" t="str">
+      <c r="J40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K40" t="str">
+      <c r="L40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marketing Consultant</v>
       </c>
-      <c r="L40" t="str">
+      <c r="M40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M40" t="str">
+      <c r="N40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -5150,7 +5408,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D41">
-        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E41">
@@ -5165,32 +5423,36 @@
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I41" t="str">
+      <c r="J41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K41" t="str">
+      <c r="L41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="L41" t="str">
+      <c r="M41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M41" t="str">
+      <c r="N41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -5202,7 +5464,7 @@
         <v>Still In</v>
       </c>
       <c r="D42">
-        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E42">
@@ -5217,32 +5479,36 @@
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="H42" s="3">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="I42" t="str">
+      <c r="H42">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="K42" t="str">
+      <c r="L42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="L42" t="str">
+      <c r="M42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M42" t="str">
+      <c r="N42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -5254,7 +5520,7 @@
         <v>Still In</v>
       </c>
       <c r="D43">
-        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E43">
@@ -5269,32 +5535,36 @@
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="H43" s="3">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="I43" t="str">
+      <c r="H43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="J43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="K43" t="str">
+      <c r="L43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="L43" t="str">
+      <c r="M43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M43" t="str">
+      <c r="N43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -5306,7 +5576,7 @@
         <v>Still In</v>
       </c>
       <c r="D44">
-        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E44">
@@ -5321,32 +5591,36 @@
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="H44" s="3">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="I44" t="str">
+      <c r="H44">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="J44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="K44" t="str">
+      <c r="L44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="L44" t="str">
+      <c r="M44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M44" t="str">
+      <c r="N44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -5358,7 +5632,7 @@
         <v>Still In</v>
       </c>
       <c r="D45">
-        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E45">
@@ -5373,32 +5647,36 @@
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="H45" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="I45" t="str">
+      <c r="H45">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>115</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="J45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="K45" t="str">
+      <c r="L45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="L45" t="str">
+      <c r="M45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M45" t="str">
+      <c r="N45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -5410,7 +5688,7 @@
         <v>Still In</v>
       </c>
       <c r="D46">
-        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$U$32,17,FALSE)</f>
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E46">
@@ -5425,27 +5703,31 @@
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$T$32,20,FALSE)</f>
         <v>65</v>
       </c>
-      <c r="H46" s="3">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="I46" t="str">
+      <c r="H46">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="J46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K46" t="str">
+      <c r="L46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="L46" t="str">
+      <c r="M46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M46" t="str">
+      <c r="N46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
@@ -5458,10 +5740,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I2" sqref="I2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5469,10 +5751,10 @@
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5495,25 +5777,28 @@
         <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -5541,31 +5826,35 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUM(D2:G2)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>SUM(D2:H2)</f>
         <v>100</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Assistant</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -5593,31 +5882,35 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H21" si="0">SUM(D3:G3)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I21" si="0">SUM(D3:H3)</f>
         <v>85</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -5645,31 +5938,35 @@
         <v>20</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="I4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -5678,7 +5975,7 @@
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -5697,31 +5994,35 @@
         <v>25</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="I5" t="str">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="J5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -5730,7 +6031,7 @@
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -5749,31 +6050,35 @@
         <v>25</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="I6" t="str">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="J6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -5801,31 +6106,35 @@
         <v>60</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="I7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5853,31 +6162,35 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5905,31 +6218,35 @@
         <v>50</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="I9" t="str">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="J9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -5957,31 +6274,35 @@
         <v>20</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="I10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -6009,31 +6330,35 @@
         <v>60</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="I11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -6061,31 +6386,35 @@
         <v>65</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="I12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="J12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -6113,31 +6442,35 @@
         <v>35</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="I13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="J13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -6146,7 +6479,7 @@
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -6165,31 +6498,35 @@
         <v>25</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="I14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="J14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -6217,31 +6554,35 @@
         <v>60</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="I15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -6269,31 +6610,35 @@
         <v>65</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="I16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="J16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -6321,31 +6666,35 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -6373,31 +6722,35 @@
         <v>50</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="I18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="J18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -6425,31 +6778,35 @@
         <v>70</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="I19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>115</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="J19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -6458,7 +6815,7 @@
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -6477,31 +6834,35 @@
         <v>25</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="I20" t="str">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="J20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -6529,26 +6890,30 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
@@ -6560,7 +6925,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6571,10 +6936,10 @@
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6597,25 +6962,28 @@
         <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6635,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G2">
@@ -6643,31 +7011,35 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUM(D2:G2)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>SUM(D2:H2)</f>
         <v>5</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -6676,7 +7048,7 @@
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -6687,7 +7059,7 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G3">
@@ -6695,31 +7067,35 @@
         <v>25</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H56" si="0">SUM(D3:G3)</f>
-        <v>145</v>
-      </c>
-      <c r="I3" t="str">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I56" si="0">SUM(D3:H3)</f>
+        <v>180</v>
+      </c>
+      <c r="J3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -6739,7 +7115,7 @@
         <v>25</v>
       </c>
       <c r="F4">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>105</v>
       </c>
       <c r="G4">
@@ -6747,31 +7123,35 @@
         <v>35</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="I4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="J4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6791,7 +7171,7 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>45</v>
       </c>
       <c r="G5">
@@ -6799,31 +7179,35 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6843,7 +7227,7 @@
         <v>85</v>
       </c>
       <c r="F6">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G6">
@@ -6851,31 +7235,35 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -6895,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G7">
@@ -6903,31 +7291,35 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -6947,7 +7339,7 @@
         <v>25</v>
       </c>
       <c r="F8">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>105</v>
       </c>
       <c r="G8">
@@ -6955,31 +7347,35 @@
         <v>35</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="I8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="J8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -6999,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G9">
@@ -7007,31 +7403,35 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -7051,7 +7451,7 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G10">
@@ -7059,31 +7459,35 @@
         <v>50</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="I10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="J10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -7103,7 +7507,7 @@
         <v>15</v>
       </c>
       <c r="F11">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>80</v>
       </c>
       <c r="G11">
@@ -7111,31 +7515,35 @@
         <v>70</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="I11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>115</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="J11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -7155,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>110</v>
       </c>
       <c r="G12">
@@ -7163,31 +7571,35 @@
         <v>20</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="I12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -7207,7 +7619,7 @@
         <v>55</v>
       </c>
       <c r="F13">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>55</v>
       </c>
       <c r="G13">
@@ -7215,31 +7627,35 @@
         <v>165</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>305</v>
-      </c>
-      <c r="I13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="J13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -7259,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G14">
@@ -7267,31 +7683,35 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -7311,7 +7731,7 @@
         <v>85</v>
       </c>
       <c r="F15">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G15">
@@ -7319,31 +7739,35 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -7363,7 +7787,7 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G16">
@@ -7371,31 +7795,35 @@
         <v>55</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="I16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="J16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Real Estate Agent</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -7415,7 +7843,7 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G17">
@@ -7423,31 +7851,35 @@
         <v>60</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="I17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -7467,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G18">
@@ -7475,31 +7907,35 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -7519,7 +7955,7 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>40</v>
       </c>
       <c r="G19">
@@ -7527,31 +7963,35 @@
         <v>45</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="I19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -7571,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G20">
@@ -7579,31 +8019,35 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -7623,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G21">
@@ -7631,31 +8075,35 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -7675,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>110</v>
       </c>
       <c r="G22">
@@ -7683,31 +8131,35 @@
         <v>20</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="I22" t="str">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="L22" t="str">
+      <c r="M22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M22" t="str">
+      <c r="N22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -7727,7 +8179,7 @@
         <v>85</v>
       </c>
       <c r="F23">
-        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G23">
@@ -7735,31 +8187,35 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="L23" t="str">
+      <c r="M23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="M23" t="str">
+      <c r="N23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -7779,7 +8235,7 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G24">
@@ -7787,31 +8243,35 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Assistant</v>
       </c>
-      <c r="L24" t="str">
+      <c r="M24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M24" t="str">
+      <c r="N24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -7831,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G25">
@@ -7839,31 +8299,35 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" t="str">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="L25" t="str">
+      <c r="M25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="M25" t="str">
+      <c r="N25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -7883,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G26">
@@ -7891,31 +8355,35 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I26" t="str">
+      <c r="J26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="L26" t="str">
+      <c r="M26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M26" t="str">
+      <c r="N26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -7935,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G27">
@@ -7943,31 +8411,35 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" t="str">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="L27" t="str">
+      <c r="M27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M27" t="str">
+      <c r="N27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -7987,7 +8459,7 @@
         <v>10</v>
       </c>
       <c r="F28">
-        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G28">
@@ -7995,31 +8467,35 @@
         <v>60</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="I28" t="str">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="L28" t="str">
+      <c r="M28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M28" t="str">
+      <c r="N28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -8039,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>75</v>
       </c>
       <c r="G29">
@@ -8047,31 +8523,35 @@
         <v>0</v>
       </c>
       <c r="H29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="I29" t="str">
+      <c r="J29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K29" t="str">
+      <c r="L29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Firefighter</v>
       </c>
-      <c r="L29" t="str">
+      <c r="M29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M29" t="str">
+      <c r="N29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -8080,7 +8560,7 @@
       </c>
       <c r="C30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -8091,7 +8571,7 @@
         <v>15</v>
       </c>
       <c r="F30">
-        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G30">
@@ -8099,31 +8579,35 @@
         <v>25</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="I30" t="str">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="J30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="L30" t="str">
+      <c r="M30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M30" t="str">
+      <c r="N30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -8143,7 +8627,7 @@
         <v>10</v>
       </c>
       <c r="F31">
-        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G31">
@@ -8151,31 +8635,35 @@
         <v>50</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="I31" t="str">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="J31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="L31" t="str">
+      <c r="M31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M31" t="str">
+      <c r="N31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -8195,7 +8683,7 @@
         <v>55</v>
       </c>
       <c r="F32">
-        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G32">
@@ -8203,31 +8691,35 @@
         <v>50</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="I32" t="str">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="J32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="L32" t="str">
+      <c r="M32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M32" t="str">
+      <c r="N32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -8247,7 +8739,7 @@
         <v>10</v>
       </c>
       <c r="F33">
-        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>40</v>
       </c>
       <c r="G33">
@@ -8255,31 +8747,35 @@
         <v>45</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="I33" t="str">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="K33" t="str">
+      <c r="L33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="L33" t="str">
+      <c r="M33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M33" t="str">
+      <c r="N33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -8299,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G34">
@@ -8307,31 +8803,35 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" t="str">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="K34" t="str">
+      <c r="L34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="L34" t="str">
+      <c r="M34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M34" t="str">
+      <c r="N34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -8351,7 +8851,7 @@
         <v>85</v>
       </c>
       <c r="F35">
-        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G35">
@@ -8359,31 +8859,35 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I35" t="str">
+      <c r="J35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="L35" t="str">
+      <c r="M35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="M35" t="str">
+      <c r="N35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -8403,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G36">
@@ -8411,31 +8915,35 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" t="str">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="K36" t="str">
+      <c r="L36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="L36" t="str">
+      <c r="M36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="M36" t="str">
+      <c r="N36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -8455,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G37">
@@ -8463,31 +8971,35 @@
         <v>0</v>
       </c>
       <c r="H37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I37" t="str">
+      <c r="J37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K37" t="str">
+      <c r="L37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="L37" t="str">
+      <c r="M37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M37" t="str">
+      <c r="N37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -8507,7 +9019,7 @@
         <v>10</v>
       </c>
       <c r="F38">
-        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>45</v>
       </c>
       <c r="G38">
@@ -8515,31 +9027,35 @@
         <v>0</v>
       </c>
       <c r="H38">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="I38" t="str">
+      <c r="J38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="L38" t="str">
+      <c r="M38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M38" t="str">
+      <c r="N38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -8559,7 +9075,7 @@
         <v>75</v>
       </c>
       <c r="F39">
-        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>40</v>
       </c>
       <c r="G39">
@@ -8567,31 +9083,35 @@
         <v>65</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="I39" t="str">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="J39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K39" t="str">
+      <c r="L39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="L39" t="str">
+      <c r="M39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M39" t="str">
+      <c r="N39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -8611,7 +9131,7 @@
         <v>10</v>
       </c>
       <c r="F40">
-        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G40">
@@ -8619,31 +9139,35 @@
         <v>60</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="I40" t="str">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="K40" t="str">
+      <c r="L40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="L40" t="str">
+      <c r="M40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M40" t="str">
+      <c r="N40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -8663,7 +9187,7 @@
         <v>85</v>
       </c>
       <c r="F41">
-        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G41">
@@ -8671,31 +9195,35 @@
         <v>0</v>
       </c>
       <c r="H41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I41" t="str">
+      <c r="J41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K41" t="str">
+      <c r="L41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="L41" t="str">
+      <c r="M41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="M41" t="str">
+      <c r="N41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -8704,7 +9232,7 @@
       </c>
       <c r="C42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -8715,7 +9243,7 @@
         <v>15</v>
       </c>
       <c r="F42">
-        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G42">
@@ -8723,31 +9251,35 @@
         <v>25</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="I42" t="str">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="J42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="K42" t="str">
+      <c r="L42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="L42" t="str">
+      <c r="M42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M42" t="str">
+      <c r="N42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -8767,7 +9299,7 @@
         <v>85</v>
       </c>
       <c r="F43">
-        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G43">
@@ -8775,31 +9307,35 @@
         <v>0</v>
       </c>
       <c r="H43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I43" t="str">
+      <c r="J43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K43" t="str">
+      <c r="L43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="L43" t="str">
+      <c r="M43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="M43" t="str">
+      <c r="N43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -8819,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G44">
@@ -8827,31 +9363,35 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" t="str">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="K44" t="str">
+      <c r="L44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="L44" t="str">
+      <c r="M44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M44" t="str">
+      <c r="N44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -8871,7 +9411,7 @@
         <v>10</v>
       </c>
       <c r="F45">
-        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G45">
@@ -8879,31 +9419,35 @@
         <v>60</v>
       </c>
       <c r="H45">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="I45" t="str">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="K45" t="str">
+      <c r="L45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="L45" t="str">
+      <c r="M45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M45" t="str">
+      <c r="N45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -8923,7 +9467,7 @@
         <v>55</v>
       </c>
       <c r="F46">
-        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G46">
@@ -8931,31 +9475,35 @@
         <v>50</v>
       </c>
       <c r="H46">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="I46" t="str">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="J46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="K46" t="str">
+      <c r="L46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="L46" t="str">
+      <c r="M46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M46" t="str">
+      <c r="N46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -8975,7 +9523,7 @@
         <v>55</v>
       </c>
       <c r="F47">
-        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>55</v>
       </c>
       <c r="G47">
@@ -8983,31 +9531,35 @@
         <v>165</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
-        <v>305</v>
-      </c>
-      <c r="I47" t="str">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="J47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K47" t="str">
+      <c r="L47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="L47" t="str">
+      <c r="M47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M47" t="str">
+      <c r="N47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -9027,7 +9579,7 @@
         <v>85</v>
       </c>
       <c r="F48">
-        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G48">
@@ -9035,31 +9587,35 @@
         <v>0</v>
       </c>
       <c r="H48">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I48" t="str">
+      <c r="J48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K48" t="str">
+      <c r="L48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="L48" t="str">
+      <c r="M48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="M48" t="str">
+      <c r="N48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -9079,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G49">
@@ -9087,31 +9643,35 @@
         <v>0</v>
       </c>
       <c r="H49">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I49" t="str">
+      <c r="J49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K49" t="str">
+      <c r="L49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="L49" t="str">
+      <c r="M49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M49" t="str">
+      <c r="N49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -9131,7 +9691,7 @@
         <v>15</v>
       </c>
       <c r="F50">
-        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>100</v>
       </c>
       <c r="G50">
@@ -9139,31 +9699,35 @@
         <v>20</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="I50" t="str">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="J50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="K50" t="str">
+      <c r="L50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Information Systems Supervisor</v>
       </c>
-      <c r="L50" t="str">
+      <c r="M50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M50" t="str">
+      <c r="N50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -9183,7 +9747,7 @@
         <v>10</v>
       </c>
       <c r="F51">
-        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G51">
@@ -9191,31 +9755,35 @@
         <v>50</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="I51" t="str">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="J51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="K51" t="str">
+      <c r="L51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="L51" t="str">
+      <c r="M51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M51" t="str">
+      <c r="N51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>114</v>
       </c>
@@ -9235,7 +9803,7 @@
         <v>45</v>
       </c>
       <c r="F52">
-        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G52">
@@ -9243,31 +9811,35 @@
         <v>0</v>
       </c>
       <c r="H52">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="I52" t="str">
+      <c r="J52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="K52" t="str">
+      <c r="L52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Aspiring Drummer</v>
       </c>
-      <c r="L52" t="str">
+      <c r="M52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="M52" t="str">
+      <c r="N52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -9287,7 +9859,7 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G53">
@@ -9295,31 +9867,35 @@
         <v>60</v>
       </c>
       <c r="H53">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="I53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="K53" t="str">
+      <c r="L53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="L53" t="str">
+      <c r="M53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="M53" t="str">
+      <c r="N53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -9339,7 +9915,7 @@
         <v>85</v>
       </c>
       <c r="F54">
-        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G54">
@@ -9347,31 +9923,35 @@
         <v>0</v>
       </c>
       <c r="H54">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I54" t="str">
+      <c r="J54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K54" t="str">
+      <c r="L54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="L54" t="str">
+      <c r="M54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="M54" t="str">
+      <c r="N54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -9391,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G55">
@@ -9399,31 +9979,35 @@
         <v>0</v>
       </c>
       <c r="H55">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I55" t="str">
+      <c r="J55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="K55" t="str">
+      <c r="L55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marketing Consultant</v>
       </c>
-      <c r="L55" t="str">
+      <c r="M55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="M55" t="str">
+      <c r="N55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -9443,7 +10027,7 @@
         <v>55</v>
       </c>
       <c r="F56">
-        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$U$32,19,FALSE)</f>
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G56">
@@ -9451,26 +10035,30 @@
         <v>50</v>
       </c>
       <c r="H56">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="I56" t="str">
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="J56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="K56" t="str">
+      <c r="L56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="L56" t="str">
+      <c r="M56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="M56" t="str">
+      <c r="N56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>

--- a/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
+++ b/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Contestant Points" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="edX League" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$V$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$W$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="123">
   <si>
     <t>Team</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
 </sst>
 </file>
@@ -733,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,10 +755,10 @@
     <col min="14" max="14" width="31.109375" customWidth="1"/>
     <col min="15" max="15" width="6.109375" customWidth="1"/>
     <col min="16" max="16" width="36.44140625" customWidth="1"/>
-    <col min="22" max="22" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -820,10 +823,13 @@
         <v>121</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -894,19 +900,22 @@
         <v>35</v>
       </c>
       <c r="V2">
-        <f>SUM(Q2:U2)</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="W2">
+        <f>SUM(Q2:V2)</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="D3">
         <v>28</v>
@@ -969,19 +978,22 @@
         <v>45</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V32" si="6">SUM(Q3:U3)</f>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W32" si="6">SUM(Q3:V3)</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="D4">
         <v>26</v>
@@ -1044,11 +1056,14 @@
         <v>35</v>
       </c>
       <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <f t="shared" si="6"/>
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1119,11 +1134,14 @@
         <v>0</v>
       </c>
       <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1194,11 +1212,14 @@
         <v>0</v>
       </c>
       <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1269,11 +1290,14 @@
         <v>0</v>
       </c>
       <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1341,14 +1365,17 @@
         <v>60</v>
       </c>
       <c r="U8">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="V8">
+        <v>70</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="6"/>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1419,11 +1446,14 @@
         <v>0</v>
       </c>
       <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1494,11 +1524,14 @@
         <v>10</v>
       </c>
       <c r="V10">
+        <v>75</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="6"/>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1569,11 +1602,14 @@
         <v>0</v>
       </c>
       <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1644,11 +1680,14 @@
         <v>0</v>
       </c>
       <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1719,11 +1758,14 @@
         <v>45</v>
       </c>
       <c r="V13">
+        <v>95</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1794,11 +1836,14 @@
         <v>0</v>
       </c>
       <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1869,11 +1914,14 @@
         <v>0</v>
       </c>
       <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1944,11 +1992,14 @@
         <v>25</v>
       </c>
       <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2019,11 +2070,14 @@
         <v>35</v>
       </c>
       <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
         <f t="shared" si="6"/>
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2094,11 +2148,14 @@
         <v>0</v>
       </c>
       <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2169,11 +2226,14 @@
         <v>0</v>
       </c>
       <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -2244,19 +2304,22 @@
         <v>0</v>
       </c>
       <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
         <f t="shared" si="6"/>
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="D21">
         <v>28</v>
@@ -2319,19 +2382,22 @@
         <v>50</v>
       </c>
       <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
         <f t="shared" si="6"/>
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="D22">
         <v>35</v>
@@ -2394,11 +2460,14 @@
         <v>115</v>
       </c>
       <c r="V22">
+        <v>135</v>
+      </c>
+      <c r="W22">
         <f t="shared" si="6"/>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2469,19 +2538,22 @@
         <v>0</v>
       </c>
       <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="D24">
         <v>30</v>
@@ -2544,11 +2616,14 @@
         <v>85</v>
       </c>
       <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
         <f t="shared" si="6"/>
         <v>345</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2619,11 +2694,14 @@
         <v>0</v>
       </c>
       <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
         <f t="shared" si="6"/>
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2694,11 +2772,14 @@
         <v>40</v>
       </c>
       <c r="V26">
+        <v>75</v>
+      </c>
+      <c r="W26">
         <f t="shared" si="6"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2769,11 +2850,14 @@
         <v>0</v>
       </c>
       <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2844,11 +2928,14 @@
         <v>0</v>
       </c>
       <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2919,11 +3006,14 @@
         <v>0</v>
       </c>
       <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2994,11 +3084,14 @@
         <v>50</v>
       </c>
       <c r="V30">
+        <v>95</v>
+      </c>
+      <c r="W30">
         <f t="shared" si="6"/>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3069,19 +3162,22 @@
         <v>0</v>
       </c>
       <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="D32">
         <v>28</v>
@@ -3144,8 +3240,11 @@
         <v>80</v>
       </c>
       <c r="V32">
+        <v>35</v>
+      </c>
+      <c r="W32">
         <f t="shared" si="6"/>
-        <v>230</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3155,20 +3254,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3194,25 +3295,28 @@
         <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -3224,7 +3328,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E2">
@@ -3243,32 +3347,36 @@
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="3">
-        <f>SUM(D2:H2)</f>
+      <c r="I2">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <f>SUM(D2:I2)</f>
         <v>85</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -3280,7 +3388,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E3">
@@ -3299,32 +3407,36 @@
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I46" si="0">SUM(D3:H3)</f>
+      <c r="I3">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J46" si="0">SUM(D3:I3)</f>
         <v>180</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -3336,7 +3448,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E4">
@@ -3355,32 +3467,36 @@
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" t="str">
+      <c r="I4">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -3392,7 +3508,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E5">
@@ -3411,32 +3527,36 @@
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Product Manager</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3448,7 +3568,7 @@
         <v>Still In</v>
       </c>
       <c r="D6">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E6">
@@ -3465,34 +3585,38 @@
       </c>
       <c r="H6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="J6" t="str">
+        <v>110</v>
+      </c>
+      <c r="I6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="K6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3501,10 +3625,10 @@
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D7">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E7">
@@ -3523,32 +3647,36 @@
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3557,10 +3685,10 @@
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E8">
@@ -3579,32 +3707,36 @@
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="J8" t="str">
+      <c r="I8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="K8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3616,7 +3748,7 @@
         <v>Still In</v>
       </c>
       <c r="D9">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E9">
@@ -3635,32 +3767,36 @@
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="J9" t="str">
+      <c r="I9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="K9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3672,7 +3808,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D10">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E10">
@@ -3691,32 +3827,36 @@
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3728,7 +3868,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D11">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E11">
@@ -3747,32 +3887,36 @@
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3781,10 +3925,10 @@
       </c>
       <c r="C12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E12">
@@ -3803,32 +3947,36 @@
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="I12" s="3">
-        <f t="shared" si="0"/>
-        <v>215</v>
-      </c>
-      <c r="J12" t="str">
+      <c r="I12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="K12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Information Systems Supervisor</v>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3840,7 +3988,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E13">
@@ -3859,32 +4007,36 @@
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3896,7 +4048,7 @@
         <v>Still In</v>
       </c>
       <c r="D14">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E14">
@@ -3915,32 +4067,36 @@
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="J14" t="str">
+      <c r="I14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="K14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3952,7 +4108,7 @@
         <v>Still In</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E15">
@@ -3969,34 +4125,38 @@
       </c>
       <c r="H15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="J15" t="str">
+        <v>110</v>
+      </c>
+      <c r="I15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="K15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -4005,10 +4165,10 @@
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E16">
@@ -4027,32 +4187,36 @@
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>115</v>
       </c>
-      <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="J16" t="str">
+      <c r="I16">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="K16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4064,7 +4228,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E17">
@@ -4083,32 +4247,36 @@
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" t="str">
+      <c r="I17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4117,10 +4285,10 @@
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E18">
@@ -4139,32 +4307,36 @@
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>115</v>
       </c>
-      <c r="I18" s="3">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="J18" t="str">
+      <c r="I18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="K18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4176,7 +4348,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E19">
@@ -4195,32 +4367,36 @@
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -4229,10 +4405,10 @@
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D20">
-        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E20">
@@ -4251,32 +4427,36 @@
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -4288,7 +4468,7 @@
         <v>Still In</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E21">
@@ -4307,32 +4487,36 @@
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="I21" s="3">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="J21" t="str">
+      <c r="I21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="K21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4344,7 +4528,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D22">
-        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E22">
@@ -4363,32 +4547,36 @@
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" t="str">
+      <c r="I22">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="L22" t="str">
+      <c r="M22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="M22" t="str">
+      <c r="N22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N22" t="str">
+      <c r="O22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4400,7 +4588,7 @@
         <v>Still In</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E23">
@@ -4417,34 +4605,38 @@
       </c>
       <c r="H23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="I23" s="3">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="J23" t="str">
+        <v>110</v>
+      </c>
+      <c r="I23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="K23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L23" t="str">
+      <c r="M23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="M23" t="str">
+      <c r="N23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N23" t="str">
+      <c r="O23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -4456,7 +4648,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E24">
@@ -4475,32 +4667,36 @@
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L24" t="str">
+      <c r="M24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="M24" t="str">
+      <c r="N24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="N24" t="str">
+      <c r="O24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -4509,10 +4705,10 @@
       </c>
       <c r="C25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E25">
@@ -4531,32 +4727,36 @@
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="I25" s="3">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="J25" t="str">
+      <c r="I25">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="K25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L25" t="str">
+      <c r="M25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="M25" t="str">
+      <c r="N25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N25" t="str">
+      <c r="O25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -4568,7 +4768,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E26">
@@ -4587,32 +4787,36 @@
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J26" t="str">
+      <c r="K26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L26" t="str">
+      <c r="M26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="M26" t="str">
+      <c r="N26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N26" t="str">
+      <c r="O26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -4624,7 +4828,7 @@
         <v>Still In</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E27">
@@ -4641,34 +4845,38 @@
       </c>
       <c r="H27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="I27" s="3">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="J27" t="str">
+        <v>110</v>
+      </c>
+      <c r="I27">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="K27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L27" t="str">
+      <c r="M27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="M27" t="str">
+      <c r="N27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N27" t="str">
+      <c r="O27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -4680,7 +4888,7 @@
         <v>Still In</v>
       </c>
       <c r="D28">
-        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E28">
@@ -4699,32 +4907,36 @@
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="I28" s="3">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="J28" t="str">
+      <c r="I28">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="K28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L28" t="str">
+      <c r="M28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="M28" t="str">
+      <c r="N28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N28" t="str">
+      <c r="O28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -4736,7 +4948,7 @@
         <v>Still In</v>
       </c>
       <c r="D29">
-        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E29">
@@ -4755,32 +4967,36 @@
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="I29" s="3">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="J29" t="str">
+      <c r="I29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="K29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="L29" t="str">
+      <c r="M29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="M29" t="str">
+      <c r="N29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N29" t="str">
+      <c r="O29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -4792,7 +5008,7 @@
         <v>Still In</v>
       </c>
       <c r="D30">
-        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E30">
@@ -4811,32 +5027,36 @@
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="I30" s="3">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="J30" t="str">
+      <c r="I30">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="K30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L30" t="str">
+      <c r="M30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="M30" t="str">
+      <c r="N30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N30" t="str">
+      <c r="O30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -4848,7 +5068,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D31">
-        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E31">
@@ -4867,32 +5087,36 @@
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J31" t="str">
+      <c r="K31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L31" t="str">
+      <c r="M31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="M31" t="str">
+      <c r="N31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="N31" t="str">
+      <c r="O31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -4904,7 +5128,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D32">
-        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E32">
@@ -4923,32 +5147,36 @@
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="J32" t="str">
+      <c r="K32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L32" t="str">
+      <c r="M32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="M32" t="str">
+      <c r="N32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N32" t="str">
+      <c r="O32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -4960,7 +5188,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D33">
-        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E33">
@@ -4979,32 +5207,36 @@
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J33" t="str">
+      <c r="K33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L33" t="str">
+      <c r="M33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="M33" t="str">
+      <c r="N33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="N33" t="str">
+      <c r="O33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -5016,7 +5248,7 @@
         <v>Still In</v>
       </c>
       <c r="D34">
-        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E34">
@@ -5035,32 +5267,36 @@
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="I34" s="3">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="J34" t="str">
+      <c r="I34">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="K34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L34" t="str">
+      <c r="M34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="M34" t="str">
+      <c r="N34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N34" t="str">
+      <c r="O34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -5072,7 +5308,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D35">
-        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E35">
@@ -5091,32 +5327,36 @@
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J35" t="str">
+      <c r="K35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L35" t="str">
+      <c r="M35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Account Executive</v>
       </c>
-      <c r="M35" t="str">
+      <c r="N35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'9"</v>
       </c>
-      <c r="N35" t="str">
+      <c r="O35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -5125,10 +5365,10 @@
       </c>
       <c r="C36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D36">
-        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>40</v>
       </c>
       <c r="E36">
@@ -5147,32 +5387,36 @@
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>85</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="J36" t="str">
+      <c r="K36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L36" t="str">
+      <c r="M36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Singer/Songwriter</v>
       </c>
-      <c r="M36" t="str">
+      <c r="N36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N36" t="str">
+      <c r="O36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -5181,10 +5425,10 @@
       </c>
       <c r="C37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D37">
-        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E37">
@@ -5203,32 +5447,36 @@
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="J37" t="str">
+      <c r="K37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L37" t="str">
+      <c r="M37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="M37" t="str">
+      <c r="N37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N37" t="str">
+      <c r="O37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -5240,7 +5488,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D38">
-        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E38">
@@ -5259,32 +5507,36 @@
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J38" t="str">
+      <c r="K38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L38" t="str">
+      <c r="M38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="M38" t="str">
+      <c r="N38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="N38" t="str">
+      <c r="O38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -5296,7 +5548,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D39">
-        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E39">
@@ -5315,32 +5567,36 @@
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="J39" t="str">
+      <c r="K39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L39" t="str">
+      <c r="M39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="M39" t="str">
+      <c r="N39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N39" t="str">
+      <c r="O39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -5352,7 +5608,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D40">
-        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E40">
@@ -5371,32 +5627,36 @@
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J40" t="str">
+      <c r="K40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L40" t="str">
+      <c r="M40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marketing Consultant</v>
       </c>
-      <c r="M40" t="str">
+      <c r="N40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N40" t="str">
+      <c r="O40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -5408,7 +5668,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D41">
-        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E41">
@@ -5427,32 +5687,36 @@
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L41" t="str">
+      <c r="M41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="M41" t="str">
+      <c r="N41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N41" t="str">
+      <c r="O41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -5464,7 +5728,7 @@
         <v>Still In</v>
       </c>
       <c r="D42">
-        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E42">
@@ -5481,34 +5745,38 @@
       </c>
       <c r="H42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
-        <v>85</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="J42" t="str">
+        <v>110</v>
+      </c>
+      <c r="I42">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="K42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L42" t="str">
+      <c r="M42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="M42" t="str">
+      <c r="N42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N42" t="str">
+      <c r="O42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -5520,7 +5788,7 @@
         <v>Still In</v>
       </c>
       <c r="D43">
-        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E43">
@@ -5539,32 +5807,36 @@
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="I43" s="3">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="J43" t="str">
+      <c r="I43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="K43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="L43" t="str">
+      <c r="M43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="M43" t="str">
+      <c r="N43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N43" t="str">
+      <c r="O43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -5573,10 +5845,10 @@
       </c>
       <c r="C44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D44">
-        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E44">
@@ -5595,32 +5867,36 @@
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="J44" t="str">
+      <c r="K44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L44" t="str">
+      <c r="M44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="M44" t="str">
+      <c r="N44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N44" t="str">
+      <c r="O44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -5629,10 +5905,10 @@
       </c>
       <c r="C45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D45">
-        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E45">
@@ -5651,32 +5927,36 @@
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>115</v>
       </c>
-      <c r="I45" s="3">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="J45" t="str">
+      <c r="I45">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="K45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="L45" t="str">
+      <c r="M45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="M45" t="str">
+      <c r="N45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N45" t="str">
+      <c r="O45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -5688,7 +5968,7 @@
         <v>Still In</v>
       </c>
       <c r="D46">
-        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$V$32,17,FALSE)</f>
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E46">
@@ -5707,27 +5987,31 @@
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="I46" s="3">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="J46" t="str">
+      <c r="I46">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="K46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L46" t="str">
+      <c r="M46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="M46" t="str">
+      <c r="N46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N46" t="str">
+      <c r="O46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
@@ -5740,10 +6024,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I21"/>
+      <selection activeCell="J2" sqref="J2:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5751,10 +6035,10 @@
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5780,25 +6064,28 @@
         <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -5830,31 +6117,35 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUM(D2:H2)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>SUM(D2:I2)</f>
         <v>100</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Assistant</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -5886,31 +6177,35 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I21" si="0">SUM(D3:H3)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J21" si="0">SUM(D3:I3)</f>
         <v>85</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -5919,7 +6214,7 @@
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -5942,31 +6237,35 @@
         <v>35</v>
       </c>
       <c r="I4">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -5998,31 +6297,35 @@
         <v>35</v>
       </c>
       <c r="I5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6054,31 +6357,35 @@
         <v>35</v>
       </c>
       <c r="I6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -6107,34 +6414,38 @@
       </c>
       <c r="H7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="J7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="K7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -6166,31 +6477,35 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -6199,7 +6514,7 @@
       </c>
       <c r="C9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -6222,31 +6537,35 @@
         <v>50</v>
       </c>
       <c r="I9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -6255,7 +6574,7 @@
       </c>
       <c r="C10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -6278,31 +6597,35 @@
         <v>35</v>
       </c>
       <c r="I10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -6331,34 +6654,38 @@
       </c>
       <c r="H11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="J11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="K11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -6390,31 +6717,35 @@
         <v>50</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="J12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="K12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -6446,31 +6777,35 @@
         <v>45</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="J13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="K13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -6502,31 +6837,35 @@
         <v>35</v>
       </c>
       <c r="I14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -6555,34 +6894,38 @@
       </c>
       <c r="H15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="J15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="K15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -6614,31 +6957,35 @@
         <v>50</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="J16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="K16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -6670,31 +7017,35 @@
         <v>0</v>
       </c>
       <c r="I17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -6703,7 +7054,7 @@
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -6726,31 +7077,35 @@
         <v>50</v>
       </c>
       <c r="I18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -6759,7 +7114,7 @@
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -6782,31 +7137,35 @@
         <v>115</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="J19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="K19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -6838,31 +7197,35 @@
         <v>35</v>
       </c>
       <c r="I20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -6894,26 +7257,30 @@
         <v>0</v>
       </c>
       <c r="I21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
@@ -6925,21 +7292,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6965,25 +7330,28 @@
         <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -7003,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G2">
@@ -7015,31 +7383,35 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUM(D2:H2)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>SUM(D2:I2)</f>
         <v>5</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -7059,7 +7431,7 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G3">
@@ -7071,31 +7443,35 @@
         <v>35</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I56" si="0">SUM(D3:H3)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J56" si="0">SUM(D3:I3)</f>
         <v>180</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -7115,7 +7491,7 @@
         <v>25</v>
       </c>
       <c r="F4">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>105</v>
       </c>
       <c r="G4">
@@ -7127,31 +7503,35 @@
         <v>45</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="J4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="K4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -7171,7 +7551,7 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>45</v>
       </c>
       <c r="G5">
@@ -7183,31 +7563,35 @@
         <v>0</v>
       </c>
       <c r="I5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -7227,7 +7611,7 @@
         <v>85</v>
       </c>
       <c r="F6">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G6">
@@ -7239,31 +7623,35 @@
         <v>0</v>
       </c>
       <c r="I6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -7283,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G7">
@@ -7295,31 +7683,35 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -7339,7 +7731,7 @@
         <v>25</v>
       </c>
       <c r="F8">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>105</v>
       </c>
       <c r="G8">
@@ -7351,31 +7743,35 @@
         <v>45</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="J8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="K8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -7395,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G9">
@@ -7407,31 +7803,35 @@
         <v>0</v>
       </c>
       <c r="I9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -7440,7 +7840,7 @@
       </c>
       <c r="C10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -7451,7 +7851,7 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G10">
@@ -7463,31 +7863,35 @@
         <v>80</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="J10" t="str">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="K10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -7496,7 +7900,7 @@
       </c>
       <c r="C11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -7507,7 +7911,7 @@
         <v>15</v>
       </c>
       <c r="F11">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>80</v>
       </c>
       <c r="G11">
@@ -7519,31 +7923,35 @@
         <v>115</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="J11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="K11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -7552,7 +7960,7 @@
       </c>
       <c r="C12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -7563,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>110</v>
       </c>
       <c r="G12">
@@ -7575,31 +7983,35 @@
         <v>35</v>
       </c>
       <c r="I12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -7619,7 +8031,7 @@
         <v>55</v>
       </c>
       <c r="F13">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>55</v>
       </c>
       <c r="G13">
@@ -7631,31 +8043,35 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="J13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="K13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -7675,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G14">
@@ -7687,31 +8103,35 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -7731,7 +8151,7 @@
         <v>85</v>
       </c>
       <c r="F15">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G15">
@@ -7743,31 +8163,35 @@
         <v>0</v>
       </c>
       <c r="I15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -7787,7 +8211,7 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G16">
@@ -7799,31 +8223,35 @@
         <v>35</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="J16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="K16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Real Estate Agent</v>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -7843,7 +8271,7 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G17">
@@ -7852,34 +8280,38 @@
       </c>
       <c r="H17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="J17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="K17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -7899,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G18">
@@ -7911,31 +8343,35 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -7955,7 +8391,7 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>40</v>
       </c>
       <c r="G19">
@@ -7967,31 +8403,35 @@
         <v>40</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="J19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="K19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -8011,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G20">
@@ -8023,31 +8463,35 @@
         <v>0</v>
       </c>
       <c r="I20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -8067,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G21">
@@ -8079,31 +8523,35 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -8112,7 +8560,7 @@
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -8123,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>110</v>
       </c>
       <c r="G22">
@@ -8135,31 +8583,35 @@
         <v>35</v>
       </c>
       <c r="I22">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="J22" t="str">
+      <c r="K22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L22" t="str">
+      <c r="M22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="M22" t="str">
+      <c r="N22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N22" t="str">
+      <c r="O22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -8179,7 +8631,7 @@
         <v>85</v>
       </c>
       <c r="F23">
-        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G23">
@@ -8191,31 +8643,35 @@
         <v>0</v>
       </c>
       <c r="I23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L23" t="str">
+      <c r="M23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="M23" t="str">
+      <c r="N23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="N23" t="str">
+      <c r="O23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -8235,7 +8691,7 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G24">
@@ -8247,31 +8703,35 @@
         <v>0</v>
       </c>
       <c r="I24">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="L24" t="str">
+      <c r="M24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Assistant</v>
       </c>
-      <c r="M24" t="str">
+      <c r="N24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N24" t="str">
+      <c r="O24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -8291,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G25">
@@ -8303,31 +8763,35 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" t="str">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="L25" t="str">
+      <c r="M25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="M25" t="str">
+      <c r="N25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="N25" t="str">
+      <c r="O25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -8347,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G26">
@@ -8359,31 +8823,35 @@
         <v>0</v>
       </c>
       <c r="I26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J26" t="str">
+      <c r="K26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L26" t="str">
+      <c r="M26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="M26" t="str">
+      <c r="N26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N26" t="str">
+      <c r="O26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -8403,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G27">
@@ -8415,31 +8883,35 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" t="str">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="L27" t="str">
+      <c r="M27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="M27" t="str">
+      <c r="N27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N27" t="str">
+      <c r="O27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -8459,7 +8931,7 @@
         <v>10</v>
       </c>
       <c r="F28">
-        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G28">
@@ -8468,34 +8940,38 @@
       </c>
       <c r="H28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="J28" t="str">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="K28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L28" t="str">
+      <c r="M28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="M28" t="str">
+      <c r="N28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N28" t="str">
+      <c r="O28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -8515,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>75</v>
       </c>
       <c r="G29">
@@ -8527,31 +9003,35 @@
         <v>0</v>
       </c>
       <c r="I29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="J29" t="str">
+      <c r="K29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L29" t="str">
+      <c r="M29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Firefighter</v>
       </c>
-      <c r="M29" t="str">
+      <c r="N29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N29" t="str">
+      <c r="O29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -8571,7 +9051,7 @@
         <v>15</v>
       </c>
       <c r="F30">
-        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G30">
@@ -8583,31 +9063,35 @@
         <v>35</v>
       </c>
       <c r="I30">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="J30" t="str">
+      <c r="K30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L30" t="str">
+      <c r="M30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="M30" t="str">
+      <c r="N30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N30" t="str">
+      <c r="O30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -8616,7 +9100,7 @@
       </c>
       <c r="C31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -8627,7 +9111,7 @@
         <v>10</v>
       </c>
       <c r="F31">
-        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G31">
@@ -8639,31 +9123,35 @@
         <v>80</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="J31" t="str">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="K31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L31" t="str">
+      <c r="M31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="M31" t="str">
+      <c r="N31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N31" t="str">
+      <c r="O31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -8672,7 +9160,7 @@
       </c>
       <c r="C32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D32">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -8683,7 +9171,7 @@
         <v>55</v>
       </c>
       <c r="F32">
-        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G32">
@@ -8695,31 +9183,35 @@
         <v>50</v>
       </c>
       <c r="I32">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="J32" t="str">
+      <c r="K32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L32" t="str">
+      <c r="M32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="M32" t="str">
+      <c r="N32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N32" t="str">
+      <c r="O32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -8739,7 +9231,7 @@
         <v>10</v>
       </c>
       <c r="F33">
-        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>40</v>
       </c>
       <c r="G33">
@@ -8751,31 +9243,35 @@
         <v>40</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="J33" t="str">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="K33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L33" t="str">
+      <c r="M33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="M33" t="str">
+      <c r="N33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N33" t="str">
+      <c r="O33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -8795,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G34">
@@ -8807,31 +9303,35 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" t="str">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="L34" t="str">
+      <c r="M34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="M34" t="str">
+      <c r="N34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N34" t="str">
+      <c r="O34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -8851,7 +9351,7 @@
         <v>85</v>
       </c>
       <c r="F35">
-        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G35">
@@ -8863,31 +9363,35 @@
         <v>0</v>
       </c>
       <c r="I35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J35" t="str">
+      <c r="K35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L35" t="str">
+      <c r="M35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="M35" t="str">
+      <c r="N35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="N35" t="str">
+      <c r="O35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -8907,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G36">
@@ -8919,31 +9423,35 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" t="str">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="L36" t="str">
+      <c r="M36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="M36" t="str">
+      <c r="N36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="N36" t="str">
+      <c r="O36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -8963,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G37">
@@ -8975,31 +9483,35 @@
         <v>0</v>
       </c>
       <c r="I37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J37" t="str">
+      <c r="K37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L37" t="str">
+      <c r="M37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="M37" t="str">
+      <c r="N37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N37" t="str">
+      <c r="O37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -9019,7 +9531,7 @@
         <v>10</v>
       </c>
       <c r="F38">
-        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>45</v>
       </c>
       <c r="G38">
@@ -9031,31 +9543,35 @@
         <v>0</v>
       </c>
       <c r="I38">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="J38" t="str">
+      <c r="K38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L38" t="str">
+      <c r="M38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="M38" t="str">
+      <c r="N38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N38" t="str">
+      <c r="O38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -9075,7 +9591,7 @@
         <v>75</v>
       </c>
       <c r="F39">
-        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>40</v>
       </c>
       <c r="G39">
@@ -9087,31 +9603,35 @@
         <v>50</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="J39" t="str">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="K39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L39" t="str">
+      <c r="M39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="M39" t="str">
+      <c r="N39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N39" t="str">
+      <c r="O39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -9131,7 +9651,7 @@
         <v>10</v>
       </c>
       <c r="F40">
-        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G40">
@@ -9140,34 +9660,38 @@
       </c>
       <c r="H40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="J40" t="str">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="K40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L40" t="str">
+      <c r="M40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="M40" t="str">
+      <c r="N40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N40" t="str">
+      <c r="O40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -9187,7 +9711,7 @@
         <v>85</v>
       </c>
       <c r="F41">
-        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G41">
@@ -9199,31 +9723,35 @@
         <v>0</v>
       </c>
       <c r="I41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L41" t="str">
+      <c r="M41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="M41" t="str">
+      <c r="N41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="N41" t="str">
+      <c r="O41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -9243,7 +9771,7 @@
         <v>15</v>
       </c>
       <c r="F42">
-        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G42">
@@ -9255,31 +9783,35 @@
         <v>35</v>
       </c>
       <c r="I42">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="J42" t="str">
+      <c r="K42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L42" t="str">
+      <c r="M42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="M42" t="str">
+      <c r="N42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N42" t="str">
+      <c r="O42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -9299,7 +9831,7 @@
         <v>85</v>
       </c>
       <c r="F43">
-        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G43">
@@ -9311,31 +9843,35 @@
         <v>0</v>
       </c>
       <c r="I43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J43" t="str">
+      <c r="K43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L43" t="str">
+      <c r="M43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="M43" t="str">
+      <c r="N43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="N43" t="str">
+      <c r="O43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -9355,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G44">
@@ -9367,31 +9903,35 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J44" t="str">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="L44" t="str">
+      <c r="M44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="M44" t="str">
+      <c r="N44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N44" t="str">
+      <c r="O44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -9411,7 +9951,7 @@
         <v>10</v>
       </c>
       <c r="F45">
-        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G45">
@@ -9420,34 +9960,38 @@
       </c>
       <c r="H45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="J45" t="str">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="K45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L45" t="str">
+      <c r="M45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="M45" t="str">
+      <c r="N45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N45" t="str">
+      <c r="O45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -9456,7 +10000,7 @@
       </c>
       <c r="C46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -9467,7 +10011,7 @@
         <v>55</v>
       </c>
       <c r="F46">
-        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G46">
@@ -9479,31 +10023,35 @@
         <v>50</v>
       </c>
       <c r="I46">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="J46" t="str">
+      <c r="K46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L46" t="str">
+      <c r="M46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="M46" t="str">
+      <c r="N46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N46" t="str">
+      <c r="O46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -9523,7 +10071,7 @@
         <v>55</v>
       </c>
       <c r="F47">
-        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>55</v>
       </c>
       <c r="G47">
@@ -9535,31 +10083,35 @@
         <v>10</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="J47" t="str">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="K47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L47" t="str">
+      <c r="M47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="M47" t="str">
+      <c r="N47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N47" t="str">
+      <c r="O47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -9579,7 +10131,7 @@
         <v>85</v>
       </c>
       <c r="F48">
-        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G48">
@@ -9591,31 +10143,35 @@
         <v>0</v>
       </c>
       <c r="I48">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J48" t="str">
+      <c r="K48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L48" t="str">
+      <c r="M48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="M48" t="str">
+      <c r="N48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="N48" t="str">
+      <c r="O48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -9635,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G49">
@@ -9647,31 +10203,35 @@
         <v>0</v>
       </c>
       <c r="I49">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J49" t="str">
+      <c r="K49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L49" t="str">
+      <c r="M49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="M49" t="str">
+      <c r="N49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N49" t="str">
+      <c r="O49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -9680,7 +10240,7 @@
       </c>
       <c r="C50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D50">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -9691,7 +10251,7 @@
         <v>15</v>
       </c>
       <c r="F50">
-        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>100</v>
       </c>
       <c r="G50">
@@ -9703,31 +10263,35 @@
         <v>45</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
-        <v>215</v>
-      </c>
-      <c r="J50" t="str">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="K50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L50" t="str">
+      <c r="M50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Information Systems Supervisor</v>
       </c>
-      <c r="M50" t="str">
+      <c r="N50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N50" t="str">
+      <c r="O50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -9736,7 +10300,7 @@
       </c>
       <c r="C51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D51">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -9747,7 +10311,7 @@
         <v>10</v>
       </c>
       <c r="F51">
-        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G51">
@@ -9759,31 +10323,35 @@
         <v>80</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="J51" t="str">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="K51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L51" t="str">
+      <c r="M51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="M51" t="str">
+      <c r="N51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N51" t="str">
+      <c r="O51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>114</v>
       </c>
@@ -9803,7 +10371,7 @@
         <v>45</v>
       </c>
       <c r="F52">
-        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G52">
@@ -9815,31 +10383,35 @@
         <v>0</v>
       </c>
       <c r="I52">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="J52" t="str">
+      <c r="K52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="L52" t="str">
+      <c r="M52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Aspiring Drummer</v>
       </c>
-      <c r="M52" t="str">
+      <c r="N52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="N52" t="str">
+      <c r="O52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -9859,7 +10431,7 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G53">
@@ -9868,34 +10440,38 @@
       </c>
       <c r="H53">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$U$32,21,FALSE)</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="J53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="K53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L53" t="str">
+      <c r="M53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="M53" t="str">
+      <c r="N53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="N53" t="str">
+      <c r="O53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -9915,7 +10491,7 @@
         <v>85</v>
       </c>
       <c r="F54">
-        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G54">
@@ -9927,31 +10503,35 @@
         <v>0</v>
       </c>
       <c r="I54">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J54" t="str">
+      <c r="K54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="L54" t="str">
+      <c r="M54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="M54" t="str">
+      <c r="N54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="N54" t="str">
+      <c r="O54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -9971,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G55">
@@ -9983,31 +10563,35 @@
         <v>0</v>
       </c>
       <c r="I55">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J55" t="str">
+      <c r="K55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="L55" t="str">
+      <c r="M55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marketing Consultant</v>
       </c>
-      <c r="M55" t="str">
+      <c r="N55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="N55" t="str">
+      <c r="O55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -10016,7 +10600,7 @@
       </c>
       <c r="C56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D56">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -10027,7 +10611,7 @@
         <v>55</v>
       </c>
       <c r="F56">
-        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$V$32,19,FALSE)</f>
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G56">
@@ -10039,26 +10623,30 @@
         <v>50</v>
       </c>
       <c r="I56">
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="J56" t="str">
+      <c r="K56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L56" t="str">
+      <c r="M56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="M56" t="str">
+      <c r="N56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="N56" t="str">
+      <c r="O56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>

--- a/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
+++ b/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,11 +900,11 @@
         <v>35</v>
       </c>
       <c r="V2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="W2">
         <f>SUM(Q2:V2)</f>
-        <v>280</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -978,11 +978,11 @@
         <v>45</v>
       </c>
       <c r="V3">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W32" si="6">SUM(Q3:V3)</f>
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1368,11 +1368,11 @@
         <v>110</v>
       </c>
       <c r="V8">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="W8">
         <f t="shared" si="6"/>
-        <v>365</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1524,11 +1524,11 @@
         <v>10</v>
       </c>
       <c r="V10">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="W10">
         <f t="shared" si="6"/>
-        <v>390</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1758,11 +1758,11 @@
         <v>45</v>
       </c>
       <c r="V13">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="W13">
         <f t="shared" si="6"/>
-        <v>335</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -2460,11 +2460,11 @@
         <v>115</v>
       </c>
       <c r="V22">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="W22">
         <f t="shared" si="6"/>
-        <v>450</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -2616,11 +2616,11 @@
         <v>85</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W24">
         <f t="shared" si="6"/>
-        <v>345</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -2772,11 +2772,11 @@
         <v>40</v>
       </c>
       <c r="V26">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="W26">
         <f t="shared" si="6"/>
-        <v>235</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -3084,11 +3084,11 @@
         <v>50</v>
       </c>
       <c r="V30">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="W30">
         <f t="shared" si="6"/>
-        <v>355</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -3240,11 +3240,11 @@
         <v>80</v>
       </c>
       <c r="V32">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="W32">
         <f t="shared" si="6"/>
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3589,11 +3589,11 @@
       </c>
       <c r="I6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="K6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -3709,11 +3709,11 @@
       </c>
       <c r="I8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="K8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -3769,11 +3769,11 @@
       </c>
       <c r="I9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="K9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -3949,11 +3949,11 @@
       </c>
       <c r="I12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="0"/>
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -4069,11 +4069,11 @@
       </c>
       <c r="I14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="K14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -4129,11 +4129,11 @@
       </c>
       <c r="I15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="K15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -4189,11 +4189,11 @@
       </c>
       <c r="I16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="K16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -4309,11 +4309,11 @@
       </c>
       <c r="I18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="K18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -4489,11 +4489,11 @@
       </c>
       <c r="I21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="K21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -4609,11 +4609,11 @@
       </c>
       <c r="I23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="K23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -4729,11 +4729,11 @@
       </c>
       <c r="I25">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="K25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -4849,11 +4849,11 @@
       </c>
       <c r="I27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="K27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -4909,11 +4909,11 @@
       </c>
       <c r="I28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="K28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -4969,11 +4969,11 @@
       </c>
       <c r="I29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="K29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -5029,11 +5029,11 @@
       </c>
       <c r="I30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="K30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -5269,11 +5269,11 @@
       </c>
       <c r="I34">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="K34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -5389,11 +5389,11 @@
       </c>
       <c r="I36">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="K36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -5749,11 +5749,11 @@
       </c>
       <c r="I42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="K42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -5809,11 +5809,11 @@
       </c>
       <c r="I43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="K43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -5929,11 +5929,11 @@
       </c>
       <c r="I45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="K45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -5989,11 +5989,11 @@
       </c>
       <c r="I46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="K46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -6418,11 +6418,11 @@
       </c>
       <c r="I7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="K7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -6658,11 +6658,11 @@
       </c>
       <c r="I11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="K11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -6718,11 +6718,11 @@
       </c>
       <c r="I12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="K12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -6778,11 +6778,11 @@
       </c>
       <c r="I13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="K13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -6898,11 +6898,11 @@
       </c>
       <c r="I15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="K15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -6958,11 +6958,11 @@
       </c>
       <c r="I16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="K16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -7138,11 +7138,11 @@
       </c>
       <c r="I19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="K19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -7504,11 +7504,11 @@
       </c>
       <c r="I4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="K4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -7744,11 +7744,11 @@
       </c>
       <c r="I8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="K8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -7864,11 +7864,11 @@
       </c>
       <c r="I10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="K10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -7924,11 +7924,11 @@
       </c>
       <c r="I11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="K11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -8044,11 +8044,11 @@
       </c>
       <c r="I13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="K13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -8224,11 +8224,11 @@
       </c>
       <c r="I16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="K16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -8284,11 +8284,11 @@
       </c>
       <c r="I17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="K17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -8404,11 +8404,11 @@
       </c>
       <c r="I19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="K19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -8944,11 +8944,11 @@
       </c>
       <c r="I28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="K28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -9124,11 +9124,11 @@
       </c>
       <c r="I31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="K31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -9244,11 +9244,11 @@
       </c>
       <c r="I33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="K33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -9604,11 +9604,11 @@
       </c>
       <c r="I39">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="K39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -9664,11 +9664,11 @@
       </c>
       <c r="I40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="K40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -9964,11 +9964,11 @@
       </c>
       <c r="I45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="K45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -10084,11 +10084,11 @@
       </c>
       <c r="I47">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="K47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -10264,11 +10264,11 @@
       </c>
       <c r="I50">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -10324,11 +10324,11 @@
       </c>
       <c r="I51">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="K51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
@@ -10444,11 +10444,11 @@
       </c>
       <c r="I53">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J53">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="K53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>

--- a/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
+++ b/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contestant Points" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="edX League" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$W$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$X$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="124">
   <si>
     <t>Team</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
 </sst>
 </file>
@@ -736,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,10 +758,10 @@
     <col min="14" max="14" width="31.109375" customWidth="1"/>
     <col min="15" max="15" width="6.109375" customWidth="1"/>
     <col min="16" max="16" width="36.44140625" customWidth="1"/>
-    <col min="23" max="23" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -826,18 +829,21 @@
         <v>122</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="D2">
         <v>27</v>
@@ -903,11 +909,14 @@
         <v>145</v>
       </c>
       <c r="W2">
-        <f>SUM(Q2:V2)</f>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="X2">
+        <f>SUM(Q2:W2)</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -981,11 +990,14 @@
         <v>75</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W32" si="6">SUM(Q3:V3)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>SUM(Q3:W3)</f>
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1059,11 +1071,14 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>SUM(Q4:W4)</f>
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1137,11 +1152,14 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f>SUM(Q5:W5)</f>
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1215,11 +1233,14 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f>SUM(Q6:W6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1293,11 +1314,14 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f>SUM(Q7:W7)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1371,11 +1395,14 @@
         <v>90</v>
       </c>
       <c r="W8">
-        <f t="shared" si="6"/>
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="X8">
+        <f>SUM(Q8:W8)</f>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1449,11 +1476,14 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f>SUM(Q9:W9)</f>
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1527,11 +1557,14 @@
         <v>100</v>
       </c>
       <c r="W10">
-        <f t="shared" si="6"/>
-        <v>415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="X10">
+        <f>SUM(Q10:W10)</f>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1605,11 +1638,14 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f>SUM(Q11:W11)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1683,11 +1719,14 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f>SUM(Q12:W12)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1761,11 +1800,14 @@
         <v>125</v>
       </c>
       <c r="W13">
-        <f t="shared" si="6"/>
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="X13">
+        <f>SUM(Q13:W13)</f>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1839,11 +1881,14 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f>SUM(Q14:W14)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1917,11 +1962,14 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f>SUM(Q15:W15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1995,11 +2043,14 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f>SUM(Q16:W16)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2073,11 +2124,14 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f>SUM(Q17:W17)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2151,11 +2205,14 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f>SUM(Q18:W18)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2229,11 +2286,14 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f>SUM(Q19:W19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -2307,11 +2367,14 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f>SUM(Q20:W20)</f>
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2385,11 +2448,14 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f>SUM(Q21:W21)</f>
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2463,11 +2529,14 @@
         <v>180</v>
       </c>
       <c r="W22">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f>SUM(Q22:W22)</f>
         <v>495</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2541,11 +2610,14 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f>SUM(Q23:W23)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2619,11 +2691,14 @@
         <v>20</v>
       </c>
       <c r="W24">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f>SUM(Q24:W24)</f>
         <v>365</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2697,19 +2772,22 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f>SUM(Q25:W25)</f>
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="D26">
         <v>32</v>
@@ -2775,11 +2853,14 @@
         <v>95</v>
       </c>
       <c r="W26">
-        <f t="shared" si="6"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="X26">
+        <f>SUM(Q26:W26)</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2853,11 +2934,14 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f>SUM(Q27:W27)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2931,11 +3015,14 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f>SUM(Q28:W28)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -3009,11 +3096,14 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f>SUM(Q29:W29)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -3087,11 +3177,14 @@
         <v>115</v>
       </c>
       <c r="W30">
-        <f t="shared" si="6"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="X30">
+        <f>SUM(Q30:W30)</f>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3165,11 +3258,14 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f>SUM(Q31:W31)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3243,7 +3339,10 @@
         <v>45</v>
       </c>
       <c r="W32">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f>SUM(Q32:W32)</f>
         <v>275</v>
       </c>
     </row>
@@ -3254,10 +3353,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3265,11 +3364,11 @@
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3298,25 +3397,28 @@
         <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -3328,7 +3430,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E2">
@@ -3351,32 +3453,36 @@
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="3">
-        <f>SUM(D2:I2)</f>
+      <c r="J2">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <f>SUM(D2:J2)</f>
         <v>85</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -3388,7 +3494,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E3">
@@ -3411,32 +3517,36 @@
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J46" si="0">SUM(D3:I3)</f>
+      <c r="J3">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K55" si="0">SUM(D3:J3)</f>
         <v>180</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -3448,7 +3558,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E4">
@@ -3471,32 +3581,36 @@
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" t="str">
+      <c r="J4">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -3508,7 +3622,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E5">
@@ -3531,32 +3645,36 @@
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Product Manager</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3568,7 +3686,7 @@
         <v>Still In</v>
       </c>
       <c r="D6">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E6">
@@ -3591,32 +3709,36 @@
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="J6" s="3">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-      <c r="K6" t="str">
+      <c r="J6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3628,7 +3750,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D7">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E7">
@@ -3651,32 +3773,36 @@
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3688,7 +3814,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E8">
@@ -3711,32 +3837,36 @@
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3748,7 +3878,7 @@
         <v>Still In</v>
       </c>
       <c r="D9">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E9">
@@ -3771,32 +3901,36 @@
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>125</v>
       </c>
-      <c r="J9" s="3">
-        <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-      <c r="K9" t="str">
+      <c r="J9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="L9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3808,7 +3942,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D10">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E10">
@@ -3831,32 +3965,36 @@
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3868,7 +4006,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D11">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E11">
@@ -3891,32 +4029,36 @@
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3928,7 +4070,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E12">
@@ -3951,32 +4093,36 @@
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>75</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Information Systems Supervisor</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O12" t="str">
+      <c r="P12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3988,7 +4134,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E13">
@@ -4011,32 +4157,36 @@
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O13" t="str">
+      <c r="P13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4048,7 +4198,7 @@
         <v>Still In</v>
       </c>
       <c r="D14">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E14">
@@ -4071,32 +4221,36 @@
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>115</v>
       </c>
-      <c r="J14" s="3">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="K14" t="str">
+      <c r="J14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O14" t="str">
+      <c r="P14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4108,7 +4262,7 @@
         <v>Still In</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E15">
@@ -4131,32 +4285,36 @@
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="J15" s="3">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-      <c r="K15" t="str">
+      <c r="J15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O15" t="str">
+      <c r="P15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -4168,7 +4326,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E16">
@@ -4191,32 +4349,36 @@
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>180</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O16" t="str">
+      <c r="P16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4228,7 +4390,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E17">
@@ -4251,32 +4413,36 @@
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" t="str">
+      <c r="J17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O17" t="str">
+      <c r="P17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4288,7 +4454,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E18">
@@ -4311,32 +4477,36 @@
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>180</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O18" t="str">
+      <c r="P18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4348,7 +4518,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E19">
@@ -4371,32 +4541,36 @@
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O19" t="str">
+      <c r="P19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -4408,7 +4582,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D20">
-        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E20">
@@ -4431,32 +4605,36 @@
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O20" t="str">
+      <c r="P20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -4465,10 +4643,10 @@
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E21">
@@ -4491,32 +4669,36 @@
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>95</v>
       </c>
-      <c r="J21" s="3">
-        <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-      <c r="K21" t="str">
+      <c r="J21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="L21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O21" t="str">
+      <c r="P21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4528,7 +4710,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D22">
-        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E22">
@@ -4551,32 +4733,36 @@
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" t="str">
+      <c r="J22">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="M22" t="str">
+      <c r="N22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="N22" t="str">
+      <c r="O22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O22" t="str">
+      <c r="P22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4588,7 +4774,7 @@
         <v>Still In</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E23">
@@ -4611,32 +4797,36 @@
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="J23" s="3">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-      <c r="K23" t="str">
+      <c r="J23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="M23" t="str">
+      <c r="N23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="N23" t="str">
+      <c r="O23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O23" t="str">
+      <c r="P23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -4648,7 +4838,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E24">
@@ -4671,32 +4861,36 @@
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M24" t="str">
+      <c r="N24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="N24" t="str">
+      <c r="O24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="O24" t="str">
+      <c r="P24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -4708,7 +4902,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E25">
@@ -4731,32 +4925,36 @@
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="M25" t="str">
+      <c r="N25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="N25" t="str">
+      <c r="O25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O25" t="str">
+      <c r="P25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -4768,7 +4966,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E26">
@@ -4791,32 +4989,36 @@
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M26" t="str">
+      <c r="N26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="N26" t="str">
+      <c r="O26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O26" t="str">
+      <c r="P26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -4828,7 +5030,7 @@
         <v>Still In</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E27">
@@ -4851,32 +5053,36 @@
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="J27" s="3">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-      <c r="K27" t="str">
+      <c r="J27">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="M27" t="str">
+      <c r="N27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="N27" t="str">
+      <c r="O27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O27" t="str">
+      <c r="P27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -4888,7 +5094,7 @@
         <v>Still In</v>
       </c>
       <c r="D28">
-        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E28">
@@ -4911,32 +5117,36 @@
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>115</v>
       </c>
-      <c r="J28" s="3">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="K28" t="str">
+      <c r="J28">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M28" t="str">
+      <c r="N28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="N28" t="str">
+      <c r="O28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O28" t="str">
+      <c r="P28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -4948,7 +5158,7 @@
         <v>Still In</v>
       </c>
       <c r="D29">
-        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E29">
@@ -4971,32 +5181,36 @@
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>125</v>
       </c>
-      <c r="J29" s="3">
-        <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-      <c r="K29" t="str">
+      <c r="J29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="L29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="M29" t="str">
+      <c r="N29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="N29" t="str">
+      <c r="O29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O29" t="str">
+      <c r="P29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -5008,7 +5222,7 @@
         <v>Still In</v>
       </c>
       <c r="D30">
-        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E30">
@@ -5031,32 +5245,36 @@
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="J30" s="3">
-        <f t="shared" si="0"/>
-        <v>415</v>
-      </c>
-      <c r="K30" t="str">
+      <c r="J30">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="L30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M30" t="str">
+      <c r="N30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="N30" t="str">
+      <c r="O30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O30" t="str">
+      <c r="P30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -5068,7 +5286,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D31">
-        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E31">
@@ -5091,32 +5309,36 @@
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M31" t="str">
+      <c r="N31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="N31" t="str">
+      <c r="O31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="O31" t="str">
+      <c r="P31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -5128,7 +5350,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D32">
-        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E32">
@@ -5151,32 +5373,36 @@
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M32" t="str">
+      <c r="N32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="N32" t="str">
+      <c r="O32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O32" t="str">
+      <c r="P32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -5188,7 +5414,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D33">
-        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E33">
@@ -5211,32 +5437,36 @@
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K33" t="str">
+      <c r="L33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M33" t="str">
+      <c r="N33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="N33" t="str">
+      <c r="O33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="O33" t="str">
+      <c r="P33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -5248,7 +5478,7 @@
         <v>Still In</v>
       </c>
       <c r="D34">
-        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E34">
@@ -5271,32 +5501,36 @@
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>115</v>
       </c>
-      <c r="J34" s="3">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="K34" t="str">
+      <c r="J34">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M34" t="str">
+      <c r="N34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="N34" t="str">
+      <c r="O34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O34" t="str">
+      <c r="P34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -5308,7 +5542,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D35">
-        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E35">
@@ -5331,32 +5565,36 @@
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="M35" t="str">
+      <c r="N35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Account Executive</v>
       </c>
-      <c r="N35" t="str">
+      <c r="O35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'9"</v>
       </c>
-      <c r="O35" t="str">
+      <c r="P35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -5368,7 +5606,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D36">
-        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>40</v>
       </c>
       <c r="E36">
@@ -5391,32 +5629,36 @@
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="K36" t="str">
+      <c r="L36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M36" t="str">
+      <c r="N36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Singer/Songwriter</v>
       </c>
-      <c r="N36" t="str">
+      <c r="O36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O36" t="str">
+      <c r="P36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -5428,7 +5670,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D37">
-        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E37">
@@ -5451,32 +5693,36 @@
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="K37" t="str">
+      <c r="L37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M37" t="str">
+      <c r="N37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="N37" t="str">
+      <c r="O37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O37" t="str">
+      <c r="P37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -5488,7 +5734,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D38">
-        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E38">
@@ -5511,32 +5757,36 @@
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M38" t="str">
+      <c r="N38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="N38" t="str">
+      <c r="O38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="O38" t="str">
+      <c r="P38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -5548,7 +5798,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D39">
-        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E39">
@@ -5571,32 +5821,36 @@
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="K39" t="str">
+      <c r="L39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M39" t="str">
+      <c r="N39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="N39" t="str">
+      <c r="O39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O39" t="str">
+      <c r="P39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -5608,7 +5862,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D40">
-        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E40">
@@ -5631,32 +5885,36 @@
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K40" t="str">
+      <c r="L40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M40" t="str">
+      <c r="N40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marketing Consultant</v>
       </c>
-      <c r="N40" t="str">
+      <c r="O40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O40" t="str">
+      <c r="P40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -5668,7 +5926,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D41">
-        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E41">
@@ -5691,32 +5949,36 @@
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K41" t="str">
+      <c r="L41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M41" t="str">
+      <c r="N41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="N41" t="str">
+      <c r="O41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O41" t="str">
+      <c r="P41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -5728,7 +5990,7 @@
         <v>Still In</v>
       </c>
       <c r="D42">
-        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E42">
@@ -5751,32 +6013,36 @@
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="J42" s="3">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-      <c r="K42" t="str">
+      <c r="J42">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="M42" t="str">
+      <c r="N42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="N42" t="str">
+      <c r="O42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O42" t="str">
+      <c r="P42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -5788,7 +6054,7 @@
         <v>Still In</v>
       </c>
       <c r="D43">
-        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E43">
@@ -5811,32 +6077,36 @@
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>125</v>
       </c>
-      <c r="J43" s="3">
-        <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-      <c r="K43" t="str">
+      <c r="J43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="L43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="M43" t="str">
+      <c r="N43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="N43" t="str">
+      <c r="O43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O43" t="str">
+      <c r="P43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -5848,7 +6118,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D44">
-        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E44">
@@ -5871,32 +6141,36 @@
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="K44" t="str">
+      <c r="L44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="M44" t="str">
+      <c r="N44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="N44" t="str">
+      <c r="O44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O44" t="str">
+      <c r="P44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -5908,7 +6182,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D45">
-        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E45">
@@ -5931,32 +6205,36 @@
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>180</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
-      <c r="K45" t="str">
+      <c r="L45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="M45" t="str">
+      <c r="N45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="N45" t="str">
+      <c r="O45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O45" t="str">
+      <c r="P45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -5968,7 +6246,7 @@
         <v>Still In</v>
       </c>
       <c r="D46">
-        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$W$32,17,FALSE)</f>
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E46">
@@ -5991,28 +6269,554 @@
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$V$32,22,FALSE)</f>
         <v>115</v>
       </c>
-      <c r="J46" s="3">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="K46" t="str">
+      <c r="J46">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M46" t="str">
+      <c r="N46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="N46" t="str">
+      <c r="O46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O46" t="str">
+      <c r="P46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="str">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="L47" t="str">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>9% of people have chosen this contestant</v>
+      </c>
+      <c r="M47">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="N47" t="str">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Business Owner</v>
+      </c>
+      <c r="O47" t="str">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+      <c r="P47" t="str">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="str">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="K48" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="L48" t="str">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="M48">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="N48" t="str">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Personal Trainer</v>
+      </c>
+      <c r="O48" t="str">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+      <c r="P48" t="str">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="str">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Eliminated</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L49" t="str">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="M49">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="N49" t="str">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Construction Sales Rep</v>
+      </c>
+      <c r="O49" t="str">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+      <c r="P49" t="str">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="str">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K50" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L50" t="str">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="M50">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="N50" t="str">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="O50" t="str">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+      <c r="P50" t="str">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="str">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K51" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="L51" t="str">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>9% of people have chosen this contestant</v>
+      </c>
+      <c r="M51">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="N51" t="str">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Business Owner</v>
+      </c>
+      <c r="O51" t="str">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+      <c r="P51" t="str">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="str">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K52" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="L52" t="str">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="M52">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="N52" t="str">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Startup Recruiter</v>
+      </c>
+      <c r="O52" t="str">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+      <c r="P52" t="str">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K53" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="L53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>9% of people have chosen this contestant</v>
+      </c>
+      <c r="M53">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="N53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Business Owner</v>
+      </c>
+      <c r="O53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+      <c r="P53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="str">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K54" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="L54" t="str">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="M54">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="N54" t="str">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Startup Recruiter</v>
+      </c>
+      <c r="O54" t="str">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+      <c r="P54" t="str">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="str">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K55" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="L55" t="str">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="M55">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="N55" t="str">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Startup Recruiter</v>
+      </c>
+      <c r="O55" t="str">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+      <c r="P55" t="str">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
@@ -6024,10 +6828,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J21"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6035,10 +6839,10 @@
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6067,25 +6871,28 @@
         <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6121,31 +6928,35 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUM(D2:I2)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>SUM(D2:J2)</f>
         <v>100</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Assistant</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -6181,31 +6992,35 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J21" si="0">SUM(D3:I3)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K21" si="0">SUM(D3:J3)</f>
         <v>85</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -6241,31 +7056,35 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -6301,31 +7120,35 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6361,31 +7184,35 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -6421,31 +7248,35 @@
         <v>90</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-      <c r="K7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -6481,31 +7312,35 @@
         <v>0</v>
       </c>
       <c r="J8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -6541,31 +7376,35 @@
         <v>0</v>
       </c>
       <c r="J9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -6601,31 +7440,35 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -6661,31 +7504,35 @@
         <v>90</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-      <c r="K11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -6721,31 +7568,35 @@
         <v>115</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="K12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O12" t="str">
+      <c r="P12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -6781,31 +7632,35 @@
         <v>125</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-      <c r="K13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="L13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O13" t="str">
+      <c r="P13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -6841,31 +7696,35 @@
         <v>0</v>
       </c>
       <c r="J14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O14" t="str">
+      <c r="P14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -6901,31 +7760,35 @@
         <v>90</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-      <c r="K15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O15" t="str">
+      <c r="P15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -6961,31 +7824,35 @@
         <v>115</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="K16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O16" t="str">
+      <c r="P16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -7021,31 +7888,35 @@
         <v>0</v>
       </c>
       <c r="J17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="O17" t="str">
+      <c r="P17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -7081,31 +7952,35 @@
         <v>0</v>
       </c>
       <c r="J18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O18" t="str">
+      <c r="P18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -7141,31 +8016,35 @@
         <v>180</v>
       </c>
       <c r="J19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O19" t="str">
+      <c r="P19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -7201,31 +8080,35 @@
         <v>0</v>
       </c>
       <c r="J20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O20" t="str">
+      <c r="P20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -7261,26 +8144,30 @@
         <v>0</v>
       </c>
       <c r="J21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="O21" t="str">
+      <c r="P21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
@@ -7292,19 +8179,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7333,25 +8222,28 @@
         <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -7371,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G2">
@@ -7387,31 +8279,35 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUM(D2:I2)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>SUM(D2:J2)</f>
         <v>5</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -7431,7 +8327,7 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G3">
@@ -7447,31 +8343,35 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J56" si="0">SUM(D3:I3)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K64" si="0">SUM(D3:J3)</f>
         <v>180</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -7491,7 +8391,7 @@
         <v>25</v>
       </c>
       <c r="F4">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>105</v>
       </c>
       <c r="G4">
@@ -7507,31 +8407,35 @@
         <v>125</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-      <c r="K4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="L4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -7551,7 +8455,7 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>45</v>
       </c>
       <c r="G5">
@@ -7567,31 +8471,35 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -7611,7 +8519,7 @@
         <v>85</v>
       </c>
       <c r="F6">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G6">
@@ -7627,31 +8535,35 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -7671,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G7">
@@ -7687,31 +8599,35 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -7731,7 +8647,7 @@
         <v>25</v>
       </c>
       <c r="F8">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>105</v>
       </c>
       <c r="G8">
@@ -7747,31 +8663,35 @@
         <v>125</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-      <c r="K8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="L8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -7791,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G9">
@@ -7807,31 +8727,35 @@
         <v>0</v>
       </c>
       <c r="J9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -7851,7 +8775,7 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G10">
@@ -7867,31 +8791,35 @@
         <v>45</v>
       </c>
       <c r="J10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -7911,7 +8839,7 @@
         <v>15</v>
       </c>
       <c r="F11">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>80</v>
       </c>
       <c r="G11">
@@ -7927,31 +8855,35 @@
         <v>180</v>
       </c>
       <c r="J11">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -7971,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>110</v>
       </c>
       <c r="G12">
@@ -7987,31 +8919,35 @@
         <v>0</v>
       </c>
       <c r="J12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O12" t="str">
+      <c r="P12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -8031,7 +8967,7 @@
         <v>55</v>
       </c>
       <c r="F13">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>55</v>
       </c>
       <c r="G13">
@@ -8047,31 +8983,35 @@
         <v>100</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
-        <v>415</v>
-      </c>
-      <c r="K13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="L13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O13" t="str">
+      <c r="P13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -8091,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G14">
@@ -8107,31 +9047,35 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O14" t="str">
+      <c r="P14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -8151,7 +9095,7 @@
         <v>85</v>
       </c>
       <c r="F15">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G15">
@@ -8167,31 +9111,35 @@
         <v>0</v>
       </c>
       <c r="J15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="O15" t="str">
+      <c r="P15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -8200,7 +9148,7 @@
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -8211,7 +9159,7 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G16">
@@ -8227,31 +9175,35 @@
         <v>145</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-      <c r="K16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="L16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Real Estate Agent</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O16" t="str">
+      <c r="P16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -8271,7 +9223,7 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G17">
@@ -8287,31 +9239,35 @@
         <v>90</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-      <c r="K17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O17" t="str">
+      <c r="P17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -8331,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G18">
@@ -8347,31 +9303,35 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="O18" t="str">
+      <c r="P18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -8380,7 +9340,7 @@
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -8391,7 +9351,7 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>40</v>
       </c>
       <c r="G19">
@@ -8407,31 +9367,35 @@
         <v>95</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-      <c r="K19" t="str">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="L19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O19" t="str">
+      <c r="P19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -8451,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G20">
@@ -8467,31 +9431,35 @@
         <v>0</v>
       </c>
       <c r="J20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O20" t="str">
+      <c r="P20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -8511,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G21">
@@ -8527,31 +9495,35 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O21" t="str">
+      <c r="P21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -8571,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>110</v>
       </c>
       <c r="G22">
@@ -8587,31 +9559,35 @@
         <v>0</v>
       </c>
       <c r="J22">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M22" t="str">
+      <c r="N22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="N22" t="str">
+      <c r="O22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O22" t="str">
+      <c r="P22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -8631,7 +9607,7 @@
         <v>85</v>
       </c>
       <c r="F23">
-        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G23">
@@ -8647,31 +9623,35 @@
         <v>0</v>
       </c>
       <c r="J23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M23" t="str">
+      <c r="N23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="N23" t="str">
+      <c r="O23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="O23" t="str">
+      <c r="P23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -8691,7 +9671,7 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G24">
@@ -8707,31 +9687,35 @@
         <v>0</v>
       </c>
       <c r="J24">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="M24" t="str">
+      <c r="N24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Assistant</v>
       </c>
-      <c r="N24" t="str">
+      <c r="O24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O24" t="str">
+      <c r="P24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -8751,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G25">
@@ -8767,31 +9751,35 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" t="str">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="M25" t="str">
+      <c r="N25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="N25" t="str">
+      <c r="O25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="O25" t="str">
+      <c r="P25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -8811,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G26">
@@ -8827,31 +9815,35 @@
         <v>0</v>
       </c>
       <c r="J26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M26" t="str">
+      <c r="N26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="N26" t="str">
+      <c r="O26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O26" t="str">
+      <c r="P26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -8871,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G27">
@@ -8887,31 +9879,35 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" t="str">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="M27" t="str">
+      <c r="N27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="N27" t="str">
+      <c r="O27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O27" t="str">
+      <c r="P27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -8931,7 +9927,7 @@
         <v>10</v>
       </c>
       <c r="F28">
-        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G28">
@@ -8947,31 +9943,35 @@
         <v>90</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-      <c r="K28" t="str">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="M28" t="str">
+      <c r="N28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="N28" t="str">
+      <c r="O28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O28" t="str">
+      <c r="P28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -8991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>75</v>
       </c>
       <c r="G29">
@@ -9007,31 +10007,35 @@
         <v>0</v>
       </c>
       <c r="J29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="K29" t="str">
+      <c r="L29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M29" t="str">
+      <c r="N29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Firefighter</v>
       </c>
-      <c r="N29" t="str">
+      <c r="O29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O29" t="str">
+      <c r="P29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -9051,7 +10055,7 @@
         <v>15</v>
       </c>
       <c r="F30">
-        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G30">
@@ -9067,31 +10071,35 @@
         <v>0</v>
       </c>
       <c r="J30">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="M30" t="str">
+      <c r="N30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="N30" t="str">
+      <c r="O30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O30" t="str">
+      <c r="P30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -9111,7 +10119,7 @@
         <v>10</v>
       </c>
       <c r="F31">
-        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G31">
@@ -9127,31 +10135,35 @@
         <v>45</v>
       </c>
       <c r="J31">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="M31" t="str">
+      <c r="N31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="N31" t="str">
+      <c r="O31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O31" t="str">
+      <c r="P31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -9171,7 +10183,7 @@
         <v>55</v>
       </c>
       <c r="F32">
-        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G32">
@@ -9187,31 +10199,35 @@
         <v>0</v>
       </c>
       <c r="J32">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="M32" t="str">
+      <c r="N32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="N32" t="str">
+      <c r="O32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O32" t="str">
+      <c r="P32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -9220,7 +10236,7 @@
       </c>
       <c r="C33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -9231,7 +10247,7 @@
         <v>10</v>
       </c>
       <c r="F33">
-        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>40</v>
       </c>
       <c r="G33">
@@ -9247,31 +10263,35 @@
         <v>95</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-      <c r="K33" t="str">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="L33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="M33" t="str">
+      <c r="N33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="N33" t="str">
+      <c r="O33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O33" t="str">
+      <c r="P33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -9291,7 +10311,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G34">
@@ -9307,31 +10327,35 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K34" t="str">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="M34" t="str">
+      <c r="N34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="N34" t="str">
+      <c r="O34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O34" t="str">
+      <c r="P34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -9351,7 +10375,7 @@
         <v>85</v>
       </c>
       <c r="F35">
-        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G35">
@@ -9367,31 +10391,35 @@
         <v>0</v>
       </c>
       <c r="J35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M35" t="str">
+      <c r="N35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="N35" t="str">
+      <c r="O35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="O35" t="str">
+      <c r="P35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -9411,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G36">
@@ -9427,31 +10455,35 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K36" t="str">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="M36" t="str">
+      <c r="N36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="N36" t="str">
+      <c r="O36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="O36" t="str">
+      <c r="P36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -9471,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G37">
@@ -9487,31 +10519,35 @@
         <v>0</v>
       </c>
       <c r="J37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K37" t="str">
+      <c r="L37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M37" t="str">
+      <c r="N37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="N37" t="str">
+      <c r="O37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O37" t="str">
+      <c r="P37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -9531,7 +10567,7 @@
         <v>10</v>
       </c>
       <c r="F38">
-        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>45</v>
       </c>
       <c r="G38">
@@ -9547,31 +10583,35 @@
         <v>0</v>
       </c>
       <c r="J38">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M38" t="str">
+      <c r="N38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="N38" t="str">
+      <c r="O38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O38" t="str">
+      <c r="P38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -9591,7 +10631,7 @@
         <v>75</v>
       </c>
       <c r="F39">
-        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>40</v>
       </c>
       <c r="G39">
@@ -9607,31 +10647,35 @@
         <v>115</v>
       </c>
       <c r="J39">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="K39" t="str">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M39" t="str">
+      <c r="N39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="N39" t="str">
+      <c r="O39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O39" t="str">
+      <c r="P39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -9651,7 +10695,7 @@
         <v>10</v>
       </c>
       <c r="F40">
-        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G40">
@@ -9667,31 +10711,35 @@
         <v>90</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-      <c r="K40" t="str">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="M40" t="str">
+      <c r="N40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="N40" t="str">
+      <c r="O40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O40" t="str">
+      <c r="P40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -9711,7 +10759,7 @@
         <v>85</v>
       </c>
       <c r="F41">
-        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G41">
@@ -9727,31 +10775,35 @@
         <v>0</v>
       </c>
       <c r="J41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K41" t="str">
+      <c r="L41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M41" t="str">
+      <c r="N41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="N41" t="str">
+      <c r="O41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="O41" t="str">
+      <c r="P41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -9771,7 +10823,7 @@
         <v>15</v>
       </c>
       <c r="F42">
-        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G42">
@@ -9787,31 +10839,35 @@
         <v>0</v>
       </c>
       <c r="J42">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="K42" t="str">
+      <c r="L42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="M42" t="str">
+      <c r="N42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="N42" t="str">
+      <c r="O42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O42" t="str">
+      <c r="P42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -9831,7 +10887,7 @@
         <v>85</v>
       </c>
       <c r="F43">
-        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G43">
@@ -9847,31 +10903,35 @@
         <v>0</v>
       </c>
       <c r="J43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K43" t="str">
+      <c r="L43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M43" t="str">
+      <c r="N43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="N43" t="str">
+      <c r="O43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="O43" t="str">
+      <c r="P43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -9891,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G44">
@@ -9907,31 +10967,35 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K44" t="str">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="M44" t="str">
+      <c r="N44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="N44" t="str">
+      <c r="O44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O44" t="str">
+      <c r="P44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -9951,7 +11015,7 @@
         <v>10</v>
       </c>
       <c r="F45">
-        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G45">
@@ -9967,31 +11031,35 @@
         <v>90</v>
       </c>
       <c r="J45">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-      <c r="K45" t="str">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="M45" t="str">
+      <c r="N45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="N45" t="str">
+      <c r="O45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O45" t="str">
+      <c r="P45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -10011,7 +11079,7 @@
         <v>55</v>
       </c>
       <c r="F46">
-        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G46">
@@ -10027,31 +11095,35 @@
         <v>0</v>
       </c>
       <c r="J46">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="K46" t="str">
+      <c r="L46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="M46" t="str">
+      <c r="N46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="N46" t="str">
+      <c r="O46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O46" t="str">
+      <c r="P46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -10071,7 +11143,7 @@
         <v>55</v>
       </c>
       <c r="F47">
-        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>55</v>
       </c>
       <c r="G47">
@@ -10087,31 +11159,35 @@
         <v>100</v>
       </c>
       <c r="J47">
-        <f t="shared" si="0"/>
-        <v>415</v>
-      </c>
-      <c r="K47" t="str">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="L47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M47" t="str">
+      <c r="N47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="N47" t="str">
+      <c r="O47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O47" t="str">
+      <c r="P47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -10131,7 +11207,7 @@
         <v>85</v>
       </c>
       <c r="F48">
-        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G48">
@@ -10147,31 +11223,35 @@
         <v>0</v>
       </c>
       <c r="J48">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K48" t="str">
+      <c r="L48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M48" t="str">
+      <c r="N48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="N48" t="str">
+      <c r="O48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="O48" t="str">
+      <c r="P48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -10191,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G49">
@@ -10207,31 +11287,35 @@
         <v>0</v>
       </c>
       <c r="J49">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K49" t="str">
+      <c r="L49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M49" t="str">
+      <c r="N49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="N49" t="str">
+      <c r="O49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O49" t="str">
+      <c r="P49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -10251,7 +11335,7 @@
         <v>15</v>
       </c>
       <c r="F50">
-        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>100</v>
       </c>
       <c r="G50">
@@ -10267,31 +11351,35 @@
         <v>75</v>
       </c>
       <c r="J50">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="K50" t="str">
+      <c r="L50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="M50" t="str">
+      <c r="N50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Information Systems Supervisor</v>
       </c>
-      <c r="N50" t="str">
+      <c r="O50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O50" t="str">
+      <c r="P50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -10311,7 +11399,7 @@
         <v>10</v>
       </c>
       <c r="F51">
-        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G51">
@@ -10327,31 +11415,35 @@
         <v>45</v>
       </c>
       <c r="J51">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="K51" t="str">
+      <c r="L51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="M51" t="str">
+      <c r="N51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="N51" t="str">
+      <c r="O51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O51" t="str">
+      <c r="P51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>114</v>
       </c>
@@ -10371,7 +11463,7 @@
         <v>45</v>
       </c>
       <c r="F52">
-        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G52">
@@ -10387,31 +11479,35 @@
         <v>0</v>
       </c>
       <c r="J52">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="K52" t="str">
+      <c r="L52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="M52" t="str">
+      <c r="N52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Aspiring Drummer</v>
       </c>
-      <c r="N52" t="str">
+      <c r="O52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="O52" t="str">
+      <c r="P52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -10431,7 +11527,7 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G53">
@@ -10447,31 +11543,35 @@
         <v>90</v>
       </c>
       <c r="J53">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-      <c r="K53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="M53" t="str">
+      <c r="N53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="N53" t="str">
+      <c r="O53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="O53" t="str">
+      <c r="P53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -10491,7 +11591,7 @@
         <v>85</v>
       </c>
       <c r="F54">
-        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G54">
@@ -10507,31 +11607,35 @@
         <v>0</v>
       </c>
       <c r="J54">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K54" t="str">
+      <c r="L54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="M54" t="str">
+      <c r="N54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="N54" t="str">
+      <c r="O54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="O54" t="str">
+      <c r="P54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -10551,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G55">
@@ -10567,31 +11671,35 @@
         <v>0</v>
       </c>
       <c r="J55">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K55" t="str">
+      <c r="L55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="M55" t="str">
+      <c r="N55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marketing Consultant</v>
       </c>
-      <c r="N55" t="str">
+      <c r="O55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="O55" t="str">
+      <c r="P55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -10611,7 +11719,7 @@
         <v>55</v>
       </c>
       <c r="F56">
-        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$W$32,19,FALSE)</f>
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G56">
@@ -10627,28 +11735,496 @@
         <v>0</v>
       </c>
       <c r="J56">
+        <f>VLOOKUP(B56,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="K56" t="str">
+      <c r="L56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="M56" t="str">
+      <c r="N56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="N56" t="str">
+      <c r="O56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="O56" t="str">
+      <c r="P56" t="str">
         <f>VLOOKUP(B56,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="str">
+        <f>VLOOKUP(B57,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f>VLOOKUP(B57,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="L57" t="str">
+        <f>VLOOKUP(B57,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>9% of people have chosen this contestant</v>
+      </c>
+      <c r="M57">
+        <f>VLOOKUP(B57,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="N57" t="str">
+        <f>VLOOKUP(B57,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Business Owner</v>
+      </c>
+      <c r="O57" t="str">
+        <f>VLOOKUP(B57,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+      <c r="P57" t="str">
+        <f>VLOOKUP(B57,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="str">
+        <f>VLOOKUP(B58,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f>VLOOKUP(B58,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="L58" t="str">
+        <f>VLOOKUP(B58,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>9% of people have chosen this contestant</v>
+      </c>
+      <c r="M58">
+        <f>VLOOKUP(B58,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="N58" t="str">
+        <f>VLOOKUP(B58,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Business Owner</v>
+      </c>
+      <c r="O58" t="str">
+        <f>VLOOKUP(B58,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+      <c r="P58" t="str">
+        <f>VLOOKUP(B58,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="str">
+        <f>VLOOKUP(B59,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f>VLOOKUP(B59,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L59" t="str">
+        <f>VLOOKUP(B59,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="M59">
+        <f>VLOOKUP(B59,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="N59" t="str">
+        <f>VLOOKUP(B59,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="O59" t="str">
+        <f>VLOOKUP(B59,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+      <c r="P59" t="str">
+        <f>VLOOKUP(B59,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="str">
+        <f>VLOOKUP(B60,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f>VLOOKUP(B60,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L60" t="str">
+        <f>VLOOKUP(B60,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="M60">
+        <f>VLOOKUP(B60,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="N60" t="str">
+        <f>VLOOKUP(B60,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="O60" t="str">
+        <f>VLOOKUP(B60,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+      <c r="P60" t="str">
+        <f>VLOOKUP(B60,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="str">
+        <f>VLOOKUP(B61,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f>VLOOKUP(B61,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="L61" t="str">
+        <f>VLOOKUP(B61,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>7% of people have chosen this contestant</v>
+      </c>
+      <c r="M61">
+        <f>VLOOKUP(B61,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="N61" t="str">
+        <f>VLOOKUP(B61,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Personal Trainer</v>
+      </c>
+      <c r="O61" t="str">
+        <f>VLOOKUP(B61,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+      <c r="P61" t="str">
+        <f>VLOOKUP(B61,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>African American</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="str">
+        <f>VLOOKUP(B62,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f>VLOOKUP(B62,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L62" t="str">
+        <f>VLOOKUP(B62,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>11% of people have chosen this contestant</v>
+      </c>
+      <c r="M62">
+        <f>VLOOKUP(B62,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="N62" t="str">
+        <f>VLOOKUP(B62,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Chiropractor</v>
+      </c>
+      <c r="O62" t="str">
+        <f>VLOOKUP(B62,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'2"</v>
+      </c>
+      <c r="P62" t="str">
+        <f>VLOOKUP(B62,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="str">
+        <f>VLOOKUP(B63,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f>VLOOKUP(B63,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="L63" t="str">
+        <f>VLOOKUP(B63,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>9% of people have chosen this contestant</v>
+      </c>
+      <c r="M63">
+        <f>VLOOKUP(B63,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="N63" t="str">
+        <f>VLOOKUP(B63,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Business Owner</v>
+      </c>
+      <c r="O63" t="str">
+        <f>VLOOKUP(B63,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+      <c r="P63" t="str">
+        <f>VLOOKUP(B63,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="str">
+        <f>VLOOKUP(B64,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
+        <v>Still In</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f>VLOOKUP(B64,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="L64" t="str">
+        <f>VLOOKUP(B64,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
+        <v>9% of people have chosen this contestant</v>
+      </c>
+      <c r="M64">
+        <f>VLOOKUP(B64,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="N64" t="str">
+        <f>VLOOKUP(B64,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
+        <v>Business Owner</v>
+      </c>
+      <c r="O64" t="str">
+        <f>VLOOKUP(B64,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
+        <v>6'3"</v>
+      </c>
+      <c r="P64" t="str">
+        <f>VLOOKUP(B64,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
+        <v>Caucasian</v>
       </c>
     </row>
   </sheetData>

--- a/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
+++ b/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Contestant Points" sheetId="4" r:id="rId1"/>
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,11 +909,11 @@
         <v>145</v>
       </c>
       <c r="W2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="X2">
-        <f>SUM(Q2:W2)</f>
-        <v>390</v>
+        <f t="shared" ref="X2:X32" si="0">SUM(Q2:W2)</f>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -942,33 +942,33 @@
         <v>1</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I32" si="0">H3/SUM($H$2:$H$32)</f>
+        <f t="shared" ref="I3:I32" si="1">H3/SUM($H$2:$H$32)</f>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J32" si="1">CONCATENATE(ROUND(I3*100,0),"% of people have chosen this contestant")</f>
+        <f t="shared" ref="J3:J32" si="2">CONCATENATE(ROUND(I3*100,0),"% of people have chosen this contestant")</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L32" si="2">K3/SUM($K$2:$K$32)</f>
+        <f t="shared" ref="L3:L32" si="3">K3/SUM($K$2:$K$32)</f>
         <v>0</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M32" si="3">CONCATENATE(ROUND(L3*100,0),"% of people have chosen this contestant")</f>
+        <f t="shared" ref="M3:M32" si="4">CONCATENATE(ROUND(L3*100,0),"% of people have chosen this contestant")</f>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O32" si="4">N3/SUM($N$2:$N$32)</f>
+        <f t="shared" ref="O3:O32" si="5">N3/SUM($N$2:$N$32)</f>
         <v>0.02</v>
       </c>
       <c r="P3" s="2" t="str">
-        <f t="shared" ref="P3:P32" si="5">CONCATENATE(ROUND(O3*100,0),"% of people have chosen this contestant")</f>
+        <f t="shared" ref="P3:P32" si="6">CONCATENATE(ROUND(O3*100,0),"% of people have chosen this contestant")</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q3">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUM(Q3:W3)</f>
+        <f t="shared" si="0"/>
         <v>290</v>
       </c>
     </row>
@@ -1023,33 +1023,33 @@
         <v>3</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10% of people have chosen this contestant</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="P4" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q4">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <f>SUM(Q4:W4)</f>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
@@ -1104,33 +1104,33 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P5" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q5">
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <f>SUM(Q5:W5)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
     </row>
@@ -1185,33 +1185,33 @@
         <v>2</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N6">
         <v>6</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="P6" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12% of people have chosen this contestant</v>
       </c>
       <c r="Q6">
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <f>SUM(Q6:W6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1266,33 +1266,33 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M7" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P7" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q7">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <f>SUM(Q7:W7)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -1347,33 +1347,33 @@
         <v>5</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15% of people have chosen this contestant</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.08</v>
       </c>
       <c r="P8" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8% of people have chosen this contestant</v>
       </c>
       <c r="Q8">
@@ -1398,7 +1398,7 @@
         <v>80</v>
       </c>
       <c r="X8">
-        <f>SUM(Q8:W8)</f>
+        <f t="shared" si="0"/>
         <v>465</v>
       </c>
     </row>
@@ -1428,33 +1428,33 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="P9" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q9">
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <f>SUM(Q9:W9)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
     </row>
@@ -1509,33 +1509,33 @@
         <v>1</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="P10" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q10">
@@ -1560,7 +1560,7 @@
         <v>90</v>
       </c>
       <c r="X10">
-        <f>SUM(Q10:W10)</f>
+        <f t="shared" si="0"/>
         <v>505</v>
       </c>
     </row>
@@ -1590,33 +1590,33 @@
         <v>5</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15% of people have chosen this contestant</v>
       </c>
       <c r="N11">
         <v>7</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="P11" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14% of people have chosen this contestant</v>
       </c>
       <c r="Q11">
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <f>SUM(Q11:W11)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
@@ -1671,33 +1671,33 @@
         <v>6</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13% of people have chosen this contestant</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5% of people have chosen this contestant</v>
       </c>
       <c r="N12">
         <v>2</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="P12" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q12">
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <f>SUM(Q12:W12)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
@@ -1752,33 +1752,33 @@
         <v>3</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5% of people have chosen this contestant</v>
       </c>
       <c r="N13">
         <v>2</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="P13" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q13">
@@ -1803,7 +1803,7 @@
         <v>75</v>
       </c>
       <c r="X13">
-        <f>SUM(Q13:W13)</f>
+        <f t="shared" si="0"/>
         <v>440</v>
       </c>
     </row>
@@ -1833,33 +1833,33 @@
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5% of people have chosen this contestant</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="P14" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q14">
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <f>SUM(Q14:W14)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -1914,33 +1914,33 @@
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q15">
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <f>SUM(Q15:W15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1995,33 +1995,33 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P16" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q16">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <f>SUM(Q16:W16)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
@@ -2076,33 +2076,33 @@
         <v>1</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="K17">
         <v>4</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20% of people have chosen this contestant</v>
       </c>
       <c r="N17">
         <v>3</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="P17" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q17">
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <f>SUM(Q17:W17)</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
@@ -2157,33 +2157,33 @@
         <v>1</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P18" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q18">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <f>SUM(Q18:W18)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -2238,33 +2238,33 @@
         <v>1</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N19">
         <v>3</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="P19" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q19">
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <f>SUM(Q19:W19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2319,33 +2319,33 @@
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M20" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P20" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q20">
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <f>SUM(Q20:W20)</f>
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
     </row>
@@ -2400,33 +2400,33 @@
         <v>1</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J21" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="M21" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10% of people have chosen this contestant</v>
       </c>
       <c r="N21">
         <v>2</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="P21" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q21">
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <f>SUM(Q21:W21)</f>
+        <f t="shared" si="0"/>
         <v>205</v>
       </c>
     </row>
@@ -2481,33 +2481,33 @@
         <v>3</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="J22" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5% of people have chosen this contestant</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="P22" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q22">
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <f>SUM(Q22:W22)</f>
+        <f t="shared" si="0"/>
         <v>495</v>
       </c>
     </row>
@@ -2562,33 +2562,33 @@
         <v>1</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J23" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P23" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q23">
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <f>SUM(Q23:W23)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2643,33 +2643,33 @@
         <v>1</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M24" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P24" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q24">
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <f>SUM(Q24:W24)</f>
+        <f t="shared" si="0"/>
         <v>365</v>
       </c>
     </row>
@@ -2724,33 +2724,33 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M25" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P25" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q25">
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <f>SUM(Q25:W25)</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
     </row>
@@ -2805,33 +2805,33 @@
         <v>1</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J26" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M26" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N26">
         <v>2</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="P26" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q26">
@@ -2856,7 +2856,7 @@
         <v>30</v>
       </c>
       <c r="X26">
-        <f>SUM(Q26:W26)</f>
+        <f t="shared" si="0"/>
         <v>285</v>
       </c>
     </row>
@@ -2886,33 +2886,33 @@
         <v>2</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="J27" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N27">
         <v>3</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="P27" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q27">
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <f>SUM(Q27:W27)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2967,33 +2967,33 @@
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M28" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P28" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q28">
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <f>SUM(Q28:W28)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -3048,33 +3048,33 @@
         <v>1</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M29" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P29" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q29">
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <f>SUM(Q29:W29)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -3129,33 +3129,33 @@
         <v>4</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="J30" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9% of people have chosen this contestant</v>
       </c>
       <c r="K30">
         <v>2</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="M30" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10% of people have chosen this contestant</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="P30" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q30">
@@ -3180,7 +3180,7 @@
         <v>90</v>
       </c>
       <c r="X30">
-        <f>SUM(Q30:W30)</f>
+        <f t="shared" si="0"/>
         <v>465</v>
       </c>
     </row>
@@ -3210,33 +3210,33 @@
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N31">
         <v>3</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="P31" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q31">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <f>SUM(Q31:W31)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3291,33 +3291,33 @@
         <v>2</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="J32" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M32" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N32">
         <v>3</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="P32" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q32">
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <f>SUM(Q32:W32)</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
     </row>
@@ -3355,9 +3355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8181,9 +8179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9176,11 +9172,11 @@
       </c>
       <c r="J16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="L16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>

--- a/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
+++ b/2017 Bachelorette Fantasy/BacheloretteFantasy2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contestant Points" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="edX League" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$X$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contestant Points'!$A$1:$Y$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="125">
   <si>
     <t>Team</t>
   </si>
@@ -403,6 +403,9 @@
   <si>
     <t>Week 7</t>
   </si>
+  <si>
+    <t>Week 8</t>
+  </si>
 </sst>
 </file>
 
@@ -739,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="C1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,10 +761,10 @@
     <col min="14" max="14" width="31.109375" customWidth="1"/>
     <col min="15" max="15" width="6.109375" customWidth="1"/>
     <col min="16" max="16" width="36.44140625" customWidth="1"/>
-    <col min="24" max="24" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -832,10 +835,13 @@
         <v>123</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -912,11 +918,14 @@
         <v>30</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X32" si="0">SUM(Q2:W2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>SUM(Q2:X2)</f>
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -942,33 +951,33 @@
         <v>1</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I32" si="1">H3/SUM($H$2:$H$32)</f>
+        <f t="shared" ref="I3:I32" si="0">H3/SUM($H$2:$H$32)</f>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J32" si="2">CONCATENATE(ROUND(I3*100,0),"% of people have chosen this contestant")</f>
+        <f t="shared" ref="J3:J32" si="1">CONCATENATE(ROUND(I3*100,0),"% of people have chosen this contestant")</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L32" si="3">K3/SUM($K$2:$K$32)</f>
+        <f t="shared" ref="L3:L32" si="2">K3/SUM($K$2:$K$32)</f>
         <v>0</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M32" si="4">CONCATENATE(ROUND(L3*100,0),"% of people have chosen this contestant")</f>
+        <f t="shared" ref="M3:M32" si="3">CONCATENATE(ROUND(L3*100,0),"% of people have chosen this contestant")</f>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O32" si="5">N3/SUM($N$2:$N$32)</f>
+        <f t="shared" ref="O3:O32" si="4">N3/SUM($N$2:$N$32)</f>
         <v>0.02</v>
       </c>
       <c r="P3" s="2" t="str">
-        <f t="shared" ref="P3:P32" si="6">CONCATENATE(ROUND(O3*100,0),"% of people have chosen this contestant")</f>
+        <f t="shared" ref="P3:P32" si="5">CONCATENATE(ROUND(O3*100,0),"% of people have chosen this contestant")</f>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q3">
@@ -993,11 +1002,14 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>SUM(Q3:X3)</f>
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1023,33 +1035,33 @@
         <v>3</v>
       </c>
       <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J4" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="M4" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>10% of people have chosen this contestant</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="P4" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="P4" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q4">
@@ -1074,11 +1086,14 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>SUM(Q4:X4)</f>
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1104,33 +1119,33 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="str">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q5">
@@ -1155,11 +1170,14 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f>SUM(Q5:X5)</f>
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1185,33 +1203,33 @@
         <v>2</v>
       </c>
       <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="J6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="J6" s="2" t="str">
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>4% of people have chosen this contestant</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N6">
         <v>6</v>
       </c>
       <c r="O6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.12</v>
+      </c>
+      <c r="P6" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.12</v>
-      </c>
-      <c r="P6" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>12% of people have chosen this contestant</v>
       </c>
       <c r="Q6">
@@ -1236,11 +1254,14 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f>SUM(Q6:X6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1266,33 +1287,33 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="str">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q7">
@@ -1317,11 +1338,14 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f>SUM(Q7:X7)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1347,33 +1371,33 @@
         <v>5</v>
       </c>
       <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J8" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="M8" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="M8" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>15% of people have chosen this contestant</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="P8" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.08</v>
-      </c>
-      <c r="P8" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>8% of people have chosen this contestant</v>
       </c>
       <c r="Q8">
@@ -1398,11 +1422,14 @@
         <v>80</v>
       </c>
       <c r="X8">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="Y8">
+        <f>SUM(Q8:X8)</f>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1428,33 +1455,33 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="2"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="P9" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-      <c r="P9" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q9">
@@ -1479,19 +1506,22 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f>SUM(Q9:X9)</f>
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="D10">
         <v>26</v>
@@ -1509,33 +1539,33 @@
         <v>1</v>
       </c>
       <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J10" s="2" t="str">
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="2"/>
-        <v>2% of people have chosen this contestant</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="P10" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="P10" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q10">
@@ -1560,11 +1590,14 @@
         <v>90</v>
       </c>
       <c r="X10">
-        <f t="shared" si="0"/>
-        <v>505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="Y10">
+        <f>SUM(Q10:X10)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1590,33 +1623,33 @@
         <v>5</v>
       </c>
       <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J11" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>11% of people have chosen this contestant</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="M11" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="M11" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>15% of people have chosen this contestant</v>
       </c>
       <c r="N11">
         <v>7</v>
       </c>
       <c r="O11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P11" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P11" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>14% of people have chosen this contestant</v>
       </c>
       <c r="Q11">
@@ -1641,11 +1674,14 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f>SUM(Q11:X11)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1671,33 +1707,33 @@
         <v>6</v>
       </c>
       <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="J12" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>13% of people have chosen this contestant</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="M12" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="M12" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>5% of people have chosen this contestant</v>
       </c>
       <c r="N12">
         <v>2</v>
       </c>
       <c r="O12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="P12" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="P12" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q12">
@@ -1722,11 +1758,14 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f>SUM(Q12:X12)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1752,33 +1791,33 @@
         <v>3</v>
       </c>
       <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J13" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="M13" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="M13" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>5% of people have chosen this contestant</v>
       </c>
       <c r="N13">
         <v>2</v>
       </c>
       <c r="O13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="P13" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="P13" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q13">
@@ -1803,11 +1842,14 @@
         <v>75</v>
       </c>
       <c r="X13">
-        <f t="shared" si="0"/>
-        <v>440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="Y13">
+        <f>SUM(Q13:X13)</f>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1833,33 +1875,33 @@
         <v>0</v>
       </c>
       <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="M14" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="M14" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>5% of people have chosen this contestant</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14" s="2">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="P14" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-      <c r="P14" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q14">
@@ -1884,11 +1926,14 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f>SUM(Q14:X14)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1914,35 +1959,35 @@
         <v>0</v>
       </c>
       <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="2" t="str">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
       <c r="Q15">
         <v>0</v>
       </c>
@@ -1965,11 +2010,14 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f>SUM(Q15:X15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1995,33 +2043,33 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="2" t="str">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q16">
@@ -2046,11 +2094,14 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f>SUM(Q16:X16)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2076,33 +2127,33 @@
         <v>1</v>
       </c>
       <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J17" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="K17">
         <v>4</v>
       </c>
       <c r="L17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="M17" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="M17" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>20% of people have chosen this contestant</v>
       </c>
       <c r="N17">
         <v>3</v>
       </c>
       <c r="O17" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="P17" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.06</v>
-      </c>
-      <c r="P17" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q17">
@@ -2127,11 +2178,14 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f>SUM(Q17:X17)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2157,33 +2211,33 @@
         <v>1</v>
       </c>
       <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J18" s="2" t="str">
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>2% of people have chosen this contestant</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q18">
@@ -2208,11 +2262,14 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f>SUM(Q18:X18)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2238,33 +2295,33 @@
         <v>1</v>
       </c>
       <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J19" s="2" t="str">
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>2% of people have chosen this contestant</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N19">
         <v>3</v>
       </c>
       <c r="O19" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="P19" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.06</v>
-      </c>
-      <c r="P19" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q19">
@@ -2289,11 +2346,14 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f>SUM(Q19:X19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -2319,33 +2379,33 @@
         <v>0</v>
       </c>
       <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="2" t="str">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q20">
@@ -2370,11 +2430,14 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f>SUM(Q20:X20)</f>
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2400,33 +2463,33 @@
         <v>1</v>
       </c>
       <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J21" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
       <c r="L21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="M21" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="M21" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>10% of people have chosen this contestant</v>
       </c>
       <c r="N21">
         <v>2</v>
       </c>
       <c r="O21" s="2">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="P21" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="P21" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q21">
@@ -2451,11 +2514,14 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f>SUM(Q21:X21)</f>
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2481,33 +2547,33 @@
         <v>3</v>
       </c>
       <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J22" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>7% of people have chosen this contestant</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22" s="2">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="M22" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="M22" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>5% of people have chosen this contestant</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="P22" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-      <c r="P22" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q22">
@@ -2532,11 +2598,14 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f>SUM(Q22:X22)</f>
         <v>495</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2562,33 +2631,33 @@
         <v>1</v>
       </c>
       <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J23" s="2" t="str">
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
         <f t="shared" si="2"/>
-        <v>2% of people have chosen this contestant</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q23">
@@ -2613,11 +2682,14 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f>SUM(Q23:X23)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2643,33 +2715,33 @@
         <v>1</v>
       </c>
       <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J24" s="2" t="str">
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
         <f t="shared" si="2"/>
-        <v>2% of people have chosen this contestant</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q24">
@@ -2694,11 +2766,14 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f>SUM(Q24:X24)</f>
         <v>365</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2724,33 +2799,33 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="2" t="str">
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q25">
@@ -2775,11 +2850,14 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f>SUM(Q25:X25)</f>
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2805,33 +2883,33 @@
         <v>1</v>
       </c>
       <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J26" s="2" t="str">
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
         <f t="shared" si="2"/>
-        <v>2% of people have chosen this contestant</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N26">
         <v>2</v>
       </c>
       <c r="O26" s="2">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="P26" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="P26" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>4% of people have chosen this contestant</v>
       </c>
       <c r="Q26">
@@ -2856,11 +2934,14 @@
         <v>30</v>
       </c>
       <c r="X26">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f>SUM(Q26:X26)</f>
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2886,33 +2967,33 @@
         <v>2</v>
       </c>
       <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="J27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="J27" s="2" t="str">
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
         <f t="shared" si="2"/>
-        <v>4% of people have chosen this contestant</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N27">
         <v>3</v>
       </c>
       <c r="O27" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="P27" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.06</v>
-      </c>
-      <c r="P27" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q27">
@@ -2937,11 +3018,14 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f>SUM(Q27:X27)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2967,33 +3051,33 @@
         <v>0</v>
       </c>
       <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="2" t="str">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q28">
@@ -3018,11 +3102,14 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f>SUM(Q28:X28)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -3048,33 +3135,33 @@
         <v>1</v>
       </c>
       <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="J29" s="2" t="str">
+        <v>2% of people have chosen this contestant</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
         <f t="shared" si="2"/>
-        <v>2% of people have chosen this contestant</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
         <f t="shared" si="4"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="Q29">
@@ -3099,11 +3186,14 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f>SUM(Q29:X29)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -3129,33 +3219,33 @@
         <v>4</v>
       </c>
       <c r="I30" s="2">
+        <f t="shared" si="0"/>
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="J30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="J30" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>9% of people have chosen this contestant</v>
       </c>
       <c r="K30">
         <v>2</v>
       </c>
       <c r="L30" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="M30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="M30" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>10% of people have chosen this contestant</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30" s="2">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="P30" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-      <c r="P30" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>2% of people have chosen this contestant</v>
       </c>
       <c r="Q30">
@@ -3180,11 +3270,14 @@
         <v>90</v>
       </c>
       <c r="X30">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="Y30">
+        <f>SUM(Q30:X30)</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3210,33 +3303,33 @@
         <v>0</v>
       </c>
       <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="str">
+        <v>0% of people have chosen this contestant</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
         <f t="shared" si="2"/>
-        <v>0% of people have chosen this contestant</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N31">
         <v>3</v>
       </c>
       <c r="O31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="P31" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.06</v>
-      </c>
-      <c r="P31" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q31">
@@ -3261,11 +3354,14 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f>SUM(Q31:X31)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3291,33 +3387,33 @@
         <v>2</v>
       </c>
       <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="J32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="J32" s="2" t="str">
+        <v>4% of people have chosen this contestant</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
         <f t="shared" si="2"/>
-        <v>4% of people have chosen this contestant</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="2" t="str">
-        <f t="shared" si="4"/>
         <v>0% of people have chosen this contestant</v>
       </c>
       <c r="N32">
         <v>3</v>
       </c>
       <c r="O32" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="P32" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>0.06</v>
-      </c>
-      <c r="P32" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>6% of people have chosen this contestant</v>
       </c>
       <c r="Q32">
@@ -3342,7 +3438,10 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f>SUM(Q32:X32)</f>
         <v>275</v>
       </c>
     </row>
@@ -3353,20 +3452,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3398,25 +3499,28 @@
         <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -3428,7 +3532,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E2">
@@ -3455,32 +3559,36 @@
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="3">
-        <f>SUM(D2:J2)</f>
+      <c r="K2">
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <f>SUM(D2:K2)</f>
         <v>85</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P2" t="str">
+      <c r="Q2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -3492,7 +3600,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E3">
@@ -3519,32 +3627,36 @@
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" ref="K3:K55" si="0">SUM(D3:J3)</f>
+      <c r="K3">
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L55" si="0">SUM(D3:K3)</f>
         <v>180</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -3556,7 +3668,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E4">
@@ -3583,32 +3695,36 @@
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L4" t="str">
+      <c r="K4">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -3620,7 +3736,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E5">
@@ -3647,32 +3763,36 @@
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Product Manager</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3684,7 +3804,7 @@
         <v>Still In</v>
       </c>
       <c r="D6">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E6">
@@ -3711,32 +3831,36 @@
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="K6" s="3">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L6" t="str">
+      <c r="K6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="M6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3748,7 +3872,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D7">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E7">
@@ -3775,32 +3899,36 @@
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3812,7 +3940,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E8">
@@ -3839,32 +3967,36 @@
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3876,7 +4008,7 @@
         <v>Still In</v>
       </c>
       <c r="D9">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E9">
@@ -3903,32 +4035,36 @@
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>75</v>
       </c>
-      <c r="K9" s="3">
-        <f t="shared" si="0"/>
-        <v>440</v>
-      </c>
-      <c r="L9" t="str">
+      <c r="K9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>535</v>
+      </c>
+      <c r="M9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3940,7 +4076,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D10">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E10">
@@ -3967,32 +4103,36 @@
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4004,7 +4144,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D11">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E11">
@@ -4031,32 +4171,36 @@
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4068,7 +4212,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E12">
@@ -4095,32 +4239,36 @@
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Information Systems Supervisor</v>
       </c>
-      <c r="O12" t="str">
+      <c r="P12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P12" t="str">
+      <c r="Q12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4132,7 +4280,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E13">
@@ -4159,32 +4307,36 @@
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="O13" t="str">
+      <c r="P13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P13" t="str">
+      <c r="Q13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4196,7 +4348,7 @@
         <v>Still In</v>
       </c>
       <c r="D14">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E14">
@@ -4223,32 +4375,36 @@
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="K14" s="3">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L14" t="str">
+      <c r="K14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="M14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="O14" t="str">
+      <c r="P14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P14" t="str">
+      <c r="Q14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4260,7 +4416,7 @@
         <v>Still In</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E15">
@@ -4287,32 +4443,36 @@
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="K15" s="3">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L15" t="str">
+      <c r="K15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="M15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="O15" t="str">
+      <c r="P15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P15" t="str">
+      <c r="Q15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -4324,7 +4484,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E16">
@@ -4351,32 +4511,36 @@
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="O16" t="str">
+      <c r="P16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4388,7 +4552,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E17">
@@ -4415,32 +4579,36 @@
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" t="str">
+      <c r="K17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="O17" t="str">
+      <c r="P17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P17" t="str">
+      <c r="Q17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4452,7 +4620,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E18">
@@ -4479,32 +4647,36 @@
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="O18" t="str">
+      <c r="P18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P18" t="str">
+      <c r="Q18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4516,7 +4688,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E19">
@@ -4543,32 +4715,36 @@
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="O19" t="str">
+      <c r="P19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P19" t="str">
+      <c r="Q19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -4580,7 +4756,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D20">
-        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E20">
@@ -4607,32 +4783,36 @@
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="O20" t="str">
+      <c r="P20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P20" t="str">
+      <c r="Q20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -4644,7 +4824,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E21">
@@ -4671,32 +4851,36 @@
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="O21" t="str">
+      <c r="P21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P21" t="str">
+      <c r="Q21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4708,7 +4892,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D22">
-        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E22">
@@ -4735,32 +4919,36 @@
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" t="str">
+      <c r="K22">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="N22" t="str">
+      <c r="O22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="O22" t="str">
+      <c r="P22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P22" t="str">
+      <c r="Q22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4772,7 +4960,7 @@
         <v>Still In</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E23">
@@ -4799,32 +4987,36 @@
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="K23" s="3">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L23" t="str">
+      <c r="K23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="M23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="N23" t="str">
+      <c r="O23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="O23" t="str">
+      <c r="P23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P23" t="str">
+      <c r="Q23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -4836,7 +5028,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E24">
@@ -4863,32 +5055,36 @@
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L24" t="str">
+      <c r="M24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N24" t="str">
+      <c r="O24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="O24" t="str">
+      <c r="P24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="P24" t="str">
+      <c r="Q24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -4900,7 +5096,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E25">
@@ -4927,32 +5123,36 @@
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="L25" t="str">
+      <c r="M25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="N25" t="str">
+      <c r="O25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="O25" t="str">
+      <c r="P25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P25" t="str">
+      <c r="Q25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -4964,7 +5164,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E26">
@@ -4991,32 +5191,36 @@
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L26" t="str">
+      <c r="M26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N26" t="str">
+      <c r="O26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="O26" t="str">
+      <c r="P26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P26" t="str">
+      <c r="Q26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -5028,7 +5232,7 @@
         <v>Still In</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E27">
@@ -5055,32 +5259,36 @@
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="K27" s="3">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L27" t="str">
+      <c r="K27">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="M27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="N27" t="str">
+      <c r="O27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="O27" t="str">
+      <c r="P27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P27" t="str">
+      <c r="Q27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -5092,7 +5300,7 @@
         <v>Still In</v>
       </c>
       <c r="D28">
-        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E28">
@@ -5119,32 +5327,36 @@
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="K28" s="3">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L28" t="str">
+      <c r="K28">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="M28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N28" t="str">
+      <c r="O28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="O28" t="str">
+      <c r="P28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P28" t="str">
+      <c r="Q28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -5156,7 +5368,7 @@
         <v>Still In</v>
       </c>
       <c r="D29">
-        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E29">
@@ -5183,32 +5395,36 @@
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>75</v>
       </c>
-      <c r="K29" s="3">
-        <f t="shared" si="0"/>
-        <v>440</v>
-      </c>
-      <c r="L29" t="str">
+      <c r="K29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="0"/>
+        <v>535</v>
+      </c>
+      <c r="M29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="N29" t="str">
+      <c r="O29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="O29" t="str">
+      <c r="P29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P29" t="str">
+      <c r="Q29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -5217,10 +5433,10 @@
       </c>
       <c r="C30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D30">
-        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E30">
@@ -5247,32 +5463,36 @@
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="K30" s="3">
-        <f t="shared" si="0"/>
-        <v>505</v>
-      </c>
-      <c r="L30" t="str">
+      <c r="K30">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="M30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N30" t="str">
+      <c r="O30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="O30" t="str">
+      <c r="P30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P30" t="str">
+      <c r="Q30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -5284,7 +5504,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D31">
-        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E31">
@@ -5311,32 +5531,36 @@
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L31" t="str">
+      <c r="M31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N31" t="str">
+      <c r="O31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="O31" t="str">
+      <c r="P31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="P31" t="str">
+      <c r="Q31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -5348,7 +5572,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D32">
-        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E32">
@@ -5375,32 +5599,36 @@
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="L32" t="str">
+      <c r="M32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N32" t="str">
+      <c r="O32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="O32" t="str">
+      <c r="P32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P32" t="str">
+      <c r="Q32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -5412,7 +5640,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D33">
-        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E33">
@@ -5439,32 +5667,36 @@
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L33" t="str">
+      <c r="M33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N33" t="str">
+      <c r="O33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="O33" t="str">
+      <c r="P33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="P33" t="str">
+      <c r="Q33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -5476,7 +5708,7 @@
         <v>Still In</v>
       </c>
       <c r="D34">
-        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E34">
@@ -5503,32 +5735,36 @@
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="K34" s="3">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L34" t="str">
+      <c r="K34">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="M34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N34" t="str">
+      <c r="O34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="O34" t="str">
+      <c r="P34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P34" t="str">
+      <c r="Q34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -5540,7 +5776,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D35">
-        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E35">
@@ -5567,32 +5803,36 @@
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L35" t="str">
+      <c r="M35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="N35" t="str">
+      <c r="O35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Account Executive</v>
       </c>
-      <c r="O35" t="str">
+      <c r="P35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'9"</v>
       </c>
-      <c r="P35" t="str">
+      <c r="Q35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -5604,7 +5844,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D36">
-        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>40</v>
       </c>
       <c r="E36">
@@ -5631,32 +5871,36 @@
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="L36" t="str">
+      <c r="M36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N36" t="str">
+      <c r="O36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Singer/Songwriter</v>
       </c>
-      <c r="O36" t="str">
+      <c r="P36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P36" t="str">
+      <c r="Q36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -5668,7 +5912,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D37">
-        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>25</v>
       </c>
       <c r="E37">
@@ -5695,32 +5939,36 @@
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="L37" t="str">
+      <c r="M37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N37" t="str">
+      <c r="O37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="O37" t="str">
+      <c r="P37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P37" t="str">
+      <c r="Q37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -5732,7 +5980,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D38">
-        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E38">
@@ -5759,32 +6007,36 @@
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L38" t="str">
+      <c r="M38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N38" t="str">
+      <c r="O38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="O38" t="str">
+      <c r="P38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="P38" t="str">
+      <c r="Q38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -5796,7 +6048,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D39">
-        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E39">
@@ -5823,32 +6075,36 @@
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="L39" t="str">
+      <c r="M39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N39" t="str">
+      <c r="O39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="O39" t="str">
+      <c r="P39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P39" t="str">
+      <c r="Q39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -5860,7 +6116,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D40">
-        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E40">
@@ -5887,32 +6143,36 @@
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L40" t="str">
+      <c r="M40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N40" t="str">
+      <c r="O40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marketing Consultant</v>
       </c>
-      <c r="O40" t="str">
+      <c r="P40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P40" t="str">
+      <c r="Q40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -5924,7 +6184,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D41">
-        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>5</v>
       </c>
       <c r="E41">
@@ -5951,32 +6211,36 @@
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L41" t="str">
+      <c r="M41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N41" t="str">
+      <c r="O41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="O41" t="str">
+      <c r="P41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P41" t="str">
+      <c r="Q41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -5988,7 +6252,7 @@
         <v>Still In</v>
       </c>
       <c r="D42">
-        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E42">
@@ -6015,32 +6279,36 @@
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="K42" s="3">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L42" t="str">
+      <c r="K42">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="M42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="N42" t="str">
+      <c r="O42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="O42" t="str">
+      <c r="P42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P42" t="str">
+      <c r="Q42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -6052,7 +6320,7 @@
         <v>Still In</v>
       </c>
       <c r="D43">
-        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E43">
@@ -6079,32 +6347,36 @@
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>75</v>
       </c>
-      <c r="K43" s="3">
-        <f t="shared" si="0"/>
-        <v>440</v>
-      </c>
-      <c r="L43" t="str">
+      <c r="K43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L43" s="3">
+        <f t="shared" si="0"/>
+        <v>535</v>
+      </c>
+      <c r="M43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="N43" t="str">
+      <c r="O43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="O43" t="str">
+      <c r="P43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P43" t="str">
+      <c r="Q43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -6116,7 +6388,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D44">
-        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E44">
@@ -6143,32 +6415,36 @@
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="L44" t="str">
+      <c r="M44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="N44" t="str">
+      <c r="O44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="O44" t="str">
+      <c r="P44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P44" t="str">
+      <c r="Q44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -6180,7 +6456,7 @@
         <v>Eliminated</v>
       </c>
       <c r="D45">
-        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>35</v>
       </c>
       <c r="E45">
@@ -6207,32 +6483,36 @@
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
-      <c r="L45" t="str">
+      <c r="M45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="N45" t="str">
+      <c r="O45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="O45" t="str">
+      <c r="P45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P45" t="str">
+      <c r="Q45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -6244,7 +6524,7 @@
         <v>Still In</v>
       </c>
       <c r="D46">
-        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$X$32,17,FALSE)</f>
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$Y$32,17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E46">
@@ -6271,32 +6551,36 @@
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="K46" s="3">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L46" t="str">
+      <c r="K46">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="M46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N46" t="str">
+      <c r="O46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="O46" t="str">
+      <c r="P46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P46" t="str">
+      <c r="Q46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -6329,32 +6613,36 @@
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="K47" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="L47" t="str">
+      <c r="K47">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="M47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N47" t="str">
+      <c r="O47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="O47" t="str">
+      <c r="P47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P47" t="str">
+      <c r="Q47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -6387,32 +6675,36 @@
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>75</v>
       </c>
-      <c r="K48" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="L48" t="str">
+      <c r="K48">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L48" s="3">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="M48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="N48" t="str">
+      <c r="O48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="O48" t="str">
+      <c r="P48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P48" t="str">
+      <c r="Q48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -6445,32 +6737,36 @@
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L49" t="str">
+      <c r="M49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="N49" t="str">
+      <c r="O49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="O49" t="str">
+      <c r="P49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P49" t="str">
+      <c r="Q49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -6503,32 +6799,36 @@
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="K50" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="L50" t="str">
+      <c r="K50">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="M50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="N50" t="str">
+      <c r="O50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="O50" t="str">
+      <c r="P50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P50" t="str">
+      <c r="Q50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -6561,32 +6861,36 @@
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="K51" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="L51" t="str">
+      <c r="K51">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="M51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N51" t="str">
+      <c r="O51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="O51" t="str">
+      <c r="P51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P51" t="str">
+      <c r="Q51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -6595,7 +6899,7 @@
       </c>
       <c r="C52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -6619,32 +6923,36 @@
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="K52" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="L52" t="str">
+      <c r="K52">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L52" s="3">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="M52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N52" t="str">
+      <c r="O52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="O52" t="str">
+      <c r="P52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P52" t="str">
+      <c r="Q52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -6677,32 +6985,36 @@
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="K53" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="L53" t="str">
+      <c r="K53">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="M53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N53" t="str">
+      <c r="O53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="O53" t="str">
+      <c r="P53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P53" t="str">
+      <c r="Q53" t="str">
         <f>VLOOKUP(B53,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -6711,7 +7023,7 @@
       </c>
       <c r="C54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -6735,32 +7047,36 @@
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="K54" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="L54" t="str">
+      <c r="K54">
+        <f>VLOOKUP(B54,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L54" s="3">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="M54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N54" t="str">
+      <c r="O54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="O54" t="str">
+      <c r="P54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P54" t="str">
+      <c r="Q54" t="str">
         <f>VLOOKUP(B54,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -6769,7 +7085,7 @@
       </c>
       <c r="C55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -6793,27 +7109,31 @@
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$W$32,23,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="K55" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="L55" t="str">
+      <c r="K55">
+        <f>VLOOKUP(B55,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="M55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N55" t="str">
+      <c r="O55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="O55" t="str">
+      <c r="P55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P55" t="str">
+      <c r="Q55" t="str">
         <f>VLOOKUP(B55,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
@@ -6826,10 +7146,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6837,10 +7157,10 @@
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6872,25 +7192,28 @@
         <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6930,31 +7253,35 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUM(D2:J2)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>SUM(D2:K2)</f>
         <v>100</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Assistant</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P2" t="str">
+      <c r="Q2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -6994,31 +7321,35 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K21" si="0">SUM(D3:J3)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L21" si="0">SUM(D3:K3)</f>
         <v>85</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -7058,31 +7389,35 @@
         <v>0</v>
       </c>
       <c r="K4">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -7122,31 +7457,35 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -7186,31 +7525,35 @@
         <v>0</v>
       </c>
       <c r="K6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -7250,31 +7593,35 @@
         <v>80</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="M7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -7314,31 +7661,35 @@
         <v>0</v>
       </c>
       <c r="K8">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -7378,31 +7729,35 @@
         <v>0</v>
       </c>
       <c r="K9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -7442,31 +7797,35 @@
         <v>0</v>
       </c>
       <c r="K10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -7506,31 +7865,35 @@
         <v>80</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L11" t="str">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="M11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -7570,31 +7933,35 @@
         <v>90</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L12" t="str">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="M12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="O12" t="str">
+      <c r="P12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P12" t="str">
+      <c r="Q12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -7634,31 +8001,35 @@
         <v>75</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
-        <v>440</v>
-      </c>
-      <c r="L13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>535</v>
+      </c>
+      <c r="M13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="O13" t="str">
+      <c r="P13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P13" t="str">
+      <c r="Q13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -7698,31 +8069,35 @@
         <v>0</v>
       </c>
       <c r="K14">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="O14" t="str">
+      <c r="P14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P14" t="str">
+      <c r="Q14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -7762,31 +8137,35 @@
         <v>80</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L15" t="str">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="M15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="O15" t="str">
+      <c r="P15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P15" t="str">
+      <c r="Q15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -7826,31 +8205,35 @@
         <v>90</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L16" t="str">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="M16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="O16" t="str">
+      <c r="P16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -7890,31 +8273,35 @@
         <v>0</v>
       </c>
       <c r="K17">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="O17" t="str">
+      <c r="P17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="P17" t="str">
+      <c r="Q17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -7954,31 +8341,35 @@
         <v>0</v>
       </c>
       <c r="K18">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="O18" t="str">
+      <c r="P18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P18" t="str">
+      <c r="Q18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -8018,31 +8409,35 @@
         <v>0</v>
       </c>
       <c r="K19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="O19" t="str">
+      <c r="P19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P19" t="str">
+      <c r="Q19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -8082,31 +8477,35 @@
         <v>0</v>
       </c>
       <c r="K20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="O20" t="str">
+      <c r="P20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P20" t="str">
+      <c r="Q20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -8146,26 +8545,30 @@
         <v>0</v>
       </c>
       <c r="K21">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="O21" t="str">
+      <c r="P21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="P21" t="str">
+      <c r="Q21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
@@ -8177,19 +8580,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8221,25 +8624,28 @@
         <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -8259,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G2">
@@ -8279,31 +8685,35 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUM(D2:J2)</f>
+        <f>VLOOKUP(B2,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>SUM(D2:K2)</f>
         <v>5</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P2" t="str">
+      <c r="Q2" t="str">
         <f>VLOOKUP(B2,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -8323,7 +8733,7 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G3">
@@ -8343,31 +8753,35 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K64" si="0">SUM(D3:J3)</f>
+        <f>VLOOKUP(B3,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L64" si="0">SUM(D3:K3)</f>
         <v>180</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <f>VLOOKUP(B3,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -8387,7 +8801,7 @@
         <v>25</v>
       </c>
       <c r="F4">
-        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>105</v>
       </c>
       <c r="G4">
@@ -8407,31 +8821,35 @@
         <v>75</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
-        <v>440</v>
-      </c>
-      <c r="L4" t="str">
+        <f>VLOOKUP(B4,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>535</v>
+      </c>
+      <c r="M4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f>VLOOKUP(B4,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -8451,7 +8869,7 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>45</v>
       </c>
       <c r="G5">
@@ -8471,31 +8889,35 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <f>VLOOKUP(B5,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f>VLOOKUP(B5,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -8515,7 +8937,7 @@
         <v>85</v>
       </c>
       <c r="F6">
-        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G6">
@@ -8535,31 +8957,35 @@
         <v>0</v>
       </c>
       <c r="K6">
+        <f>VLOOKUP(B6,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f>VLOOKUP(B6,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -8579,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G7">
@@ -8599,31 +9025,35 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" t="str">
+        <f>VLOOKUP(B7,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f>VLOOKUP(B7,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -8643,7 +9073,7 @@
         <v>25</v>
       </c>
       <c r="F8">
-        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>105</v>
       </c>
       <c r="G8">
@@ -8663,31 +9093,35 @@
         <v>75</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
-        <v>440</v>
-      </c>
-      <c r="L8" t="str">
+        <f>VLOOKUP(B8,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>535</v>
+      </c>
+      <c r="M8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Personal Trainer</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f>VLOOKUP(B8,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -8707,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G9">
@@ -8727,31 +9161,35 @@
         <v>0</v>
       </c>
       <c r="K9">
+        <f>VLOOKUP(B9,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f>VLOOKUP(B9,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -8771,7 +9209,7 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G10">
@@ -8791,31 +9229,35 @@
         <v>0</v>
       </c>
       <c r="K10">
+        <f>VLOOKUP(B10,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f>VLOOKUP(B10,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -8835,7 +9277,7 @@
         <v>15</v>
       </c>
       <c r="F11">
-        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>80</v>
       </c>
       <c r="G11">
@@ -8855,31 +9297,35 @@
         <v>0</v>
       </c>
       <c r="K11">
+        <f>VLOOKUP(B11,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Professional Wrestler</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f>VLOOKUP(B11,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -8899,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>110</v>
       </c>
       <c r="G12">
@@ -8919,31 +9365,35 @@
         <v>0</v>
       </c>
       <c r="K12">
+        <f>VLOOKUP(B12,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="O12" t="str">
+      <c r="P12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P12" t="str">
+      <c r="Q12" t="str">
         <f>VLOOKUP(B12,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -8952,7 +9402,7 @@
       </c>
       <c r="C13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -8963,7 +9413,7 @@
         <v>55</v>
       </c>
       <c r="F13">
-        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>55</v>
       </c>
       <c r="G13">
@@ -8983,31 +9433,35 @@
         <v>90</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
-        <v>505</v>
-      </c>
-      <c r="L13" t="str">
+        <f>VLOOKUP(B13,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="M13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="O13" t="str">
+      <c r="P13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P13" t="str">
+      <c r="Q13" t="str">
         <f>VLOOKUP(B13,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -9027,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G14">
@@ -9047,31 +9501,35 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" t="str">
+        <f>VLOOKUP(B14,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="O14" t="str">
+      <c r="P14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P14" t="str">
+      <c r="Q14" t="str">
         <f>VLOOKUP(B14,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -9091,7 +9549,7 @@
         <v>85</v>
       </c>
       <c r="F15">
-        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G15">
@@ -9111,31 +9569,35 @@
         <v>0</v>
       </c>
       <c r="K15">
+        <f>VLOOKUP(B15,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="O15" t="str">
+      <c r="P15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="P15" t="str">
+      <c r="Q15" t="str">
         <f>VLOOKUP(B15,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -9155,7 +9617,7 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G16">
@@ -9175,31 +9637,35 @@
         <v>30</v>
       </c>
       <c r="K16">
+        <f>VLOOKUP(B16,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Real Estate Agent</v>
       </c>
-      <c r="O16" t="str">
+      <c r="P16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <f>VLOOKUP(B16,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -9219,7 +9685,7 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G17">
@@ -9239,31 +9705,35 @@
         <v>80</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L17" t="str">
+        <f>VLOOKUP(B17,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="M17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="O17" t="str">
+      <c r="P17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P17" t="str">
+      <c r="Q17" t="str">
         <f>VLOOKUP(B17,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -9283,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G18">
@@ -9303,31 +9773,35 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18" t="str">
+        <f>VLOOKUP(B18,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="O18" t="str">
+      <c r="P18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="P18" t="str">
+      <c r="Q18" t="str">
         <f>VLOOKUP(B18,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -9347,7 +9821,7 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>40</v>
       </c>
       <c r="G19">
@@ -9367,31 +9841,35 @@
         <v>30</v>
       </c>
       <c r="K19">
+        <f>VLOOKUP(B19,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="O19" t="str">
+      <c r="P19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P19" t="str">
+      <c r="Q19" t="str">
         <f>VLOOKUP(B19,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -9411,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G20">
@@ -9431,31 +9909,35 @@
         <v>0</v>
       </c>
       <c r="K20">
+        <f>VLOOKUP(B20,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="O20" t="str">
+      <c r="P20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P20" t="str">
+      <c r="Q20" t="str">
         <f>VLOOKUP(B20,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -9475,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G21">
@@ -9495,31 +9977,35 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" t="str">
+        <f>VLOOKUP(B21,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="N21" t="str">
+      <c r="O21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="O21" t="str">
+      <c r="P21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P21" t="str">
+      <c r="Q21" t="str">
         <f>VLOOKUP(B21,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -9539,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>110</v>
       </c>
       <c r="G22">
@@ -9559,31 +10045,35 @@
         <v>0</v>
       </c>
       <c r="K22">
+        <f>VLOOKUP(B22,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="L22" t="str">
+      <c r="M22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>7% of people have chosen this contestant</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N22" t="str">
+      <c r="O22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Education Software Manager</v>
       </c>
-      <c r="O22" t="str">
+      <c r="P22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P22" t="str">
+      <c r="Q22" t="str">
         <f>VLOOKUP(B22,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -9603,7 +10093,7 @@
         <v>85</v>
       </c>
       <c r="F23">
-        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G23">
@@ -9623,31 +10113,35 @@
         <v>0</v>
       </c>
       <c r="K23">
+        <f>VLOOKUP(B23,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L23" t="str">
+      <c r="M23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N23" t="str">
+      <c r="O23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="O23" t="str">
+      <c r="P23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="P23" t="str">
+      <c r="Q23" t="str">
         <f>VLOOKUP(B23,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -9667,7 +10161,7 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G24">
@@ -9687,31 +10181,35 @@
         <v>0</v>
       </c>
       <c r="K24">
+        <f>VLOOKUP(B24,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L24" t="str">
+      <c r="M24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="N24" t="str">
+      <c r="O24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Assistant</v>
       </c>
-      <c r="O24" t="str">
+      <c r="P24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P24" t="str">
+      <c r="Q24" t="str">
         <f>VLOOKUP(B24,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -9731,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G25">
@@ -9751,31 +10249,35 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" t="str">
+        <f>VLOOKUP(B25,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="N25" t="str">
+      <c r="O25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="O25" t="str">
+      <c r="P25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="P25" t="str">
+      <c r="Q25" t="str">
         <f>VLOOKUP(B25,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -9795,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G26">
@@ -9815,31 +10317,35 @@
         <v>0</v>
       </c>
       <c r="K26">
+        <f>VLOOKUP(B26,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L26" t="str">
+      <c r="M26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N26" t="str">
+      <c r="O26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="O26" t="str">
+      <c r="P26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P26" t="str">
+      <c r="Q26" t="str">
         <f>VLOOKUP(B26,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -9859,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G27">
@@ -9879,31 +10385,35 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L27" t="str">
+        <f>VLOOKUP(B27,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="N27" t="str">
+      <c r="O27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="O27" t="str">
+      <c r="P27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P27" t="str">
+      <c r="Q27" t="str">
         <f>VLOOKUP(B27,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -9923,7 +10433,7 @@
         <v>10</v>
       </c>
       <c r="F28">
-        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G28">
@@ -9943,31 +10453,35 @@
         <v>80</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L28" t="str">
+        <f>VLOOKUP(B28,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="M28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="N28" t="str">
+      <c r="O28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="O28" t="str">
+      <c r="P28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P28" t="str">
+      <c r="Q28" t="str">
         <f>VLOOKUP(B28,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -9987,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>75</v>
       </c>
       <c r="G29">
@@ -10007,31 +10521,35 @@
         <v>0</v>
       </c>
       <c r="K29">
+        <f>VLOOKUP(B29,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="L29" t="str">
+      <c r="M29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N29" t="str">
+      <c r="O29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Firefighter</v>
       </c>
-      <c r="O29" t="str">
+      <c r="P29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P29" t="str">
+      <c r="Q29" t="str">
         <f>VLOOKUP(B29,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -10051,7 +10569,7 @@
         <v>15</v>
       </c>
       <c r="F30">
-        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G30">
@@ -10071,31 +10589,35 @@
         <v>0</v>
       </c>
       <c r="K30">
+        <f>VLOOKUP(B30,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="L30" t="str">
+      <c r="M30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="N30" t="str">
+      <c r="O30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="O30" t="str">
+      <c r="P30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P30" t="str">
+      <c r="Q30" t="str">
         <f>VLOOKUP(B30,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -10115,7 +10637,7 @@
         <v>10</v>
       </c>
       <c r="F31">
-        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G31">
@@ -10135,31 +10657,35 @@
         <v>0</v>
       </c>
       <c r="K31">
+        <f>VLOOKUP(B31,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="L31" t="str">
+      <c r="M31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="N31" t="str">
+      <c r="O31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="O31" t="str">
+      <c r="P31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P31" t="str">
+      <c r="Q31" t="str">
         <f>VLOOKUP(B31,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -10179,7 +10705,7 @@
         <v>55</v>
       </c>
       <c r="F32">
-        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G32">
@@ -10199,31 +10725,35 @@
         <v>0</v>
       </c>
       <c r="K32">
+        <f>VLOOKUP(B32,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="L32" t="str">
+      <c r="M32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="N32" t="str">
+      <c r="O32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="O32" t="str">
+      <c r="P32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P32" t="str">
+      <c r="Q32" t="str">
         <f>VLOOKUP(B32,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -10243,7 +10773,7 @@
         <v>10</v>
       </c>
       <c r="F33">
-        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>40</v>
       </c>
       <c r="G33">
@@ -10263,31 +10793,35 @@
         <v>30</v>
       </c>
       <c r="K33">
+        <f>VLOOKUP(B33,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="L33" t="str">
+      <c r="M33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="N33" t="str">
+      <c r="O33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Construction Sales Rep</v>
       </c>
-      <c r="O33" t="str">
+      <c r="P33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P33" t="str">
+      <c r="Q33" t="str">
         <f>VLOOKUP(B33,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -10307,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G34">
@@ -10327,31 +10861,35 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L34" t="str">
+        <f>VLOOKUP(B34,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="N34" t="str">
+      <c r="O34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="O34" t="str">
+      <c r="P34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P34" t="str">
+      <c r="Q34" t="str">
         <f>VLOOKUP(B34,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -10371,7 +10909,7 @@
         <v>85</v>
       </c>
       <c r="F35">
-        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G35">
@@ -10391,31 +10929,35 @@
         <v>0</v>
       </c>
       <c r="K35">
+        <f>VLOOKUP(B35,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L35" t="str">
+      <c r="M35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N35" t="str">
+      <c r="O35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="O35" t="str">
+      <c r="P35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="P35" t="str">
+      <c r="Q35" t="str">
         <f>VLOOKUP(B35,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -10435,7 +10977,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G36">
@@ -10455,31 +10997,35 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L36" t="str">
+        <f>VLOOKUP(B36,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>35</v>
       </c>
-      <c r="N36" t="str">
+      <c r="O36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>ER Physician</v>
       </c>
-      <c r="O36" t="str">
+      <c r="P36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'10"</v>
       </c>
-      <c r="P36" t="str">
+      <c r="Q36" t="str">
         <f>VLOOKUP(B36,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -10499,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G37">
@@ -10519,31 +11065,35 @@
         <v>0</v>
       </c>
       <c r="K37">
+        <f>VLOOKUP(B37,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L37" t="str">
+      <c r="M37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N37" t="str">
+      <c r="O37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Former Professional Basketball Player</v>
       </c>
-      <c r="O37" t="str">
+      <c r="P37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P37" t="str">
+      <c r="Q37" t="str">
         <f>VLOOKUP(B37,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -10563,7 +11113,7 @@
         <v>10</v>
       </c>
       <c r="F38">
-        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>45</v>
       </c>
       <c r="G38">
@@ -10583,31 +11133,35 @@
         <v>0</v>
       </c>
       <c r="K38">
+        <f>VLOOKUP(B38,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="L38" t="str">
+      <c r="M38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>13% of people have chosen this contestant</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N38" t="str">
+      <c r="O38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Senior Inventory Analyst</v>
       </c>
-      <c r="O38" t="str">
+      <c r="P38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P38" t="str">
+      <c r="Q38" t="str">
         <f>VLOOKUP(B38,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -10627,7 +11181,7 @@
         <v>75</v>
       </c>
       <c r="F39">
-        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>40</v>
       </c>
       <c r="G39">
@@ -10647,31 +11201,35 @@
         <v>90</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L39" t="str">
+        <f>VLOOKUP(B39,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="M39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>9% of people have chosen this contestant</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N39" t="str">
+      <c r="O39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Business Owner</v>
       </c>
-      <c r="O39" t="str">
+      <c r="P39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P39" t="str">
+      <c r="Q39" t="str">
         <f>VLOOKUP(B39,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -10691,7 +11249,7 @@
         <v>10</v>
       </c>
       <c r="F40">
-        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G40">
@@ -10711,31 +11269,35 @@
         <v>80</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L40" t="str">
+        <f>VLOOKUP(B40,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="M40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="N40" t="str">
+      <c r="O40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="O40" t="str">
+      <c r="P40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P40" t="str">
+      <c r="Q40" t="str">
         <f>VLOOKUP(B40,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -10755,7 +11317,7 @@
         <v>85</v>
       </c>
       <c r="F41">
-        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G41">
@@ -10775,31 +11337,35 @@
         <v>0</v>
       </c>
       <c r="K41">
+        <f>VLOOKUP(B41,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L41" t="str">
+      <c r="M41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N41" t="str">
+      <c r="O41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="O41" t="str">
+      <c r="P41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="P41" t="str">
+      <c r="Q41" t="str">
         <f>VLOOKUP(B41,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -10819,7 +11385,7 @@
         <v>15</v>
       </c>
       <c r="F42">
-        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G42">
@@ -10839,31 +11405,35 @@
         <v>0</v>
       </c>
       <c r="K42">
+        <f>VLOOKUP(B42,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="L42" t="str">
+      <c r="M42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="N42" t="str">
+      <c r="O42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Attorney</v>
       </c>
-      <c r="O42" t="str">
+      <c r="P42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>5'11"</v>
       </c>
-      <c r="P42" t="str">
+      <c r="Q42" t="str">
         <f>VLOOKUP(B42,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -10883,7 +11453,7 @@
         <v>85</v>
       </c>
       <c r="F43">
-        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G43">
@@ -10903,31 +11473,35 @@
         <v>0</v>
       </c>
       <c r="K43">
+        <f>VLOOKUP(B43,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L43" t="str">
+      <c r="M43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N43" t="str">
+      <c r="O43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="O43" t="str">
+      <c r="P43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="P43" t="str">
+      <c r="Q43" t="str">
         <f>VLOOKUP(B43,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -10947,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G44">
@@ -10967,31 +11541,35 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L44" t="str">
+        <f>VLOOKUP(B44,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>29</v>
       </c>
-      <c r="N44" t="str">
+      <c r="O44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Marine Veteran</v>
       </c>
-      <c r="O44" t="str">
+      <c r="P44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P44" t="str">
+      <c r="Q44" t="str">
         <f>VLOOKUP(B44,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Asian</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -11011,7 +11589,7 @@
         <v>10</v>
       </c>
       <c r="F45">
-        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G45">
@@ -11031,31 +11609,35 @@
         <v>80</v>
       </c>
       <c r="K45">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L45" t="str">
+        <f>VLOOKUP(B45,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="M45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="N45" t="str">
+      <c r="O45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Chiropractor</v>
       </c>
-      <c r="O45" t="str">
+      <c r="P45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P45" t="str">
+      <c r="Q45" t="str">
         <f>VLOOKUP(B45,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -11075,7 +11657,7 @@
         <v>55</v>
       </c>
       <c r="F46">
-        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G46">
@@ -11095,31 +11677,35 @@
         <v>0</v>
       </c>
       <c r="K46">
+        <f>VLOOKUP(B46,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="L46" t="str">
+      <c r="M46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="N46" t="str">
+      <c r="O46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Prosecuting Attorney</v>
       </c>
-      <c r="O46" t="str">
+      <c r="P46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P46" t="str">
+      <c r="Q46" t="str">
         <f>VLOOKUP(B46,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -11128,7 +11714,7 @@
       </c>
       <c r="C47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$B$32,2,FALSE)</f>
-        <v>Still In</v>
+        <v>Eliminated</v>
       </c>
       <c r="D47">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$Q$32,17,FALSE)</f>
@@ -11139,7 +11725,7 @@
         <v>55</v>
       </c>
       <c r="F47">
-        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>55</v>
       </c>
       <c r="G47">
@@ -11159,31 +11745,35 @@
         <v>90</v>
       </c>
       <c r="K47">
-        <f t="shared" si="0"/>
-        <v>505</v>
-      </c>
-      <c r="L47" t="str">
+        <f>VLOOKUP(B47,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="M47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>26</v>
       </c>
-      <c r="N47" t="str">
+      <c r="O47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Startup Recruiter</v>
       </c>
-      <c r="O47" t="str">
+      <c r="P47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P47" t="str">
+      <c r="Q47" t="str">
         <f>VLOOKUP(B47,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -11203,7 +11793,7 @@
         <v>85</v>
       </c>
       <c r="F48">
-        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G48">
@@ -11223,31 +11813,35 @@
         <v>0</v>
       </c>
       <c r="K48">
+        <f>VLOOKUP(B48,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L48" t="str">
+      <c r="M48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>11% of people have chosen this contestant</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N48" t="str">
+      <c r="O48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Executive Recruiter</v>
       </c>
-      <c r="O48" t="str">
+      <c r="P48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'4"</v>
       </c>
-      <c r="P48" t="str">
+      <c r="Q48" t="str">
         <f>VLOOKUP(B48,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -11267,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G49">
@@ -11287,31 +11881,35 @@
         <v>0</v>
       </c>
       <c r="K49">
+        <f>VLOOKUP(B49,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L49" t="str">
+      <c r="M49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="N49" t="str">
+      <c r="O49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Law Student</v>
       </c>
-      <c r="O49" t="str">
+      <c r="P49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P49" t="str">
+      <c r="Q49" t="str">
         <f>VLOOKUP(B49,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -11331,7 +11929,7 @@
         <v>15</v>
       </c>
       <c r="F50">
-        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>100</v>
       </c>
       <c r="G50">
@@ -11351,31 +11949,35 @@
         <v>0</v>
       </c>
       <c r="K50">
+        <f>VLOOKUP(B50,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="L50" t="str">
+      <c r="M50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>2% of people have chosen this contestant</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="N50" t="str">
+      <c r="O50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Information Systems Supervisor</v>
       </c>
-      <c r="O50" t="str">
+      <c r="P50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'2"</v>
       </c>
-      <c r="P50" t="str">
+      <c r="Q50" t="str">
         <f>VLOOKUP(B50,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -11395,7 +11997,7 @@
         <v>10</v>
       </c>
       <c r="F51">
-        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G51">
@@ -11415,31 +12017,35 @@
         <v>0</v>
       </c>
       <c r="K51">
+        <f>VLOOKUP(B51,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="L51" t="str">
+      <c r="M51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>4% of people have chosen this contestant</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="N51" t="str">
+      <c r="O51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Sales Manager</v>
       </c>
-      <c r="O51" t="str">
+      <c r="P51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'3"</v>
       </c>
-      <c r="P51" t="str">
+      <c r="Q51" t="str">
         <f>VLOOKUP(B51,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>African American</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>114</v>
       </c>
@@ -11459,7 +12065,7 @@
         <v>45</v>
       </c>
       <c r="F52">
-        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>15</v>
       </c>
       <c r="G52">
@@ -11479,31 +12085,35 @@
         <v>0</v>
       </c>
       <c r="K52">
+        <f>VLOOKUP(B52,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="L52" t="str">
+      <c r="M52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$J$32,10,FALSE)</f>
         <v>0% of people have chosen this contestant</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$D$32,4,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="N52" t="str">
+      <c r="O52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$E$32,5,FALSE)</f>
         <v>Aspiring Drummer</v>
       </c>
-      <c r="O52" t="str">
+      <c r="P52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$F$32,6,FALSE)</f>
         <v>6'</v>
       </c>
-      <c r="P52" t="str">
+      <c r="Q52" t="str">
         <f>VLOOKUP(B52,'Contestant Points'!$A$2:$G$32,7,FALSE)</f>
         <v>Caucasian</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -11523,7 +12133,7 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$X$32,19,FALSE)</f>
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$Y$32,19,FALSE)</f>
         <v>65</v>
       </c>
       <c r="G53">
@@ -11543,31 +12153,35 @@
         <v>80</v>
       </c>
       <c r="K53">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="L53" t="str">
+        <f>VLOOKUP(B53,'Contestant Points'!$A$2:$X$32,24,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r=